--- a/Ionocyte/All 1dph ionocyte data.xlsx
+++ b/Ionocyte/All 1dph ionocyte data.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\teres\Documents\GitHub\MenidiaOA\Ionocyte\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{82A8396E-9639-477A-B4EC-770FB7CE5CB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1E89A84-069F-43E1-A8B5-55D9B2C2230E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="17640"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="balanceddata" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1851" uniqueCount="415">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1852" uniqueCount="416">
   <si>
     <t>Experiment</t>
   </si>
@@ -1265,12 +1265,15 @@
   </si>
   <si>
     <t>Year</t>
+  </si>
+  <si>
+    <t>testing whether you can commit with the file open</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2105,11 +2108,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AE365"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2400,6 +2403,9 @@
       <c r="A4" t="s">
         <v>30</v>
       </c>
+      <c r="B4" t="s">
+        <v>415</v>
+      </c>
       <c r="C4" t="s">
         <v>31</v>
       </c>

--- a/Ionocyte/All 1dph ionocyte data.xlsx
+++ b/Ionocyte/All 1dph ionocyte data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\teres\Documents\GitHub\MenidiaOA\Ionocyte\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1E89A84-069F-43E1-A8B5-55D9B2C2230E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F4D989F-06D5-4EAA-B2A9-5A0DB8390D9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1852" uniqueCount="416">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1851" uniqueCount="415">
   <si>
     <t>Experiment</t>
   </si>
@@ -1265,9 +1265,6 @@
   </si>
   <si>
     <t>Year</t>
-  </si>
-  <si>
-    <t>testing whether you can commit with the file open</t>
   </si>
 </sst>
 </file>
@@ -2112,7 +2109,7 @@
   <dimension ref="A1:AE365"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2403,9 +2400,6 @@
       <c r="A4" t="s">
         <v>30</v>
       </c>
-      <c r="B4" t="s">
-        <v>415</v>
-      </c>
       <c r="C4" t="s">
         <v>31</v>
       </c>

--- a/Ionocyte/All 1dph ionocyte data.xlsx
+++ b/Ionocyte/All 1dph ionocyte data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\teres\Documents\GitHub\MenidiaOA\Ionocyte\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F4D989F-06D5-4EAA-B2A9-5A0DB8390D9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC624A94-65F1-40CA-A1B8-108ACCB20F02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1851" uniqueCount="415">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1852" uniqueCount="416">
   <si>
     <t>Experiment</t>
   </si>
@@ -1265,6 +1265,9 @@
   </si>
   <si>
     <t>Year</t>
+  </si>
+  <si>
+    <t>testing again with gitignore added</t>
   </si>
 </sst>
 </file>
@@ -2109,7 +2112,7 @@
   <dimension ref="A1:AE365"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2400,6 +2403,9 @@
       <c r="A4" t="s">
         <v>30</v>
       </c>
+      <c r="B4" t="s">
+        <v>415</v>
+      </c>
       <c r="C4" t="s">
         <v>31</v>
       </c>

--- a/Ionocyte/All 1dph ionocyte data.xlsx
+++ b/Ionocyte/All 1dph ionocyte data.xlsx
@@ -1,21 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\teres\Documents\GitHub\MenidiaOA\Ionocyte\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{14BCB123-1E69-456C-8116-F6DD8836333B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E9B47EE-4D71-4B73-B196-25AD477CAA3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="17640"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Temp 1dph data with trmt levels" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -1405,7 +1417,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2241,11 +2253,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AT400"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AF1" workbookViewId="0">
-      <selection activeCell="AY10" sqref="AY10"/>
+    <sheetView tabSelected="1" topLeftCell="A214" workbookViewId="0">
+      <selection activeCell="K232" sqref="K232"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2436,39 +2448,114 @@
       <c r="E2">
         <v>390262.16220000002</v>
       </c>
+      <c r="F2">
+        <f>E2/1000000</f>
+        <v>0.39026216220000004</v>
+      </c>
       <c r="G2">
         <v>81</v>
       </c>
       <c r="H2">
         <v>300265.11910000001</v>
       </c>
+      <c r="I2">
+        <f>H2/1000000</f>
+        <v>0.30026511910000003</v>
+      </c>
       <c r="J2">
         <v>61</v>
       </c>
       <c r="K2">
-        <v>2.07553E-4</v>
+        <f>G2/E2</f>
+        <v>2.0755278847271245E-4</v>
+      </c>
+      <c r="L2">
+        <f>G2/F2</f>
+        <v>207.55278847271245</v>
       </c>
       <c r="M2">
-        <v>2.0315399999999999E-4</v>
+        <f>J2/H2</f>
+        <v>2.0315380015780194E-4</v>
+      </c>
+      <c r="N2">
+        <f>J2/I2</f>
+        <v>203.15380015780192</v>
+      </c>
+      <c r="O2">
+        <f>E2+H2</f>
+        <v>690527.28130000003</v>
+      </c>
+      <c r="P2">
+        <f>F2+I2</f>
+        <v>0.69052728130000007</v>
+      </c>
+      <c r="Q2">
+        <f>G2+J2</f>
+        <v>142</v>
+      </c>
+      <c r="R2">
+        <f>Q2/O2</f>
+        <v>2.0563995637169909E-4</v>
+      </c>
+      <c r="S2">
+        <f>Q2/P2</f>
+        <v>205.6399563716991</v>
       </c>
       <c r="T2">
         <v>542369.82810000004</v>
       </c>
+      <c r="U2">
+        <f>T2/1000000</f>
+        <v>0.54236982810000001</v>
+      </c>
       <c r="V2">
         <v>32</v>
       </c>
       <c r="W2">
         <v>466419.66710000002</v>
       </c>
+      <c r="X2">
+        <f>W2/1000000</f>
+        <v>0.46641966710000005</v>
+      </c>
       <c r="Y2">
         <v>56</v>
       </c>
       <c r="Z2" s="1">
-        <v>5.8999999999999998E-5</v>
-      </c>
-      <c r="AA2" s="1"/>
+        <f>V2/T2</f>
+        <v>5.9000332138866626E-5</v>
+      </c>
+      <c r="AA2" s="1">
+        <f>V2/U2</f>
+        <v>59.000332138866632</v>
+      </c>
       <c r="AB2">
-        <v>1.2006399999999999E-4</v>
+        <f>Y2/W2</f>
+        <v>1.2006354780917428E-4</v>
+      </c>
+      <c r="AC2">
+        <f>Y2/X2</f>
+        <v>120.06354780917427</v>
+      </c>
+      <c r="AD2">
+        <f>T2+W2</f>
+        <v>1008789.4952</v>
+      </c>
+      <c r="AE2">
+        <f>U2+X2</f>
+        <v>1.0087894952000001</v>
+      </c>
+      <c r="AF2">
+        <f>V2+Y2</f>
+        <v>88</v>
+      </c>
+      <c r="AG2">
+        <f>AF2/AD2</f>
+        <v>8.7233263647886573E-5</v>
+      </c>
+      <c r="AH2">
+        <f>AF2/AE2</f>
+        <v>87.23326364788656</v>
       </c>
       <c r="AJ2" s="1"/>
     </row>
@@ -2505,7 +2592,7 @@
         <v>2.8593500000000002E-4</v>
       </c>
       <c r="T3">
-        <v>340228</v>
+        <v>302764.814464</v>
       </c>
       <c r="V3">
         <v>15</v>
@@ -2559,7 +2646,7 @@
         <v>2.4524200000000001E-4</v>
       </c>
       <c r="T4">
-        <v>407389</v>
+        <v>362530.58243200002</v>
       </c>
       <c r="V4">
         <v>23</v>
@@ -3332,7 +3419,7 @@
         <v>4.0068900000000003E-4</v>
       </c>
       <c r="T19">
-        <v>454772</v>
+        <v>404696.14553600003</v>
       </c>
       <c r="V19">
         <v>194</v>
@@ -3944,7 +4031,7 @@
         <v>3.8029399999999999E-4</v>
       </c>
       <c r="T31">
-        <v>329891</v>
+        <v>293566.04220800003</v>
       </c>
       <c r="V31">
         <v>164</v>

--- a/Ionocyte/All 1dph ionocyte data.xlsx
+++ b/Ionocyte/All 1dph ionocyte data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\teres\Documents\GitHub\MenidiaOA\Ionocyte\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E9B47EE-4D71-4B73-B196-25AD477CAA3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E20EE11-686F-418A-A6AA-1419A266745C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1243" uniqueCount="460">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1240" uniqueCount="459">
   <si>
     <t>Experiment</t>
   </si>
@@ -848,9 +848,6 @@
   </si>
   <si>
     <t>2016-468</t>
-  </si>
-  <si>
-    <t>2016-469</t>
   </si>
   <si>
     <t>2016-470</t>
@@ -2254,10 +2251,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AT400"/>
+  <dimension ref="A1:AT399"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A214" workbookViewId="0">
-      <selection activeCell="K232" sqref="K232"/>
+    <sheetView tabSelected="1" topLeftCell="A361" workbookViewId="0">
+      <selection activeCell="D365" sqref="D365"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2297,7 +2294,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
@@ -2306,130 +2303,130 @@
         <v>2</v>
       </c>
       <c r="E1" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>422</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>423</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>3</v>
       </c>
       <c r="H1" s="2" t="s">
+        <v>427</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>428</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>429</v>
       </c>
       <c r="J1" s="2" t="s">
         <v>5</v>
       </c>
       <c r="K1" s="2" t="s">
+        <v>423</v>
+      </c>
+      <c r="L1" s="2" t="s">
         <v>424</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>430</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>431</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>434</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>435</v>
+      </c>
+      <c r="T1" s="2" t="s">
         <v>425</v>
       </c>
-      <c r="M1" s="2" t="s">
-        <v>430</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>431</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>432</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>433</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>434</v>
-      </c>
-      <c r="R1" s="2" t="s">
-        <v>435</v>
-      </c>
-      <c r="S1" s="2" t="s">
-        <v>436</v>
-      </c>
-      <c r="T1" s="2" t="s">
+      <c r="U1" s="2" t="s">
         <v>426</v>
-      </c>
-      <c r="U1" s="2" t="s">
-        <v>427</v>
       </c>
       <c r="V1" s="2" t="s">
         <v>4</v>
       </c>
       <c r="W1" s="2" t="s">
+        <v>438</v>
+      </c>
+      <c r="X1" s="2" t="s">
         <v>439</v>
-      </c>
-      <c r="X1" s="2" t="s">
-        <v>440</v>
       </c>
       <c r="Y1" s="2" t="s">
         <v>6</v>
       </c>
       <c r="Z1" s="2" t="s">
+        <v>436</v>
+      </c>
+      <c r="AA1" s="2" t="s">
         <v>437</v>
       </c>
-      <c r="AA1" s="2" t="s">
-        <v>438</v>
-      </c>
       <c r="AB1" s="2" t="s">
+        <v>440</v>
+      </c>
+      <c r="AC1" s="2" t="s">
         <v>441</v>
       </c>
-      <c r="AC1" s="2" t="s">
+      <c r="AD1" s="2" t="s">
         <v>442</v>
       </c>
-      <c r="AD1" s="2" t="s">
+      <c r="AE1" s="2" t="s">
         <v>443</v>
       </c>
-      <c r="AE1" s="2" t="s">
+      <c r="AF1" s="2" t="s">
         <v>444</v>
       </c>
-      <c r="AF1" s="2" t="s">
+      <c r="AG1" s="2" t="s">
         <v>445</v>
       </c>
-      <c r="AG1" s="2" t="s">
+      <c r="AH1" s="2" t="s">
         <v>446</v>
       </c>
-      <c r="AH1" s="2" t="s">
+      <c r="AI1" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="AJ1" s="2" t="s">
+        <v>451</v>
+      </c>
+      <c r="AK1" s="2" t="s">
         <v>447</v>
       </c>
-      <c r="AI1" s="2" t="s">
-        <v>451</v>
-      </c>
-      <c r="AJ1" s="2" t="s">
+      <c r="AL1" s="2" t="s">
+        <v>448</v>
+      </c>
+      <c r="AM1" s="2" t="s">
+        <v>449</v>
+      </c>
+      <c r="AN1" s="2" t="s">
         <v>452</v>
       </c>
-      <c r="AK1" s="2" t="s">
-        <v>448</v>
-      </c>
-      <c r="AL1" s="2" t="s">
-        <v>449</v>
-      </c>
-      <c r="AM1" s="2" t="s">
-        <v>450</v>
-      </c>
-      <c r="AN1" s="2" t="s">
+      <c r="AO1" s="2" t="s">
         <v>453</v>
       </c>
-      <c r="AO1" s="2" t="s">
+      <c r="AP1" s="2" t="s">
         <v>454</v>
       </c>
-      <c r="AP1" s="2" t="s">
+      <c r="AQ1" s="2" t="s">
+        <v>457</v>
+      </c>
+      <c r="AR1" s="2" t="s">
+        <v>456</v>
+      </c>
+      <c r="AS1" s="2" t="s">
         <v>455</v>
       </c>
-      <c r="AQ1" s="2" t="s">
+      <c r="AT1" s="2" t="s">
         <v>458</v>
-      </c>
-      <c r="AR1" s="2" t="s">
-        <v>457</v>
-      </c>
-      <c r="AS1" s="2" t="s">
-        <v>456</v>
-      </c>
-      <c r="AT1" s="2" t="s">
-        <v>459</v>
       </c>
     </row>
     <row r="2" spans="1:46" x14ac:dyDescent="0.3">
@@ -15677,40 +15674,40 @@
         <v>272</v>
       </c>
       <c r="E256">
-        <v>766873.44240000006</v>
+        <v>411463.7438</v>
       </c>
       <c r="G256">
-        <v>329</v>
+        <v>124</v>
       </c>
       <c r="H256">
-        <v>469540.50429999997</v>
+        <v>466892.19760000001</v>
       </c>
       <c r="J256">
-        <v>226</v>
+        <v>146</v>
       </c>
       <c r="K256">
-        <v>4.2901499999999998E-4</v>
+        <v>3.0136300000000002E-4</v>
       </c>
       <c r="M256">
-        <v>4.8132200000000001E-4</v>
+        <v>3.12706E-4</v>
       </c>
       <c r="T256">
-        <v>796767.45</v>
+        <v>430501.11780000001</v>
       </c>
       <c r="V256">
-        <v>383</v>
+        <v>152</v>
       </c>
       <c r="W256">
-        <v>594441.62439999997</v>
+        <v>572783.53029999998</v>
       </c>
       <c r="Y256">
-        <v>261</v>
+        <v>140</v>
       </c>
       <c r="Z256">
-        <v>4.8069200000000001E-4</v>
+        <v>3.5307699999999998E-4</v>
       </c>
       <c r="AB256">
-        <v>4.3906799999999998E-4</v>
+        <v>2.4442000000000002E-4</v>
       </c>
       <c r="AI256" s="1"/>
       <c r="AJ256" s="1"/>
@@ -15729,40 +15726,40 @@
         <v>273</v>
       </c>
       <c r="E257">
-        <v>411463.7438</v>
+        <v>797303.16260000004</v>
       </c>
       <c r="G257">
-        <v>124</v>
+        <v>378</v>
       </c>
       <c r="H257">
-        <v>466892.19760000001</v>
+        <v>524968.06830000004</v>
       </c>
       <c r="J257">
-        <v>146</v>
+        <v>176</v>
       </c>
       <c r="K257">
-        <v>3.0136300000000002E-4</v>
+        <v>4.74098E-4</v>
       </c>
       <c r="M257">
-        <v>3.12706E-4</v>
+        <v>3.3525800000000001E-4</v>
       </c>
       <c r="T257">
-        <v>430501.11780000001</v>
+        <v>835231.96889999998</v>
       </c>
       <c r="V257">
-        <v>152</v>
+        <v>439</v>
       </c>
       <c r="W257">
-        <v>572783.53029999998</v>
+        <v>650538.38419999997</v>
       </c>
       <c r="Y257">
-        <v>140</v>
+        <v>212</v>
       </c>
       <c r="Z257">
-        <v>3.5307699999999998E-4</v>
+        <v>5.2560200000000001E-4</v>
       </c>
       <c r="AB257">
-        <v>2.4442000000000002E-4</v>
+        <v>3.2588400000000003E-4</v>
       </c>
       <c r="AI257" s="1"/>
       <c r="AJ257" s="1"/>
@@ -15781,40 +15778,40 @@
         <v>274</v>
       </c>
       <c r="E258">
-        <v>797303.16260000004</v>
+        <v>492404.39669999998</v>
       </c>
       <c r="G258">
-        <v>378</v>
+        <v>130</v>
       </c>
       <c r="H258">
-        <v>524968.06830000004</v>
+        <v>471163.66</v>
       </c>
       <c r="J258">
-        <v>176</v>
+        <v>153</v>
       </c>
       <c r="K258">
-        <v>4.74098E-4</v>
+        <v>2.6401099999999998E-4</v>
       </c>
       <c r="M258">
-        <v>3.3525800000000001E-4</v>
+        <v>3.2472799999999998E-4</v>
       </c>
       <c r="T258">
-        <v>835231.96889999998</v>
+        <v>549978.37049999996</v>
       </c>
       <c r="V258">
-        <v>439</v>
+        <v>171</v>
       </c>
       <c r="W258">
-        <v>650538.38419999997</v>
+        <v>519641.19870000001</v>
       </c>
       <c r="Y258">
-        <v>212</v>
+        <v>161</v>
       </c>
       <c r="Z258">
-        <v>5.2560200000000001E-4</v>
+        <v>3.1092099999999997E-4</v>
       </c>
       <c r="AB258">
-        <v>3.2588400000000003E-4</v>
+        <v>3.0982900000000002E-4</v>
       </c>
       <c r="AI258" s="1"/>
       <c r="AJ258" s="1"/>
@@ -15833,40 +15830,40 @@
         <v>275</v>
       </c>
       <c r="E259">
-        <v>492404.39669999998</v>
+        <v>747556.64359999995</v>
       </c>
       <c r="G259">
-        <v>130</v>
+        <v>357</v>
       </c>
       <c r="H259">
-        <v>471163.66</v>
+        <v>477325.24449999997</v>
       </c>
       <c r="J259">
-        <v>153</v>
+        <v>174</v>
       </c>
       <c r="K259">
-        <v>2.6401099999999998E-4</v>
+        <v>4.7755600000000002E-4</v>
       </c>
       <c r="M259">
-        <v>3.2472799999999998E-4</v>
+        <v>3.6453100000000002E-4</v>
       </c>
       <c r="T259">
-        <v>549978.37049999996</v>
+        <v>759137.64599999995</v>
       </c>
       <c r="V259">
-        <v>171</v>
+        <v>385</v>
       </c>
       <c r="W259">
-        <v>519641.19870000001</v>
+        <v>739933.86300000001</v>
       </c>
       <c r="Y259">
-        <v>161</v>
+        <v>200</v>
       </c>
       <c r="Z259">
-        <v>3.1092099999999997E-4</v>
+        <v>5.07154E-4</v>
       </c>
       <c r="AB259">
-        <v>3.0982900000000002E-4</v>
+        <v>2.7029400000000002E-4</v>
       </c>
       <c r="AI259" s="1"/>
       <c r="AJ259" s="1"/>
@@ -15885,40 +15882,40 @@
         <v>276</v>
       </c>
       <c r="E260">
-        <v>747556.64359999995</v>
+        <v>655277.9277</v>
       </c>
       <c r="G260">
-        <v>357</v>
+        <v>275</v>
       </c>
       <c r="H260">
-        <v>477325.24449999997</v>
+        <v>389297.52360000001</v>
       </c>
       <c r="J260">
-        <v>174</v>
+        <v>135</v>
       </c>
       <c r="K260">
-        <v>4.7755600000000002E-4</v>
+        <v>4.1966900000000001E-4</v>
       </c>
       <c r="M260">
-        <v>3.6453100000000002E-4</v>
+        <v>3.4677800000000001E-4</v>
       </c>
       <c r="T260">
-        <v>759137.64599999995</v>
+        <v>659537.82149999996</v>
       </c>
       <c r="V260">
-        <v>385</v>
+        <v>296</v>
       </c>
       <c r="W260">
-        <v>739933.86300000001</v>
+        <v>533555.48750000005</v>
       </c>
       <c r="Y260">
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="Z260">
-        <v>5.07154E-4</v>
+        <v>4.48799E-4</v>
       </c>
       <c r="AB260">
-        <v>2.7029400000000002E-4</v>
+        <v>3.2798799999999998E-4</v>
       </c>
       <c r="AI260" s="1"/>
       <c r="AJ260" s="1"/>
@@ -15937,40 +15934,40 @@
         <v>277</v>
       </c>
       <c r="E261">
-        <v>655277.9277</v>
+        <v>629006.65410000004</v>
       </c>
       <c r="G261">
-        <v>275</v>
+        <v>127</v>
       </c>
       <c r="H261">
-        <v>389297.52360000001</v>
+        <v>456461.82040000003</v>
       </c>
       <c r="J261">
-        <v>135</v>
+        <v>199</v>
       </c>
       <c r="K261">
-        <v>4.1966900000000001E-4</v>
+        <v>2.0190599999999999E-4</v>
       </c>
       <c r="M261">
-        <v>3.4677800000000001E-4</v>
+        <v>4.3596200000000002E-4</v>
       </c>
       <c r="T261">
-        <v>659537.82149999996</v>
+        <v>687190.20120000001</v>
       </c>
       <c r="V261">
-        <v>296</v>
+        <v>122</v>
       </c>
       <c r="W261">
-        <v>533555.48750000005</v>
+        <v>613646.29740000004</v>
       </c>
       <c r="Y261">
-        <v>175</v>
+        <v>239</v>
       </c>
       <c r="Z261">
-        <v>4.48799E-4</v>
+        <v>1.7753499999999999E-4</v>
       </c>
       <c r="AB261">
-        <v>3.2798799999999998E-4</v>
+        <v>3.8947500000000002E-4</v>
       </c>
       <c r="AI261" s="1"/>
       <c r="AJ261" s="1"/>
@@ -15989,40 +15986,40 @@
         <v>278</v>
       </c>
       <c r="E262">
-        <v>629006.65410000004</v>
+        <v>548535.86210000003</v>
       </c>
       <c r="G262">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="H262">
-        <v>456461.82040000003</v>
+        <v>503221.87520000001</v>
       </c>
       <c r="J262">
-        <v>199</v>
+        <v>186</v>
       </c>
       <c r="K262">
-        <v>2.0190599999999999E-4</v>
+        <v>2.4428699999999999E-4</v>
       </c>
       <c r="M262">
-        <v>4.3596200000000002E-4</v>
+        <v>3.69618E-4</v>
       </c>
       <c r="T262">
-        <v>687190.20120000001</v>
+        <v>565500.68689999997</v>
       </c>
       <c r="V262">
-        <v>122</v>
+        <v>148</v>
       </c>
       <c r="W262">
-        <v>613646.29740000004</v>
+        <v>599584.28720000002</v>
       </c>
       <c r="Y262">
-        <v>239</v>
+        <v>225</v>
       </c>
       <c r="Z262">
-        <v>1.7753499999999999E-4</v>
+        <v>2.6171499999999998E-4</v>
       </c>
       <c r="AB262">
-        <v>3.8947500000000002E-4</v>
+        <v>3.7525999999999998E-4</v>
       </c>
       <c r="AI262" s="1"/>
       <c r="AJ262" s="1"/>
@@ -16041,40 +16038,40 @@
         <v>279</v>
       </c>
       <c r="E263">
-        <v>548535.86210000003</v>
+        <v>492811.07549999998</v>
       </c>
       <c r="G263">
-        <v>134</v>
+        <v>121</v>
       </c>
       <c r="H263">
-        <v>503221.87520000001</v>
+        <v>362860.73090000002</v>
       </c>
       <c r="J263">
-        <v>186</v>
+        <v>164</v>
       </c>
       <c r="K263">
-        <v>2.4428699999999999E-4</v>
+        <v>2.4552999999999999E-4</v>
       </c>
       <c r="M263">
-        <v>3.69618E-4</v>
+        <v>4.5196400000000001E-4</v>
       </c>
       <c r="T263">
-        <v>565500.68689999997</v>
+        <v>533229.78850000002</v>
       </c>
       <c r="V263">
-        <v>148</v>
+        <v>124</v>
       </c>
       <c r="W263">
-        <v>599584.28720000002</v>
+        <v>465486.17460000003</v>
       </c>
       <c r="Y263">
-        <v>225</v>
+        <v>198</v>
       </c>
       <c r="Z263">
-        <v>2.6171499999999998E-4</v>
+        <v>2.3254499999999999E-4</v>
       </c>
       <c r="AB263">
-        <v>3.7525999999999998E-4</v>
+        <v>4.2536199999999998E-4</v>
       </c>
       <c r="AI263" s="1"/>
       <c r="AJ263" s="1"/>
@@ -16093,40 +16090,40 @@
         <v>280</v>
       </c>
       <c r="E264">
-        <v>492811.07549999998</v>
+        <v>581702.87769999995</v>
       </c>
       <c r="G264">
-        <v>121</v>
+        <v>142</v>
       </c>
       <c r="H264">
-        <v>362860.73090000002</v>
+        <v>433969.01130000001</v>
       </c>
       <c r="J264">
-        <v>164</v>
+        <v>209</v>
       </c>
       <c r="K264">
-        <v>2.4552999999999999E-4</v>
+        <v>2.4411100000000001E-4</v>
       </c>
       <c r="M264">
-        <v>4.5196400000000001E-4</v>
+        <v>4.8160100000000001E-4</v>
       </c>
       <c r="T264">
-        <v>533229.78850000002</v>
+        <v>634079.01569999999</v>
       </c>
       <c r="V264">
-        <v>124</v>
+        <v>145</v>
       </c>
       <c r="W264">
-        <v>465486.17460000003</v>
+        <v>459038.93599999999</v>
       </c>
       <c r="Y264">
-        <v>198</v>
+        <v>227</v>
       </c>
       <c r="Z264">
-        <v>2.3254499999999999E-4</v>
+        <v>2.2867800000000001E-4</v>
       </c>
       <c r="AB264">
-        <v>4.2536199999999998E-4</v>
+        <v>4.94511E-4</v>
       </c>
       <c r="AI264" s="1"/>
       <c r="AJ264" s="1"/>
@@ -16145,40 +16142,40 @@
         <v>281</v>
       </c>
       <c r="E265">
-        <v>581702.87769999995</v>
+        <v>857087.61820000003</v>
       </c>
       <c r="G265">
-        <v>142</v>
+        <v>254</v>
       </c>
       <c r="H265">
-        <v>433969.01130000001</v>
+        <v>506170.07419999997</v>
       </c>
       <c r="J265">
-        <v>209</v>
+        <v>225</v>
       </c>
       <c r="K265">
-        <v>2.4411100000000001E-4</v>
+        <v>2.96352E-4</v>
       </c>
       <c r="M265">
-        <v>4.8160100000000001E-4</v>
+        <v>4.4451499999999998E-4</v>
       </c>
       <c r="T265">
-        <v>634079.01569999999</v>
+        <v>891269.10620000004</v>
       </c>
       <c r="V265">
-        <v>145</v>
+        <v>272</v>
       </c>
       <c r="W265">
-        <v>459038.93599999999</v>
+        <v>594818.04709999997</v>
       </c>
       <c r="Y265">
-        <v>227</v>
+        <v>254</v>
       </c>
       <c r="Z265">
-        <v>2.2867800000000001E-4</v>
+        <v>3.05183E-4</v>
       </c>
       <c r="AB265">
-        <v>4.94511E-4</v>
+        <v>4.2702099999999998E-4</v>
       </c>
       <c r="AI265" s="1"/>
       <c r="AJ265" s="1"/>
@@ -16197,40 +16194,40 @@
         <v>282</v>
       </c>
       <c r="E266">
-        <v>857087.61820000003</v>
+        <v>910135.62170000002</v>
       </c>
       <c r="G266">
-        <v>254</v>
+        <v>364</v>
       </c>
       <c r="H266">
-        <v>506170.07419999997</v>
+        <v>633988.24719999998</v>
       </c>
       <c r="J266">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="K266">
-        <v>2.96352E-4</v>
+        <v>3.9994E-4</v>
       </c>
       <c r="M266">
-        <v>4.4451499999999998E-4</v>
+        <v>3.42278E-4</v>
       </c>
       <c r="T266">
-        <v>891269.10620000004</v>
+        <v>901368.44510000001</v>
       </c>
       <c r="V266">
-        <v>272</v>
+        <v>315</v>
       </c>
       <c r="W266">
-        <v>594818.04709999997</v>
+        <v>757946.97589999996</v>
       </c>
       <c r="Y266">
-        <v>254</v>
+        <v>263</v>
       </c>
       <c r="Z266">
-        <v>3.05183E-4</v>
+        <v>3.4946899999999998E-4</v>
       </c>
       <c r="AB266">
-        <v>4.2702099999999998E-4</v>
+        <v>3.4698999999999998E-4</v>
       </c>
       <c r="AI266" s="1"/>
       <c r="AJ266" s="1"/>
@@ -16249,40 +16246,40 @@
         <v>283</v>
       </c>
       <c r="E267">
-        <v>910135.62170000002</v>
+        <v>692967.3541</v>
       </c>
       <c r="G267">
-        <v>364</v>
+        <v>178</v>
       </c>
       <c r="H267">
-        <v>633988.24719999998</v>
+        <v>470179.44390000001</v>
       </c>
       <c r="J267">
-        <v>217</v>
+        <v>160</v>
       </c>
       <c r="K267">
-        <v>3.9994E-4</v>
+        <v>2.5686600000000002E-4</v>
       </c>
       <c r="M267">
-        <v>3.42278E-4</v>
+        <v>3.4029600000000002E-4</v>
       </c>
       <c r="T267">
-        <v>901368.44510000001</v>
+        <v>727215.58369999996</v>
       </c>
       <c r="V267">
-        <v>315</v>
+        <v>182</v>
       </c>
       <c r="W267">
-        <v>757946.97589999996</v>
+        <v>462329.74190000002</v>
       </c>
       <c r="Y267">
-        <v>263</v>
+        <v>140</v>
       </c>
       <c r="Z267">
-        <v>3.4946899999999998E-4</v>
+        <v>2.5026999999999997E-4</v>
       </c>
       <c r="AB267">
-        <v>3.4698999999999998E-4</v>
+        <v>3.0281399999999999E-4</v>
       </c>
       <c r="AI267" s="1"/>
       <c r="AJ267" s="1"/>
@@ -16301,40 +16298,40 @@
         <v>284</v>
       </c>
       <c r="E268">
-        <v>692967.3541</v>
+        <v>687063.83719999995</v>
       </c>
       <c r="G268">
-        <v>178</v>
+        <v>355</v>
       </c>
       <c r="H268">
-        <v>470179.44390000001</v>
+        <v>505723.3504</v>
       </c>
       <c r="J268">
-        <v>160</v>
+        <v>272</v>
       </c>
       <c r="K268">
-        <v>2.5686600000000002E-4</v>
+        <v>5.16691E-4</v>
       </c>
       <c r="M268">
-        <v>3.4029600000000002E-4</v>
+        <v>5.3784299999999998E-4</v>
       </c>
       <c r="T268">
-        <v>727215.58369999996</v>
+        <v>738441.52080000006</v>
       </c>
       <c r="V268">
-        <v>182</v>
+        <v>389</v>
       </c>
       <c r="W268">
-        <v>462329.74190000002</v>
+        <v>672533.74589999998</v>
       </c>
       <c r="Y268">
-        <v>140</v>
+        <v>325</v>
       </c>
       <c r="Z268">
-        <v>2.5026999999999997E-4</v>
+        <v>5.2678499999999999E-4</v>
       </c>
       <c r="AB268">
-        <v>3.0281399999999999E-4</v>
+        <v>4.8324700000000002E-4</v>
       </c>
       <c r="AI268" s="1"/>
       <c r="AJ268" s="1"/>
@@ -16353,40 +16350,40 @@
         <v>285</v>
       </c>
       <c r="E269">
-        <v>687063.83719999995</v>
+        <v>594279.66480000003</v>
       </c>
       <c r="G269">
-        <v>355</v>
+        <v>240</v>
       </c>
       <c r="H269">
-        <v>505723.3504</v>
+        <v>452477.79180000001</v>
       </c>
       <c r="J269">
-        <v>272</v>
+        <v>190</v>
       </c>
       <c r="K269">
-        <v>5.16691E-4</v>
+        <v>4.0384999999999998E-4</v>
       </c>
       <c r="M269">
-        <v>5.3784299999999998E-4</v>
+        <v>4.1991000000000001E-4</v>
       </c>
       <c r="T269">
-        <v>738441.52080000006</v>
+        <v>609561.71149999998</v>
       </c>
       <c r="V269">
-        <v>389</v>
+        <v>249</v>
       </c>
       <c r="W269">
-        <v>672533.74589999998</v>
+        <v>534117.00679999997</v>
       </c>
       <c r="Y269">
-        <v>325</v>
+        <v>241</v>
       </c>
       <c r="Z269">
-        <v>5.2678499999999999E-4</v>
+        <v>4.0849000000000001E-4</v>
       </c>
       <c r="AB269">
-        <v>4.8324700000000002E-4</v>
+        <v>4.5121199999999999E-4</v>
       </c>
       <c r="AI269" s="1"/>
       <c r="AJ269" s="1"/>
@@ -16405,40 +16402,40 @@
         <v>286</v>
       </c>
       <c r="E270">
-        <v>594279.66480000003</v>
+        <v>628124.77509999997</v>
       </c>
       <c r="G270">
-        <v>240</v>
+        <v>119</v>
       </c>
       <c r="H270">
-        <v>452477.79180000001</v>
+        <v>599100.18810000003</v>
       </c>
       <c r="J270">
-        <v>190</v>
+        <v>247</v>
       </c>
       <c r="K270">
-        <v>4.0384999999999998E-4</v>
+        <v>1.8945299999999999E-4</v>
       </c>
       <c r="M270">
-        <v>4.1991000000000001E-4</v>
+        <v>4.1228499999999997E-4</v>
       </c>
       <c r="T270">
-        <v>609561.71149999998</v>
+        <v>697035.03220000002</v>
       </c>
       <c r="V270">
-        <v>249</v>
+        <v>149</v>
       </c>
       <c r="W270">
-        <v>534117.00679999997</v>
+        <v>574865.86820000003</v>
       </c>
       <c r="Y270">
-        <v>241</v>
+        <v>254</v>
       </c>
       <c r="Z270">
-        <v>4.0849000000000001E-4</v>
+        <v>2.1376300000000001E-4</v>
       </c>
       <c r="AB270">
-        <v>4.5121199999999999E-4</v>
+        <v>4.4184200000000002E-4</v>
       </c>
       <c r="AI270" s="1"/>
       <c r="AJ270" s="1"/>
@@ -16457,40 +16454,40 @@
         <v>287</v>
       </c>
       <c r="E271">
-        <v>628124.77509999997</v>
+        <v>654720.8578</v>
       </c>
       <c r="G271">
-        <v>119</v>
+        <v>293</v>
       </c>
       <c r="H271">
-        <v>599100.18810000003</v>
+        <v>524456.38269999996</v>
       </c>
       <c r="J271">
-        <v>247</v>
+        <v>170</v>
       </c>
       <c r="K271">
-        <v>1.8945299999999999E-4</v>
+        <v>4.4751900000000001E-4</v>
       </c>
       <c r="M271">
-        <v>4.1228499999999997E-4</v>
+        <v>3.2414500000000002E-4</v>
       </c>
       <c r="T271">
-        <v>697035.03220000002</v>
+        <v>644797.71669999999</v>
       </c>
       <c r="V271">
-        <v>149</v>
+        <v>267</v>
       </c>
       <c r="W271">
-        <v>574865.86820000003</v>
+        <v>599921.55480000004</v>
       </c>
       <c r="Y271">
-        <v>254</v>
+        <v>152</v>
       </c>
       <c r="Z271">
-        <v>2.1376300000000001E-4</v>
+        <v>4.1408299999999999E-4</v>
       </c>
       <c r="AB271">
-        <v>4.4184200000000002E-4</v>
+        <v>2.5336599999999999E-4</v>
       </c>
       <c r="AI271" s="1"/>
       <c r="AJ271" s="1"/>
@@ -16509,40 +16506,40 @@
         <v>288</v>
       </c>
       <c r="E272">
-        <v>654720.8578</v>
+        <v>609316.99230000004</v>
       </c>
       <c r="G272">
-        <v>293</v>
+        <v>426</v>
       </c>
       <c r="H272">
-        <v>524456.38269999996</v>
+        <v>515117.89799999999</v>
       </c>
       <c r="J272">
-        <v>170</v>
+        <v>222</v>
       </c>
       <c r="K272">
-        <v>4.4751900000000001E-4</v>
+        <v>6.9914300000000005E-4</v>
       </c>
       <c r="M272">
-        <v>3.2414500000000002E-4</v>
+        <v>4.3096900000000001E-4</v>
       </c>
       <c r="T272">
-        <v>644797.71669999999</v>
+        <v>641449.95799999998</v>
       </c>
       <c r="V272">
-        <v>267</v>
+        <v>465</v>
       </c>
       <c r="W272">
-        <v>599921.55480000004</v>
+        <v>649525.69160000002</v>
       </c>
       <c r="Y272">
-        <v>152</v>
+        <v>320</v>
       </c>
       <c r="Z272">
-        <v>4.1408299999999999E-4</v>
+        <v>7.2491999999999999E-4</v>
       </c>
       <c r="AB272">
-        <v>2.5336599999999999E-4</v>
+        <v>4.9266700000000002E-4</v>
       </c>
       <c r="AI272" s="1"/>
       <c r="AJ272" s="1"/>
@@ -16561,40 +16558,40 @@
         <v>289</v>
       </c>
       <c r="E273">
-        <v>609316.99230000004</v>
+        <v>682200.59920000006</v>
       </c>
       <c r="G273">
-        <v>426</v>
+        <v>490</v>
       </c>
       <c r="H273">
-        <v>515117.89799999999</v>
+        <v>579420.31499999994</v>
       </c>
       <c r="J273">
-        <v>222</v>
+        <v>232</v>
       </c>
       <c r="K273">
-        <v>6.9914300000000005E-4</v>
+        <v>7.1826400000000003E-4</v>
       </c>
       <c r="M273">
-        <v>4.3096900000000001E-4</v>
+        <v>4.0039999999999997E-4</v>
       </c>
       <c r="T273">
-        <v>641449.95799999998</v>
+        <v>641485.55359999998</v>
       </c>
       <c r="V273">
-        <v>465</v>
+        <v>431</v>
       </c>
       <c r="W273">
-        <v>649525.69160000002</v>
+        <v>692623.85739999998</v>
       </c>
       <c r="Y273">
-        <v>320</v>
+        <v>350</v>
       </c>
       <c r="Z273">
-        <v>7.2491999999999999E-4</v>
+        <v>6.7187799999999999E-4</v>
       </c>
       <c r="AB273">
-        <v>4.9266700000000002E-4</v>
+        <v>5.0532500000000004E-4</v>
       </c>
       <c r="AI273" s="1"/>
       <c r="AJ273" s="1"/>
@@ -16613,40 +16610,40 @@
         <v>290</v>
       </c>
       <c r="E274">
-        <v>682200.59920000006</v>
+        <v>591931.25040000002</v>
       </c>
       <c r="G274">
-        <v>490</v>
+        <v>341</v>
       </c>
       <c r="H274">
-        <v>579420.31499999994</v>
+        <v>528612.15960000001</v>
       </c>
       <c r="J274">
-        <v>232</v>
+        <v>222</v>
       </c>
       <c r="K274">
-        <v>7.1826400000000003E-4</v>
+        <v>5.7607999999999997E-4</v>
       </c>
       <c r="M274">
-        <v>4.0039999999999997E-4</v>
+        <v>4.19968E-4</v>
       </c>
       <c r="T274">
-        <v>641485.55359999998</v>
+        <v>618572.71730000002</v>
       </c>
       <c r="V274">
-        <v>431</v>
+        <v>377</v>
       </c>
       <c r="W274">
-        <v>692623.85739999998</v>
+        <v>591655.38509999996</v>
       </c>
       <c r="Y274">
-        <v>350</v>
+        <v>282</v>
       </c>
       <c r="Z274">
-        <v>6.7187799999999999E-4</v>
+        <v>6.0946800000000005E-4</v>
       </c>
       <c r="AB274">
-        <v>5.0532500000000004E-4</v>
+        <v>4.7662900000000001E-4</v>
       </c>
       <c r="AI274" s="1"/>
       <c r="AJ274" s="1"/>
@@ -16665,40 +16662,40 @@
         <v>291</v>
       </c>
       <c r="E275">
-        <v>591931.25040000002</v>
+        <v>492716.74739999999</v>
       </c>
       <c r="G275">
-        <v>341</v>
+        <v>300</v>
       </c>
       <c r="H275">
-        <v>528612.15960000001</v>
+        <v>492553.00799999997</v>
       </c>
       <c r="J275">
-        <v>222</v>
+        <v>187</v>
       </c>
       <c r="K275">
-        <v>5.7607999999999997E-4</v>
+        <v>6.0886899999999995E-4</v>
       </c>
       <c r="M275">
-        <v>4.19968E-4</v>
+        <v>3.7965500000000001E-4</v>
       </c>
       <c r="T275">
-        <v>618572.71730000002</v>
+        <v>522903.5281</v>
       </c>
       <c r="V275">
-        <v>377</v>
+        <v>331</v>
       </c>
       <c r="W275">
-        <v>591655.38509999996</v>
+        <v>649031.80379999999</v>
       </c>
       <c r="Y275">
-        <v>282</v>
+        <v>254</v>
       </c>
       <c r="Z275">
-        <v>6.0946800000000005E-4</v>
+        <v>6.3300400000000005E-4</v>
       </c>
       <c r="AB275">
-        <v>4.7662900000000001E-4</v>
+        <v>3.9135199999999998E-4</v>
       </c>
       <c r="AI275" s="1"/>
       <c r="AJ275" s="1"/>
@@ -16717,40 +16714,40 @@
         <v>292</v>
       </c>
       <c r="E276">
-        <v>492716.74739999999</v>
+        <v>470071.76750000002</v>
       </c>
       <c r="G276">
-        <v>300</v>
+        <v>180</v>
       </c>
       <c r="H276">
-        <v>492553.00799999997</v>
+        <v>337606.5993</v>
       </c>
       <c r="J276">
-        <v>187</v>
+        <v>96</v>
       </c>
       <c r="K276">
-        <v>6.0886899999999995E-4</v>
+        <v>3.8292000000000003E-4</v>
       </c>
       <c r="M276">
-        <v>3.7965500000000001E-4</v>
+        <v>2.8435500000000002E-4</v>
       </c>
       <c r="T276">
-        <v>522903.5281</v>
+        <v>480722.83689999999</v>
       </c>
       <c r="V276">
-        <v>331</v>
+        <v>119</v>
       </c>
       <c r="W276">
-        <v>649031.80379999999</v>
+        <v>648319.89339999994</v>
       </c>
       <c r="Y276">
-        <v>254</v>
+        <v>233</v>
       </c>
       <c r="Z276">
-        <v>6.3300400000000005E-4</v>
+        <v>2.4754399999999999E-4</v>
       </c>
       <c r="AB276">
-        <v>3.9135199999999998E-4</v>
+        <v>3.5939000000000001E-4</v>
       </c>
       <c r="AI276" s="1"/>
       <c r="AJ276" s="1"/>
@@ -16769,42 +16766,41 @@
         <v>293</v>
       </c>
       <c r="E277">
-        <v>470071.76750000002</v>
+        <v>493983.94790000003</v>
       </c>
       <c r="G277">
-        <v>180</v>
+        <v>336</v>
       </c>
       <c r="H277">
-        <v>337606.5993</v>
+        <v>296812.35359999997</v>
       </c>
       <c r="J277">
-        <v>96</v>
+        <v>119</v>
       </c>
       <c r="K277">
-        <v>3.8292000000000003E-4</v>
+        <v>6.8018400000000002E-4</v>
       </c>
       <c r="M277">
-        <v>2.8435500000000002E-4</v>
+        <v>4.0092699999999998E-4</v>
       </c>
       <c r="T277">
-        <v>480722.83689999999</v>
+        <v>526356.29359999998</v>
       </c>
       <c r="V277">
-        <v>119</v>
+        <v>253</v>
       </c>
       <c r="W277">
-        <v>648319.89339999994</v>
+        <v>632464.75890000002</v>
       </c>
       <c r="Y277">
-        <v>233</v>
+        <v>253</v>
       </c>
       <c r="Z277">
-        <v>2.4754399999999999E-4</v>
+        <v>4.8066299999999999E-4</v>
       </c>
       <c r="AB277">
-        <v>3.5939000000000001E-4</v>
-      </c>
-      <c r="AI277" s="1"/>
+        <v>4.0002199999999999E-4</v>
+      </c>
       <c r="AJ277" s="1"/>
     </row>
     <row r="278" spans="1:36" x14ac:dyDescent="0.3">
@@ -16821,41 +16817,42 @@
         <v>294</v>
       </c>
       <c r="E278">
-        <v>493983.94790000003</v>
+        <v>493542.56349999999</v>
       </c>
       <c r="G278">
-        <v>336</v>
+        <v>296</v>
       </c>
       <c r="H278">
-        <v>296812.35359999997</v>
+        <v>311997.40250000003</v>
       </c>
       <c r="J278">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="K278">
-        <v>6.8018400000000002E-4</v>
+        <v>5.9974599999999996E-4</v>
       </c>
       <c r="M278">
-        <v>4.0092699999999998E-4</v>
+        <v>3.9743899999999997E-4</v>
       </c>
       <c r="T278">
-        <v>526356.29359999998</v>
+        <v>457801.1018</v>
       </c>
       <c r="V278">
-        <v>253</v>
+        <v>281</v>
       </c>
       <c r="W278">
-        <v>632464.75890000002</v>
+        <v>592119.01679999998</v>
       </c>
       <c r="Y278">
-        <v>253</v>
+        <v>200</v>
       </c>
       <c r="Z278">
-        <v>4.8066299999999999E-4</v>
+        <v>6.1380400000000002E-4</v>
       </c>
       <c r="AB278">
-        <v>4.0002199999999999E-4</v>
-      </c>
+        <v>3.3776999999999999E-4</v>
+      </c>
+      <c r="AI278" s="1"/>
       <c r="AJ278" s="1"/>
     </row>
     <row r="279" spans="1:36" x14ac:dyDescent="0.3">
@@ -16872,40 +16869,40 @@
         <v>295</v>
       </c>
       <c r="E279">
-        <v>493542.56349999999</v>
+        <v>434526.08120000002</v>
       </c>
       <c r="G279">
-        <v>296</v>
+        <v>163</v>
       </c>
       <c r="H279">
-        <v>311997.40250000003</v>
+        <v>309123.06420000002</v>
       </c>
       <c r="J279">
-        <v>124</v>
+        <v>110</v>
       </c>
       <c r="K279">
-        <v>5.9974599999999996E-4</v>
+        <v>3.7512100000000002E-4</v>
       </c>
       <c r="M279">
-        <v>3.9743899999999997E-4</v>
+        <v>3.5584499999999998E-4</v>
       </c>
       <c r="T279">
-        <v>457801.1018</v>
+        <v>516640.4964</v>
       </c>
       <c r="V279">
-        <v>281</v>
+        <v>133</v>
       </c>
       <c r="W279">
-        <v>592119.01679999998</v>
+        <v>435333.2096</v>
       </c>
       <c r="Y279">
-        <v>200</v>
+        <v>164</v>
       </c>
       <c r="Z279">
-        <v>6.1380400000000002E-4</v>
+        <v>2.5743199999999998E-4</v>
       </c>
       <c r="AB279">
-        <v>3.3776999999999999E-4</v>
+        <v>3.7672299999999998E-4</v>
       </c>
       <c r="AI279" s="1"/>
       <c r="AJ279" s="1"/>
@@ -16924,40 +16921,40 @@
         <v>296</v>
       </c>
       <c r="E280">
-        <v>434526.08120000002</v>
+        <v>558933.31350000005</v>
       </c>
       <c r="G280">
-        <v>163</v>
+        <v>238</v>
       </c>
       <c r="H280">
-        <v>309123.06420000002</v>
+        <v>422170.8762</v>
       </c>
       <c r="J280">
-        <v>110</v>
+        <v>125</v>
       </c>
       <c r="K280">
-        <v>3.7512100000000002E-4</v>
+        <v>4.2581100000000001E-4</v>
       </c>
       <c r="M280">
-        <v>3.5584499999999998E-4</v>
+        <v>2.9608899999999998E-4</v>
       </c>
       <c r="T280">
-        <v>516640.4964</v>
+        <v>506581.20240000001</v>
       </c>
       <c r="V280">
-        <v>133</v>
+        <v>195</v>
       </c>
       <c r="W280">
-        <v>435333.2096</v>
+        <v>662782.35320000001</v>
       </c>
       <c r="Y280">
-        <v>164</v>
+        <v>254</v>
       </c>
       <c r="Z280">
-        <v>2.5743199999999998E-4</v>
+        <v>3.8493300000000001E-4</v>
       </c>
       <c r="AB280">
-        <v>3.7672299999999998E-4</v>
+        <v>3.8323300000000002E-4</v>
       </c>
       <c r="AI280" s="1"/>
       <c r="AJ280" s="1"/>
@@ -16976,40 +16973,40 @@
         <v>297</v>
       </c>
       <c r="E281">
-        <v>558933.31350000005</v>
+        <v>523385.84740000003</v>
       </c>
       <c r="G281">
-        <v>238</v>
+        <v>331</v>
       </c>
       <c r="H281">
-        <v>422170.8762</v>
+        <v>334475.08350000001</v>
       </c>
       <c r="J281">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="K281">
-        <v>4.2581100000000001E-4</v>
+        <v>6.3242099999999998E-4</v>
       </c>
       <c r="M281">
-        <v>2.9608899999999998E-4</v>
+        <v>3.6774000000000003E-4</v>
       </c>
       <c r="T281">
-        <v>506581.20240000001</v>
+        <v>590957.71290000004</v>
       </c>
       <c r="V281">
-        <v>195</v>
+        <v>321</v>
       </c>
       <c r="W281">
-        <v>662782.35320000001</v>
+        <v>635137.98250000004</v>
       </c>
       <c r="Y281">
-        <v>254</v>
+        <v>302</v>
       </c>
       <c r="Z281">
-        <v>3.8493300000000001E-4</v>
+        <v>5.4318599999999997E-4</v>
       </c>
       <c r="AB281">
-        <v>3.8323300000000002E-4</v>
+        <v>4.7548700000000002E-4</v>
       </c>
       <c r="AI281" s="1"/>
       <c r="AJ281" s="1"/>
@@ -17028,40 +17025,40 @@
         <v>298</v>
       </c>
       <c r="E282">
-        <v>523385.84740000003</v>
+        <v>701100.93050000002</v>
       </c>
       <c r="G282">
-        <v>331</v>
+        <v>391</v>
       </c>
       <c r="H282">
-        <v>334475.08350000001</v>
+        <v>367558.44959999999</v>
       </c>
       <c r="J282">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="K282">
-        <v>6.3242099999999998E-4</v>
+        <v>5.5769399999999996E-4</v>
       </c>
       <c r="M282">
-        <v>3.6774000000000003E-4</v>
+        <v>3.4280299999999998E-4</v>
       </c>
       <c r="T282">
-        <v>590957.71290000004</v>
+        <v>655774.4852</v>
       </c>
       <c r="V282">
-        <v>321</v>
+        <v>298</v>
       </c>
       <c r="W282">
-        <v>635137.98250000004</v>
+        <v>717941.17099999997</v>
       </c>
       <c r="Y282">
-        <v>302</v>
+        <v>336</v>
       </c>
       <c r="Z282">
-        <v>5.4318599999999997E-4</v>
+        <v>4.54425E-4</v>
       </c>
       <c r="AB282">
-        <v>4.7548700000000002E-4</v>
+        <v>4.6800500000000002E-4</v>
       </c>
       <c r="AI282" s="1"/>
       <c r="AJ282" s="1"/>
@@ -17080,42 +17077,41 @@
         <v>299</v>
       </c>
       <c r="E283">
-        <v>701100.93050000002</v>
+        <v>524707.33109999995</v>
       </c>
       <c r="G283">
-        <v>391</v>
+        <v>274</v>
       </c>
       <c r="H283">
-        <v>367558.44959999999</v>
+        <v>484322.4339</v>
       </c>
       <c r="J283">
-        <v>126</v>
+        <v>176</v>
       </c>
       <c r="K283">
-        <v>5.5769399999999996E-4</v>
+        <v>5.2219600000000005E-4</v>
       </c>
       <c r="M283">
-        <v>3.4280299999999998E-4</v>
+        <v>3.6339400000000001E-4</v>
       </c>
       <c r="T283">
-        <v>655774.4852</v>
+        <v>594226.27159999998</v>
       </c>
       <c r="V283">
-        <v>298</v>
+        <v>164</v>
       </c>
       <c r="W283">
-        <v>717941.17099999997</v>
+        <v>486532.91570000001</v>
       </c>
       <c r="Y283">
-        <v>336</v>
+        <v>229</v>
       </c>
       <c r="Z283">
-        <v>4.54425E-4</v>
+        <v>2.7598899999999998E-4</v>
       </c>
       <c r="AB283">
-        <v>4.6800500000000002E-4</v>
-      </c>
-      <c r="AI283" s="1"/>
+        <v>4.7067700000000002E-4</v>
+      </c>
       <c r="AJ283" s="1"/>
     </row>
     <row r="284" spans="1:36" x14ac:dyDescent="0.3">
@@ -17132,41 +17128,42 @@
         <v>300</v>
       </c>
       <c r="E284">
-        <v>524707.33109999995</v>
+        <v>540469.91720000003</v>
       </c>
       <c r="G284">
-        <v>274</v>
+        <v>78</v>
       </c>
       <c r="H284">
-        <v>484322.4339</v>
+        <v>386610.95169999998</v>
       </c>
       <c r="J284">
-        <v>176</v>
+        <v>192</v>
       </c>
       <c r="K284">
-        <v>5.2219600000000005E-4</v>
+        <v>1.4431900000000001E-4</v>
       </c>
       <c r="M284">
-        <v>3.6339400000000001E-4</v>
+        <v>4.9662299999999996E-4</v>
       </c>
       <c r="T284">
-        <v>594226.27159999998</v>
+        <v>517351.51689999999</v>
       </c>
       <c r="V284">
-        <v>164</v>
+        <v>68</v>
       </c>
       <c r="W284">
-        <v>486532.91570000001</v>
+        <v>548280.46420000005</v>
       </c>
       <c r="Y284">
-        <v>229</v>
+        <v>284</v>
       </c>
       <c r="Z284">
-        <v>2.7598899999999998E-4</v>
+        <v>1.3143900000000001E-4</v>
       </c>
       <c r="AB284">
-        <v>4.7067700000000002E-4</v>
-      </c>
+        <v>5.1798299999999996E-4</v>
+      </c>
+      <c r="AI284" s="1"/>
       <c r="AJ284" s="1"/>
     </row>
     <row r="285" spans="1:36" x14ac:dyDescent="0.3">
@@ -17183,40 +17180,40 @@
         <v>301</v>
       </c>
       <c r="E285">
-        <v>540469.91720000003</v>
+        <v>520004.27299999999</v>
       </c>
       <c r="G285">
-        <v>78</v>
+        <v>134</v>
       </c>
       <c r="H285">
-        <v>386610.95169999998</v>
+        <v>464989.61709999997</v>
       </c>
       <c r="J285">
-        <v>192</v>
+        <v>149</v>
       </c>
       <c r="K285">
-        <v>1.4431900000000001E-4</v>
+        <v>2.5768999999999998E-4</v>
       </c>
       <c r="M285">
-        <v>4.9662299999999996E-4</v>
+        <v>3.2043700000000002E-4</v>
       </c>
       <c r="T285">
-        <v>517351.51689999999</v>
+        <v>513881.84360000002</v>
       </c>
       <c r="V285">
-        <v>68</v>
+        <v>118</v>
       </c>
       <c r="W285">
-        <v>548280.46420000005</v>
+        <v>600903.10120000003</v>
       </c>
       <c r="Y285">
-        <v>284</v>
+        <v>230</v>
       </c>
       <c r="Z285">
-        <v>1.3143900000000001E-4</v>
+        <v>2.2962500000000001E-4</v>
       </c>
       <c r="AB285">
-        <v>5.1798299999999996E-4</v>
+        <v>3.8275700000000001E-4</v>
       </c>
       <c r="AI285" s="1"/>
       <c r="AJ285" s="1"/>
@@ -17235,42 +17232,41 @@
         <v>302</v>
       </c>
       <c r="E286">
-        <v>520004.27299999999</v>
+        <v>575468.32239999995</v>
       </c>
       <c r="G286">
-        <v>134</v>
+        <v>391</v>
       </c>
       <c r="H286">
-        <v>464989.61709999997</v>
+        <v>288941.29430000001</v>
       </c>
       <c r="J286">
-        <v>149</v>
+        <v>126</v>
       </c>
       <c r="K286">
-        <v>2.5768999999999998E-4</v>
+        <v>6.7944700000000002E-4</v>
       </c>
       <c r="M286">
-        <v>3.2043700000000002E-4</v>
+        <v>4.3607500000000002E-4</v>
       </c>
       <c r="T286">
-        <v>513881.84360000002</v>
+        <v>559491.27320000005</v>
       </c>
       <c r="V286">
-        <v>118</v>
+        <v>212</v>
       </c>
       <c r="W286">
-        <v>600903.10120000003</v>
+        <v>579673.04319999996</v>
       </c>
       <c r="Y286">
-        <v>230</v>
+        <v>270</v>
       </c>
       <c r="Z286">
-        <v>2.2962500000000001E-4</v>
+        <v>3.7891599999999998E-4</v>
       </c>
       <c r="AB286">
-        <v>3.8275700000000001E-4</v>
-      </c>
-      <c r="AI286" s="1"/>
+        <v>4.6578E-4</v>
+      </c>
       <c r="AJ286" s="1"/>
     </row>
     <row r="287" spans="1:36" x14ac:dyDescent="0.3">
@@ -17287,41 +17283,42 @@
         <v>303</v>
       </c>
       <c r="E287">
-        <v>575468.32239999995</v>
+        <v>676561.37899999996</v>
       </c>
       <c r="G287">
-        <v>391</v>
+        <v>278</v>
       </c>
       <c r="H287">
-        <v>288941.29430000001</v>
+        <v>352051.26130000001</v>
       </c>
       <c r="J287">
-        <v>126</v>
+        <v>99</v>
       </c>
       <c r="K287">
-        <v>6.7944700000000002E-4</v>
+        <v>4.1090099999999997E-4</v>
       </c>
       <c r="M287">
-        <v>4.3607500000000002E-4</v>
+        <v>2.8120899999999998E-4</v>
       </c>
       <c r="T287">
-        <v>559491.27320000005</v>
+        <v>645642.22039999999</v>
       </c>
       <c r="V287">
-        <v>212</v>
+        <v>228</v>
       </c>
       <c r="W287">
-        <v>579673.04319999996</v>
+        <v>353889.77</v>
       </c>
       <c r="Y287">
-        <v>270</v>
+        <v>117</v>
       </c>
       <c r="Z287">
-        <v>3.7891599999999998E-4</v>
+        <v>3.53137E-4</v>
       </c>
       <c r="AB287">
-        <v>4.6578E-4</v>
-      </c>
+        <v>3.3061100000000002E-4</v>
+      </c>
+      <c r="AI287" s="1"/>
       <c r="AJ287" s="1"/>
     </row>
     <row r="288" spans="1:36" x14ac:dyDescent="0.3">
@@ -17338,43 +17335,42 @@
         <v>304</v>
       </c>
       <c r="E288">
-        <v>676561.37899999996</v>
+        <v>781058.25719999999</v>
       </c>
       <c r="G288">
-        <v>278</v>
+        <v>297</v>
       </c>
       <c r="H288">
-        <v>352051.26130000001</v>
+        <v>511923.20010000002</v>
       </c>
       <c r="J288">
-        <v>99</v>
+        <v>165</v>
       </c>
       <c r="K288">
-        <v>4.1090099999999997E-4</v>
+        <v>3.8025299999999999E-4</v>
       </c>
       <c r="M288">
-        <v>2.8120899999999998E-4</v>
+        <v>3.2231399999999998E-4</v>
       </c>
       <c r="T288">
-        <v>645642.22039999999</v>
+        <v>657827.45680000004</v>
       </c>
       <c r="V288">
-        <v>228</v>
+        <v>266</v>
       </c>
       <c r="W288">
-        <v>353889.77</v>
+        <v>729321.05870000005</v>
       </c>
       <c r="Y288">
-        <v>117</v>
+        <v>364</v>
       </c>
       <c r="Z288">
-        <v>3.53137E-4</v>
+        <v>4.04361E-4</v>
       </c>
       <c r="AB288">
-        <v>3.3061100000000002E-4</v>
+        <v>4.9909399999999995E-4</v>
       </c>
       <c r="AI288" s="1"/>
-      <c r="AJ288" s="1"/>
     </row>
     <row r="289" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
@@ -17390,42 +17386,43 @@
         <v>305</v>
       </c>
       <c r="E289">
-        <v>781058.25719999999</v>
+        <v>683716.07849999995</v>
       </c>
       <c r="G289">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="H289">
-        <v>511923.20010000002</v>
+        <v>526235.26879999996</v>
       </c>
       <c r="J289">
-        <v>165</v>
+        <v>115</v>
       </c>
       <c r="K289">
-        <v>3.8025299999999999E-4</v>
+        <v>4.2561500000000001E-4</v>
       </c>
       <c r="M289">
-        <v>3.2231399999999998E-4</v>
+        <v>2.18533E-4</v>
       </c>
       <c r="T289">
-        <v>657827.45680000004</v>
+        <v>654290.152</v>
       </c>
       <c r="V289">
-        <v>266</v>
+        <v>274</v>
       </c>
       <c r="W289">
-        <v>729321.05870000005</v>
+        <v>615958.22640000004</v>
       </c>
       <c r="Y289">
-        <v>364</v>
+        <v>202</v>
       </c>
       <c r="Z289">
-        <v>4.04361E-4</v>
+        <v>4.1877400000000001E-4</v>
       </c>
       <c r="AB289">
-        <v>4.9909399999999995E-4</v>
+        <v>3.2794399999999999E-4</v>
       </c>
       <c r="AI289" s="1"/>
+      <c r="AJ289" s="1"/>
     </row>
     <row r="290" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
@@ -17441,40 +17438,40 @@
         <v>306</v>
       </c>
       <c r="E290">
-        <v>683716.07849999995</v>
+        <v>836570.36049999995</v>
       </c>
       <c r="G290">
-        <v>291</v>
+        <v>358</v>
       </c>
       <c r="H290">
-        <v>526235.26879999996</v>
+        <v>478070.0808</v>
       </c>
       <c r="J290">
-        <v>115</v>
+        <v>173</v>
       </c>
       <c r="K290">
-        <v>4.2561500000000001E-4</v>
+        <v>4.2793799999999999E-4</v>
       </c>
       <c r="M290">
-        <v>2.18533E-4</v>
+        <v>3.6187200000000001E-4</v>
       </c>
       <c r="T290">
-        <v>654290.152</v>
+        <v>609441.57660000003</v>
       </c>
       <c r="V290">
-        <v>274</v>
+        <v>262</v>
       </c>
       <c r="W290">
-        <v>615958.22640000004</v>
+        <v>600635.24490000005</v>
       </c>
       <c r="Y290">
-        <v>202</v>
+        <v>252</v>
       </c>
       <c r="Z290">
-        <v>4.1877400000000001E-4</v>
+        <v>4.2990200000000002E-4</v>
       </c>
       <c r="AB290">
-        <v>3.2794399999999999E-4</v>
+        <v>4.1955600000000002E-4</v>
       </c>
       <c r="AI290" s="1"/>
       <c r="AJ290" s="1"/>
@@ -17487,46 +17484,46 @@
         <v>2016</v>
       </c>
       <c r="C291" t="s">
-        <v>268</v>
+        <v>307</v>
       </c>
       <c r="D291" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="E291">
-        <v>836570.36049999995</v>
+        <v>565843.29379999998</v>
       </c>
       <c r="G291">
-        <v>358</v>
+        <v>209</v>
       </c>
       <c r="H291">
-        <v>478070.0808</v>
+        <v>278906.02730000002</v>
       </c>
       <c r="J291">
-        <v>173</v>
+        <v>88</v>
       </c>
       <c r="K291">
-        <v>4.2793799999999999E-4</v>
+        <v>3.6936E-4</v>
       </c>
       <c r="M291">
-        <v>3.6187200000000001E-4</v>
+        <v>3.1551799999999998E-4</v>
       </c>
       <c r="T291">
-        <v>609441.57660000003</v>
+        <v>481891.2599</v>
       </c>
       <c r="V291">
-        <v>262</v>
+        <v>183</v>
       </c>
       <c r="W291">
-        <v>600635.24490000005</v>
+        <v>677377.40630000003</v>
       </c>
       <c r="Y291">
-        <v>252</v>
+        <v>231</v>
       </c>
       <c r="Z291">
-        <v>4.2990200000000002E-4</v>
+        <v>3.79754E-4</v>
       </c>
       <c r="AB291">
-        <v>4.1955600000000002E-4</v>
+        <v>3.41021E-4</v>
       </c>
       <c r="AI291" s="1"/>
       <c r="AJ291" s="1"/>
@@ -17539,46 +17536,46 @@
         <v>2016</v>
       </c>
       <c r="C292" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D292" t="s">
         <v>309</v>
       </c>
       <c r="E292">
-        <v>565843.29379999998</v>
+        <v>461896.3664</v>
       </c>
       <c r="G292">
-        <v>209</v>
+        <v>159</v>
       </c>
       <c r="H292">
-        <v>278906.02730000002</v>
+        <v>323095.19569999998</v>
       </c>
       <c r="J292">
-        <v>88</v>
+        <v>132</v>
       </c>
       <c r="K292">
-        <v>3.6936E-4</v>
+        <v>3.44233E-4</v>
       </c>
       <c r="M292">
-        <v>3.1551799999999998E-4</v>
+        <v>4.0854800000000001E-4</v>
       </c>
       <c r="T292">
-        <v>481891.2599</v>
+        <v>417573.71480000002</v>
       </c>
       <c r="V292">
-        <v>183</v>
+        <v>129</v>
       </c>
       <c r="W292">
-        <v>677377.40630000003</v>
+        <v>575780.67310000001</v>
       </c>
       <c r="Y292">
-        <v>231</v>
+        <v>216</v>
       </c>
       <c r="Z292">
-        <v>3.79754E-4</v>
+        <v>3.0892700000000002E-4</v>
       </c>
       <c r="AB292">
-        <v>3.41021E-4</v>
+        <v>3.7514299999999998E-4</v>
       </c>
       <c r="AI292" s="1"/>
       <c r="AJ292" s="1"/>
@@ -17591,46 +17588,46 @@
         <v>2016</v>
       </c>
       <c r="C293" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D293" t="s">
         <v>310</v>
       </c>
       <c r="E293">
-        <v>461896.3664</v>
+        <v>445511.74849999999</v>
       </c>
       <c r="G293">
-        <v>159</v>
+        <v>212</v>
       </c>
       <c r="H293">
-        <v>323095.19569999998</v>
+        <v>293536.67589999997</v>
       </c>
       <c r="J293">
-        <v>132</v>
+        <v>118</v>
       </c>
       <c r="K293">
-        <v>3.44233E-4</v>
+        <v>4.7585699999999999E-4</v>
       </c>
       <c r="M293">
-        <v>4.0854800000000001E-4</v>
+        <v>4.0199399999999997E-4</v>
       </c>
       <c r="T293">
-        <v>417573.71480000002</v>
+        <v>442656.098</v>
       </c>
       <c r="V293">
-        <v>129</v>
+        <v>234</v>
       </c>
       <c r="W293">
-        <v>575780.67310000001</v>
+        <v>524931.58290000004</v>
       </c>
       <c r="Y293">
-        <v>216</v>
+        <v>191</v>
       </c>
       <c r="Z293">
-        <v>3.0892700000000002E-4</v>
+        <v>5.2862700000000005E-4</v>
       </c>
       <c r="AB293">
-        <v>3.7514299999999998E-4</v>
+        <v>3.6385699999999998E-4</v>
       </c>
       <c r="AI293" s="1"/>
       <c r="AJ293" s="1"/>
@@ -17643,46 +17640,46 @@
         <v>2016</v>
       </c>
       <c r="C294" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D294" t="s">
         <v>311</v>
       </c>
       <c r="E294">
-        <v>445511.74849999999</v>
+        <v>509553.42839999998</v>
       </c>
       <c r="G294">
-        <v>212</v>
+        <v>256</v>
       </c>
       <c r="H294">
-        <v>293536.67589999997</v>
+        <v>307969.76939999999</v>
       </c>
       <c r="J294">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="K294">
-        <v>4.7585699999999999E-4</v>
+        <v>5.0240099999999998E-4</v>
       </c>
       <c r="M294">
-        <v>4.0199399999999997E-4</v>
+        <v>4.0913100000000002E-4</v>
       </c>
       <c r="T294">
-        <v>442656.098</v>
+        <v>485032.56449999998</v>
       </c>
       <c r="V294">
-        <v>234</v>
+        <v>249</v>
       </c>
       <c r="W294">
-        <v>524931.58290000004</v>
+        <v>720677.57660000003</v>
       </c>
       <c r="Y294">
-        <v>191</v>
+        <v>321</v>
       </c>
       <c r="Z294">
-        <v>5.2862700000000005E-4</v>
+        <v>5.1336800000000005E-4</v>
       </c>
       <c r="AB294">
-        <v>3.6385699999999998E-4</v>
+        <v>4.4541399999999999E-4</v>
       </c>
       <c r="AI294" s="1"/>
       <c r="AJ294" s="1"/>
@@ -17695,46 +17692,46 @@
         <v>2016</v>
       </c>
       <c r="C295" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D295" t="s">
         <v>312</v>
       </c>
       <c r="E295">
-        <v>509553.42839999998</v>
+        <v>522834.11690000002</v>
       </c>
       <c r="G295">
-        <v>256</v>
+        <v>142</v>
       </c>
       <c r="H295">
-        <v>307969.76939999999</v>
+        <v>267869.63630000001</v>
       </c>
       <c r="J295">
-        <v>126</v>
+        <v>77</v>
       </c>
       <c r="K295">
-        <v>5.0240099999999998E-4</v>
+        <v>2.71597E-4</v>
       </c>
       <c r="M295">
-        <v>4.0913100000000002E-4</v>
+        <v>2.8745300000000001E-4</v>
       </c>
       <c r="T295">
-        <v>485032.56449999998</v>
+        <v>526356.29359999998</v>
       </c>
       <c r="V295">
-        <v>249</v>
+        <v>116</v>
       </c>
       <c r="W295">
-        <v>720677.57660000003</v>
+        <v>605744.0919</v>
       </c>
       <c r="Y295">
-        <v>321</v>
+        <v>207</v>
       </c>
       <c r="Z295">
-        <v>5.1336800000000005E-4</v>
+        <v>2.2038299999999999E-4</v>
       </c>
       <c r="AB295">
-        <v>4.4541399999999999E-4</v>
+        <v>3.4172800000000002E-4</v>
       </c>
       <c r="AI295" s="1"/>
       <c r="AJ295" s="1"/>
@@ -17747,46 +17744,46 @@
         <v>2016</v>
       </c>
       <c r="C296" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D296" t="s">
         <v>313</v>
       </c>
       <c r="E296">
-        <v>522834.11690000002</v>
+        <v>520430.5294</v>
       </c>
       <c r="G296">
-        <v>142</v>
+        <v>335</v>
       </c>
       <c r="H296">
-        <v>267869.63630000001</v>
+        <v>312635.4522</v>
       </c>
       <c r="J296">
-        <v>77</v>
+        <v>148</v>
       </c>
       <c r="K296">
-        <v>2.71597E-4</v>
+        <v>6.4369799999999995E-4</v>
       </c>
       <c r="M296">
-        <v>2.8745300000000001E-4</v>
+        <v>4.7339499999999999E-4</v>
       </c>
       <c r="T296">
-        <v>526356.29359999998</v>
+        <v>562583.63399999996</v>
       </c>
       <c r="V296">
-        <v>116</v>
+        <v>322</v>
       </c>
       <c r="W296">
-        <v>605744.0919</v>
+        <v>719906.93359999999</v>
       </c>
       <c r="Y296">
-        <v>207</v>
+        <v>316</v>
       </c>
       <c r="Z296">
-        <v>2.2038299999999999E-4</v>
+        <v>5.7235900000000004E-4</v>
       </c>
       <c r="AB296">
-        <v>3.4172800000000002E-4</v>
+        <v>4.3894600000000001E-4</v>
       </c>
       <c r="AI296" s="1"/>
       <c r="AJ296" s="1"/>
@@ -17799,46 +17796,46 @@
         <v>2016</v>
       </c>
       <c r="C297" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D297" t="s">
         <v>314</v>
       </c>
       <c r="E297">
-        <v>520430.5294</v>
+        <v>437904.98590000003</v>
       </c>
       <c r="G297">
-        <v>335</v>
+        <v>212</v>
       </c>
       <c r="H297">
-        <v>312635.4522</v>
+        <v>307005.13079999998</v>
       </c>
       <c r="J297">
-        <v>148</v>
+        <v>135</v>
       </c>
       <c r="K297">
-        <v>6.4369799999999995E-4</v>
+        <v>4.8412299999999999E-4</v>
       </c>
       <c r="M297">
-        <v>4.7339499999999999E-4</v>
+        <v>4.3973200000000002E-4</v>
       </c>
       <c r="T297">
-        <v>562583.63399999996</v>
+        <v>436228.43689999997</v>
       </c>
       <c r="V297">
-        <v>322</v>
+        <v>247</v>
       </c>
       <c r="W297">
-        <v>719906.93359999999</v>
+        <v>559976.2622</v>
       </c>
       <c r="Y297">
-        <v>316</v>
+        <v>199</v>
       </c>
       <c r="Z297">
-        <v>5.7235900000000004E-4</v>
+        <v>5.6621700000000004E-4</v>
       </c>
       <c r="AB297">
-        <v>4.3894600000000001E-4</v>
+        <v>3.5537200000000001E-4</v>
       </c>
       <c r="AI297" s="1"/>
       <c r="AJ297" s="1"/>
@@ -17851,46 +17848,46 @@
         <v>2016</v>
       </c>
       <c r="C298" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D298" t="s">
         <v>315</v>
       </c>
       <c r="E298">
-        <v>437904.98590000003</v>
+        <v>502934.44140000001</v>
       </c>
       <c r="G298">
-        <v>212</v>
+        <v>202</v>
       </c>
       <c r="H298">
-        <v>307005.13079999998</v>
+        <v>304370.17239999998</v>
       </c>
       <c r="J298">
-        <v>135</v>
+        <v>95</v>
       </c>
       <c r="K298">
-        <v>4.8412299999999999E-4</v>
+        <v>4.0164299999999998E-4</v>
       </c>
       <c r="M298">
-        <v>4.3973200000000002E-4</v>
+        <v>3.1211999999999999E-4</v>
       </c>
       <c r="T298">
-        <v>436228.43689999997</v>
+        <v>457039.35769999999</v>
       </c>
       <c r="V298">
-        <v>247</v>
+        <v>228</v>
       </c>
       <c r="W298">
-        <v>559976.2622</v>
+        <v>591751.49300000002</v>
       </c>
       <c r="Y298">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="Z298">
-        <v>5.6621700000000004E-4</v>
+        <v>4.98863E-4</v>
       </c>
       <c r="AB298">
-        <v>3.5537200000000001E-4</v>
+        <v>3.4473899999999999E-4</v>
       </c>
       <c r="AI298" s="1"/>
       <c r="AJ298" s="1"/>
@@ -17903,46 +17900,46 @@
         <v>2016</v>
       </c>
       <c r="C299" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D299" t="s">
         <v>316</v>
       </c>
       <c r="E299">
-        <v>502934.44140000001</v>
+        <v>505857.72350000002</v>
       </c>
       <c r="G299">
-        <v>202</v>
+        <v>174</v>
       </c>
       <c r="H299">
-        <v>304370.17239999998</v>
+        <v>295583.41830000002</v>
       </c>
       <c r="J299">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="K299">
-        <v>4.0164299999999998E-4</v>
+        <v>3.4396999999999997E-4</v>
       </c>
       <c r="M299">
-        <v>3.1211999999999999E-4</v>
+        <v>2.9433299999999998E-4</v>
       </c>
       <c r="T299">
-        <v>457039.35769999999</v>
+        <v>521644.33659999998</v>
       </c>
       <c r="V299">
-        <v>228</v>
+        <v>158</v>
       </c>
       <c r="W299">
-        <v>591751.49300000002</v>
+        <v>642734.95629999996</v>
       </c>
       <c r="Y299">
-        <v>204</v>
+        <v>168</v>
       </c>
       <c r="Z299">
-        <v>4.98863E-4</v>
+        <v>3.0288800000000002E-4</v>
       </c>
       <c r="AB299">
-        <v>3.4473899999999999E-4</v>
+        <v>2.6138300000000001E-4</v>
       </c>
       <c r="AI299" s="1"/>
       <c r="AJ299" s="1"/>
@@ -17955,46 +17952,46 @@
         <v>2016</v>
       </c>
       <c r="C300" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D300" t="s">
         <v>317</v>
       </c>
       <c r="E300">
-        <v>505857.72350000002</v>
+        <v>627324.76580000005</v>
       </c>
       <c r="G300">
-        <v>174</v>
+        <v>153</v>
       </c>
       <c r="H300">
-        <v>295583.41830000002</v>
+        <v>307237.39159999997</v>
       </c>
       <c r="J300">
-        <v>87</v>
+        <v>108</v>
       </c>
       <c r="K300">
-        <v>3.4396999999999997E-4</v>
+        <v>2.4389299999999999E-4</v>
       </c>
       <c r="M300">
-        <v>2.9433299999999998E-4</v>
+        <v>3.5152000000000002E-4</v>
       </c>
       <c r="T300">
-        <v>521644.33659999998</v>
+        <v>551689.62520000001</v>
       </c>
       <c r="V300">
-        <v>158</v>
+        <v>145</v>
       </c>
       <c r="W300">
-        <v>642734.95629999996</v>
+        <v>708486.11100000003</v>
       </c>
       <c r="Y300">
-        <v>168</v>
+        <v>220</v>
       </c>
       <c r="Z300">
-        <v>3.0288800000000002E-4</v>
+        <v>2.6282900000000001E-4</v>
       </c>
       <c r="AB300">
-        <v>2.6138300000000001E-4</v>
+        <v>3.1052100000000002E-4</v>
       </c>
       <c r="AI300" s="1"/>
       <c r="AJ300" s="1"/>
@@ -18007,49 +18004,48 @@
         <v>2016</v>
       </c>
       <c r="C301" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D301" t="s">
         <v>318</v>
       </c>
       <c r="E301">
-        <v>627324.76580000005</v>
+        <v>631444.05740000005</v>
       </c>
       <c r="G301">
-        <v>153</v>
+        <v>209</v>
       </c>
       <c r="H301">
-        <v>307237.39159999997</v>
+        <v>159064.81030000001</v>
       </c>
       <c r="J301">
-        <v>108</v>
+        <v>86</v>
       </c>
       <c r="K301">
-        <v>2.4389299999999999E-4</v>
+        <v>3.3098699999999998E-4</v>
       </c>
       <c r="M301">
-        <v>3.5152000000000002E-4</v>
+        <v>5.4065999999999999E-4</v>
       </c>
       <c r="T301">
-        <v>551689.62520000001</v>
+        <v>569199.06140000001</v>
       </c>
       <c r="V301">
-        <v>145</v>
+        <v>192</v>
       </c>
       <c r="W301">
-        <v>708486.11100000003</v>
+        <v>599909.09629999998</v>
       </c>
       <c r="Y301">
-        <v>220</v>
+        <v>181</v>
       </c>
       <c r="Z301">
-        <v>2.6282900000000001E-4</v>
+        <v>3.3731599999999999E-4</v>
       </c>
       <c r="AB301">
-        <v>3.1052100000000002E-4</v>
+        <v>3.0171199999999999E-4</v>
       </c>
       <c r="AI301" s="1"/>
-      <c r="AJ301" s="1"/>
     </row>
     <row r="302" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A302" t="s">
@@ -18059,48 +18055,49 @@
         <v>2016</v>
       </c>
       <c r="C302" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D302" t="s">
         <v>319</v>
       </c>
       <c r="E302">
-        <v>631444.05740000005</v>
+        <v>538965.11659999995</v>
       </c>
       <c r="G302">
-        <v>209</v>
+        <v>261</v>
       </c>
       <c r="H302">
-        <v>159064.81030000001</v>
+        <v>361880.07429999998</v>
       </c>
       <c r="J302">
-        <v>86</v>
+        <v>168</v>
       </c>
       <c r="K302">
-        <v>3.3098699999999998E-4</v>
+        <v>4.8426099999999999E-4</v>
       </c>
       <c r="M302">
-        <v>5.4065999999999999E-4</v>
+        <v>4.6424200000000002E-4</v>
       </c>
       <c r="T302">
-        <v>569199.06140000001</v>
+        <v>582625.69160000002</v>
       </c>
       <c r="V302">
-        <v>192</v>
+        <v>258</v>
       </c>
       <c r="W302">
-        <v>599909.09629999998</v>
+        <v>552799.31550000003</v>
       </c>
       <c r="Y302">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="Z302">
-        <v>3.3731599999999999E-4</v>
+        <v>4.4282300000000001E-4</v>
       </c>
       <c r="AB302">
-        <v>3.0171199999999999E-4</v>
+        <v>3.3646899999999999E-4</v>
       </c>
       <c r="AI302" s="1"/>
+      <c r="AJ302" s="1"/>
     </row>
     <row r="303" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A303" t="s">
@@ -18110,46 +18107,46 @@
         <v>2016</v>
       </c>
       <c r="C303" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D303" t="s">
         <v>320</v>
       </c>
       <c r="E303">
-        <v>538965.11659999995</v>
+        <v>634467.00690000004</v>
       </c>
       <c r="G303">
-        <v>261</v>
+        <v>386</v>
       </c>
       <c r="H303">
-        <v>361880.07429999998</v>
+        <v>288374.43560000003</v>
       </c>
       <c r="J303">
-        <v>168</v>
+        <v>117</v>
       </c>
       <c r="K303">
-        <v>4.8426099999999999E-4</v>
+        <v>6.0838500000000002E-4</v>
       </c>
       <c r="M303">
-        <v>4.6424200000000002E-4</v>
+        <v>4.0572299999999998E-4</v>
       </c>
       <c r="T303">
-        <v>582625.69160000002</v>
+        <v>624695.14679999999</v>
       </c>
       <c r="V303">
-        <v>258</v>
+        <v>384</v>
       </c>
       <c r="W303">
-        <v>552799.31550000003</v>
+        <v>632832.28269999998</v>
       </c>
       <c r="Y303">
-        <v>186</v>
+        <v>303</v>
       </c>
       <c r="Z303">
-        <v>4.4282300000000001E-4</v>
+        <v>6.1470000000000003E-4</v>
       </c>
       <c r="AB303">
-        <v>3.3646899999999999E-4</v>
+        <v>4.7879999999999998E-4</v>
       </c>
       <c r="AI303" s="1"/>
       <c r="AJ303" s="1"/>
@@ -18162,48 +18159,47 @@
         <v>2016</v>
       </c>
       <c r="C304" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D304" t="s">
         <v>321</v>
       </c>
       <c r="E304">
-        <v>634467.00690000004</v>
+        <v>665302.51599999995</v>
       </c>
       <c r="G304">
-        <v>386</v>
+        <v>338</v>
       </c>
       <c r="H304">
-        <v>288374.43560000003</v>
+        <v>258113.7942</v>
       </c>
       <c r="J304">
-        <v>117</v>
+        <v>103</v>
       </c>
       <c r="K304">
-        <v>6.0838500000000002E-4</v>
+        <v>5.0803999999999997E-4</v>
       </c>
       <c r="M304">
-        <v>4.0572299999999998E-4</v>
+        <v>3.9904900000000001E-4</v>
       </c>
       <c r="T304">
-        <v>624695.14679999999</v>
+        <v>670243.17420000001</v>
       </c>
       <c r="V304">
-        <v>384</v>
+        <v>208</v>
       </c>
       <c r="W304">
-        <v>632832.28269999998</v>
+        <v>479445.84759999998</v>
       </c>
       <c r="Y304">
-        <v>303</v>
+        <v>183</v>
       </c>
       <c r="Z304">
-        <v>6.1470000000000003E-4</v>
+        <v>3.1033500000000002E-4</v>
       </c>
       <c r="AB304">
-        <v>4.7879999999999998E-4</v>
-      </c>
-      <c r="AI304" s="1"/>
+        <v>3.8169099999999997E-4</v>
+      </c>
       <c r="AJ304" s="1"/>
     </row>
     <row r="305" spans="1:36" x14ac:dyDescent="0.3">
@@ -18214,47 +18210,48 @@
         <v>2016</v>
       </c>
       <c r="C305" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D305" t="s">
         <v>322</v>
       </c>
       <c r="E305">
-        <v>665302.51599999995</v>
+        <v>574005.34649999999</v>
       </c>
       <c r="G305">
-        <v>338</v>
+        <v>213</v>
       </c>
       <c r="H305">
-        <v>258113.7942</v>
+        <v>334146.71480000002</v>
       </c>
       <c r="J305">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="K305">
-        <v>5.0803999999999997E-4</v>
+        <v>3.7107699999999998E-4</v>
       </c>
       <c r="M305">
-        <v>3.9904900000000001E-4</v>
+        <v>3.1423300000000003E-4</v>
       </c>
       <c r="T305">
-        <v>670243.17420000001</v>
+        <v>504505.98359999998</v>
       </c>
       <c r="V305">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="W305">
-        <v>479445.84759999998</v>
+        <v>702769.47050000005</v>
       </c>
       <c r="Y305">
-        <v>183</v>
+        <v>238</v>
       </c>
       <c r="Z305">
-        <v>3.1033500000000002E-4</v>
+        <v>4.1426700000000001E-4</v>
       </c>
       <c r="AB305">
-        <v>3.8169099999999997E-4</v>
-      </c>
+        <v>3.3866000000000001E-4</v>
+      </c>
+      <c r="AI305" s="1"/>
       <c r="AJ305" s="1"/>
     </row>
     <row r="306" spans="1:36" x14ac:dyDescent="0.3">
@@ -18265,46 +18262,46 @@
         <v>2016</v>
       </c>
       <c r="C306" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D306" t="s">
         <v>323</v>
       </c>
       <c r="E306">
-        <v>574005.34649999999</v>
+        <v>470516.71149999998</v>
       </c>
       <c r="G306">
-        <v>213</v>
+        <v>193</v>
       </c>
       <c r="H306">
-        <v>334146.71480000002</v>
+        <v>309618.73180000001</v>
       </c>
       <c r="J306">
-        <v>105</v>
+        <v>136</v>
       </c>
       <c r="K306">
-        <v>3.7107699999999998E-4</v>
+        <v>4.1018700000000001E-4</v>
       </c>
       <c r="M306">
-        <v>3.1423300000000003E-4</v>
+        <v>4.3925000000000002E-4</v>
       </c>
       <c r="T306">
-        <v>504505.98359999998</v>
+        <v>447243.4706</v>
       </c>
       <c r="V306">
-        <v>209</v>
+        <v>189</v>
       </c>
       <c r="W306">
-        <v>702769.47050000005</v>
+        <v>631390.66410000005</v>
       </c>
       <c r="Y306">
-        <v>238</v>
+        <v>196</v>
       </c>
       <c r="Z306">
-        <v>4.1426700000000001E-4</v>
+        <v>4.2258900000000002E-4</v>
       </c>
       <c r="AB306">
-        <v>3.3866000000000001E-4</v>
+        <v>3.1042599999999999E-4</v>
       </c>
       <c r="AI306" s="1"/>
       <c r="AJ306" s="1"/>
@@ -18317,46 +18314,46 @@
         <v>2016</v>
       </c>
       <c r="C307" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D307" t="s">
         <v>324</v>
       </c>
       <c r="E307">
-        <v>470516.71149999998</v>
+        <v>546519.37589999998</v>
       </c>
       <c r="G307">
-        <v>193</v>
+        <v>307</v>
       </c>
       <c r="H307">
-        <v>309618.73180000001</v>
+        <v>275467.5001</v>
       </c>
       <c r="J307">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="K307">
-        <v>4.1018700000000001E-4</v>
+        <v>5.6173699999999998E-4</v>
       </c>
       <c r="M307">
-        <v>4.3925000000000002E-4</v>
+        <v>4.7918499999999997E-4</v>
       </c>
       <c r="T307">
-        <v>447243.4706</v>
+        <v>664964.35860000004</v>
       </c>
       <c r="V307">
-        <v>189</v>
+        <v>310</v>
       </c>
       <c r="W307">
-        <v>631390.66410000005</v>
+        <v>592145.71340000001</v>
       </c>
       <c r="Y307">
-        <v>196</v>
+        <v>212</v>
       </c>
       <c r="Z307">
-        <v>4.2258900000000002E-4</v>
+        <v>4.6619000000000001E-4</v>
       </c>
       <c r="AB307">
-        <v>3.1042599999999999E-4</v>
+        <v>3.5802000000000002E-4</v>
       </c>
       <c r="AI307" s="1"/>
       <c r="AJ307" s="1"/>
@@ -18369,46 +18366,46 @@
         <v>2016</v>
       </c>
       <c r="C308" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D308" t="s">
         <v>325</v>
       </c>
       <c r="E308">
-        <v>546519.37589999998</v>
+        <v>621629.48259999999</v>
       </c>
       <c r="G308">
-        <v>307</v>
+        <v>313</v>
       </c>
       <c r="H308">
-        <v>275467.5001</v>
+        <v>370439.0171</v>
       </c>
       <c r="J308">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K308">
-        <v>5.6173699999999998E-4</v>
+        <v>5.0351499999999995E-4</v>
       </c>
       <c r="M308">
-        <v>4.7918499999999997E-4</v>
+        <v>3.5363400000000002E-4</v>
       </c>
       <c r="T308">
-        <v>664964.35860000004</v>
+        <v>589145.90099999995</v>
       </c>
       <c r="V308">
-        <v>310</v>
+        <v>251</v>
       </c>
       <c r="W308">
-        <v>592145.71340000001</v>
+        <v>520298.826</v>
       </c>
       <c r="Y308">
-        <v>212</v>
+        <v>189</v>
       </c>
       <c r="Z308">
-        <v>4.6619000000000001E-4</v>
+        <v>4.2603999999999998E-4</v>
       </c>
       <c r="AB308">
-        <v>3.5802000000000002E-4</v>
+        <v>3.6325300000000001E-4</v>
       </c>
       <c r="AI308" s="1"/>
       <c r="AJ308" s="1"/>
@@ -18421,46 +18418,46 @@
         <v>2016</v>
       </c>
       <c r="C309" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D309" t="s">
         <v>326</v>
       </c>
       <c r="E309">
-        <v>621629.48259999999</v>
+        <v>684836.44750000001</v>
       </c>
       <c r="G309">
-        <v>313</v>
+        <v>203</v>
       </c>
       <c r="H309">
-        <v>370439.0171</v>
+        <v>254424.31849999999</v>
       </c>
       <c r="J309">
-        <v>131</v>
+        <v>116</v>
       </c>
       <c r="K309">
-        <v>5.0351499999999995E-4</v>
+        <v>2.96421E-4</v>
       </c>
       <c r="M309">
-        <v>3.5363400000000002E-4</v>
+        <v>4.5593100000000002E-4</v>
       </c>
       <c r="T309">
-        <v>589145.90099999995</v>
+        <v>529951.44110000005</v>
       </c>
       <c r="V309">
-        <v>251</v>
+        <v>127</v>
       </c>
       <c r="W309">
-        <v>520298.826</v>
+        <v>604836.40619999997</v>
       </c>
       <c r="Y309">
-        <v>189</v>
+        <v>254</v>
       </c>
       <c r="Z309">
-        <v>4.2603999999999998E-4</v>
+        <v>2.39645E-4</v>
       </c>
       <c r="AB309">
-        <v>3.6325300000000001E-4</v>
+        <v>4.1994800000000001E-4</v>
       </c>
       <c r="AI309" s="1"/>
       <c r="AJ309" s="1"/>
@@ -18473,46 +18470,46 @@
         <v>2016</v>
       </c>
       <c r="C310" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D310" t="s">
         <v>327</v>
       </c>
       <c r="E310">
-        <v>684836.44750000001</v>
+        <v>646156.57570000004</v>
       </c>
       <c r="G310">
-        <v>203</v>
+        <v>286</v>
       </c>
       <c r="H310">
-        <v>254424.31849999999</v>
+        <v>342079.1764</v>
       </c>
       <c r="J310">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="K310">
-        <v>2.96421E-4</v>
+        <v>4.4261700000000002E-4</v>
       </c>
       <c r="M310">
-        <v>4.5593100000000002E-4</v>
+        <v>3.5371900000000001E-4</v>
       </c>
       <c r="T310">
-        <v>529951.44110000005</v>
+        <v>526709.57909999997</v>
       </c>
       <c r="V310">
-        <v>127</v>
+        <v>237</v>
       </c>
       <c r="W310">
-        <v>604836.40619999997</v>
+        <v>516435.82209999999</v>
       </c>
       <c r="Y310">
-        <v>254</v>
+        <v>159</v>
       </c>
       <c r="Z310">
-        <v>2.39645E-4</v>
+        <v>4.49963E-4</v>
       </c>
       <c r="AB310">
-        <v>4.1994800000000001E-4</v>
+        <v>3.07879E-4</v>
       </c>
       <c r="AI310" s="1"/>
       <c r="AJ310" s="1"/>
@@ -18525,46 +18522,46 @@
         <v>2016</v>
       </c>
       <c r="C311" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D311" t="s">
         <v>328</v>
       </c>
       <c r="E311">
-        <v>646156.57570000004</v>
+        <v>575285.00549999997</v>
       </c>
       <c r="G311">
-        <v>286</v>
+        <v>335</v>
       </c>
       <c r="H311">
-        <v>342079.1764</v>
+        <v>357937.87050000002</v>
       </c>
       <c r="J311">
-        <v>121</v>
+        <v>157</v>
       </c>
       <c r="K311">
-        <v>4.4261700000000002E-4</v>
+        <v>5.8231999999999999E-4</v>
       </c>
       <c r="M311">
-        <v>3.5371900000000001E-4</v>
+        <v>4.3862399999999998E-4</v>
       </c>
       <c r="T311">
-        <v>526709.57909999997</v>
+        <v>449307.12089999998</v>
       </c>
       <c r="V311">
-        <v>237</v>
+        <v>203</v>
       </c>
       <c r="W311">
-        <v>516435.82209999999</v>
+        <v>559661.24190000002</v>
       </c>
       <c r="Y311">
-        <v>159</v>
+        <v>213</v>
       </c>
       <c r="Z311">
-        <v>4.49963E-4</v>
+        <v>4.5180699999999998E-4</v>
       </c>
       <c r="AB311">
-        <v>3.07879E-4</v>
+        <v>3.8058699999999999E-4</v>
       </c>
       <c r="AI311" s="1"/>
       <c r="AJ311" s="1"/>
@@ -18577,46 +18574,46 @@
         <v>2016</v>
       </c>
       <c r="C312" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D312" t="s">
         <v>329</v>
       </c>
       <c r="E312">
-        <v>575285.00549999997</v>
+        <v>520598.7182</v>
       </c>
       <c r="G312">
-        <v>335</v>
+        <v>237</v>
       </c>
       <c r="H312">
-        <v>357937.87050000002</v>
+        <v>226056.46890000001</v>
       </c>
       <c r="J312">
-        <v>157</v>
+        <v>89</v>
       </c>
       <c r="K312">
-        <v>5.8231999999999999E-4</v>
+        <v>4.5524500000000001E-4</v>
       </c>
       <c r="M312">
-        <v>4.3862399999999998E-4</v>
+        <v>3.9370699999999998E-4</v>
       </c>
       <c r="T312">
-        <v>449307.12089999998</v>
+        <v>455009.5232</v>
       </c>
       <c r="V312">
-        <v>203</v>
+        <v>158</v>
       </c>
       <c r="W312">
-        <v>559661.24190000002</v>
+        <v>615384.24860000005</v>
       </c>
       <c r="Y312">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="Z312">
-        <v>4.5180699999999998E-4</v>
+        <v>3.4724499999999999E-4</v>
       </c>
       <c r="AB312">
-        <v>3.8058699999999999E-4</v>
+        <v>3.5587500000000002E-4</v>
       </c>
       <c r="AI312" s="1"/>
       <c r="AJ312" s="1"/>
@@ -18629,46 +18626,46 @@
         <v>2016</v>
       </c>
       <c r="C313" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D313" t="s">
         <v>330</v>
       </c>
       <c r="E313">
-        <v>520598.7182</v>
+        <v>575635.6213</v>
       </c>
       <c r="G313">
-        <v>237</v>
+        <v>197</v>
       </c>
       <c r="H313">
-        <v>226056.46890000001</v>
+        <v>524684.19400000002</v>
       </c>
       <c r="J313">
-        <v>89</v>
+        <v>172</v>
       </c>
       <c r="K313">
-        <v>4.5524500000000001E-4</v>
+        <v>3.4223000000000001E-4</v>
       </c>
       <c r="M313">
-        <v>3.9370699999999998E-4</v>
+        <v>3.2781599999999998E-4</v>
       </c>
       <c r="T313">
-        <v>455009.5232</v>
+        <v>522540.45380000002</v>
       </c>
       <c r="V313">
         <v>158</v>
       </c>
       <c r="W313">
-        <v>615384.24860000005</v>
+        <v>696078.40260000003</v>
       </c>
       <c r="Y313">
-        <v>219</v>
+        <v>233</v>
       </c>
       <c r="Z313">
-        <v>3.4724499999999999E-4</v>
+        <v>3.0236899999999998E-4</v>
       </c>
       <c r="AB313">
-        <v>3.5587500000000002E-4</v>
+        <v>3.3473200000000002E-4</v>
       </c>
       <c r="AI313" s="1"/>
       <c r="AJ313" s="1"/>
@@ -18681,46 +18678,46 @@
         <v>2016</v>
       </c>
       <c r="C314" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D314" t="s">
         <v>331</v>
       </c>
       <c r="E314">
-        <v>575635.6213</v>
+        <v>683439.32330000005</v>
       </c>
       <c r="G314">
-        <v>197</v>
+        <v>261</v>
       </c>
       <c r="H314">
-        <v>524684.19400000002</v>
+        <v>274259.92200000002</v>
       </c>
       <c r="J314">
-        <v>172</v>
+        <v>113</v>
       </c>
       <c r="K314">
-        <v>3.4223000000000001E-4</v>
+        <v>3.81892E-4</v>
       </c>
       <c r="M314">
-        <v>3.2781599999999998E-4</v>
+        <v>4.12018E-4</v>
       </c>
       <c r="T314">
-        <v>522540.45380000002</v>
+        <v>551153.91260000004</v>
       </c>
       <c r="V314">
-        <v>158</v>
+        <v>188</v>
       </c>
       <c r="W314">
-        <v>696078.40260000003</v>
+        <v>525394.32460000005</v>
       </c>
       <c r="Y314">
-        <v>233</v>
+        <v>207</v>
       </c>
       <c r="Z314">
-        <v>3.0236899999999998E-4</v>
+        <v>3.4110299999999999E-4</v>
       </c>
       <c r="AB314">
-        <v>3.3473200000000002E-4</v>
+        <v>3.9398999999999999E-4</v>
       </c>
       <c r="AI314" s="1"/>
       <c r="AJ314" s="1"/>
@@ -18733,46 +18730,46 @@
         <v>2016</v>
       </c>
       <c r="C315" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D315" t="s">
         <v>332</v>
       </c>
       <c r="E315">
-        <v>683439.32330000005</v>
+        <v>559988.7206</v>
       </c>
       <c r="G315">
-        <v>261</v>
+        <v>180</v>
       </c>
       <c r="H315">
-        <v>274259.92200000002</v>
+        <v>315035.48009999999</v>
       </c>
       <c r="J315">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="K315">
-        <v>3.81892E-4</v>
+        <v>3.2143500000000001E-4</v>
       </c>
       <c r="M315">
-        <v>4.12018E-4</v>
+        <v>3.4599300000000001E-4</v>
       </c>
       <c r="T315">
-        <v>551153.91260000004</v>
+        <v>495598.2047</v>
       </c>
       <c r="V315">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="W315">
-        <v>525394.32460000005</v>
+        <v>663357.22080000001</v>
       </c>
       <c r="Y315">
-        <v>207</v>
+        <v>230</v>
       </c>
       <c r="Z315">
-        <v>3.4110299999999999E-4</v>
+        <v>3.6118000000000001E-4</v>
       </c>
       <c r="AB315">
-        <v>3.9398999999999999E-4</v>
+        <v>3.4672099999999998E-4</v>
       </c>
       <c r="AI315" s="1"/>
       <c r="AJ315" s="1"/>
@@ -18785,46 +18782,46 @@
         <v>2016</v>
       </c>
       <c r="C316" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D316" t="s">
         <v>333</v>
       </c>
       <c r="E316">
-        <v>559988.7206</v>
+        <v>733313.09629999998</v>
       </c>
       <c r="G316">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="H316">
-        <v>315035.48009999999</v>
+        <v>291860.12689999997</v>
       </c>
       <c r="J316">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="K316">
-        <v>3.2143500000000001E-4</v>
+        <v>2.33188E-4</v>
       </c>
       <c r="M316">
-        <v>3.4599300000000001E-4</v>
+        <v>3.59761E-4</v>
       </c>
       <c r="T316">
-        <v>495598.2047</v>
+        <v>636035.87950000004</v>
       </c>
       <c r="V316">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="W316">
-        <v>663357.22080000001</v>
+        <v>575178.21889999998</v>
       </c>
       <c r="Y316">
-        <v>230</v>
+        <v>215</v>
       </c>
       <c r="Z316">
-        <v>3.6118000000000001E-4</v>
+        <v>2.7985800000000002E-4</v>
       </c>
       <c r="AB316">
-        <v>3.4672099999999998E-4</v>
+        <v>3.7379699999999999E-4</v>
       </c>
       <c r="AI316" s="1"/>
       <c r="AJ316" s="1"/>
@@ -18837,46 +18834,46 @@
         <v>2016</v>
       </c>
       <c r="C317" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D317" t="s">
         <v>334</v>
       </c>
       <c r="E317">
-        <v>733313.09629999998</v>
+        <v>583512.90989999997</v>
       </c>
       <c r="G317">
+        <v>229</v>
+      </c>
+      <c r="H317">
+        <v>354800.12540000002</v>
+      </c>
+      <c r="J317">
         <v>171</v>
       </c>
-      <c r="H317">
-        <v>291860.12689999997</v>
-      </c>
-      <c r="J317">
-        <v>105</v>
-      </c>
       <c r="K317">
-        <v>2.33188E-4</v>
+        <v>3.9245099999999999E-4</v>
       </c>
       <c r="M317">
-        <v>3.59761E-4</v>
+        <v>4.8196099999999999E-4</v>
       </c>
       <c r="T317">
-        <v>636035.87950000004</v>
+        <v>620054.38089999999</v>
       </c>
       <c r="V317">
-        <v>178</v>
+        <v>243</v>
       </c>
       <c r="W317">
-        <v>575178.21889999998</v>
+        <v>628648.02930000005</v>
       </c>
       <c r="Y317">
-        <v>215</v>
+        <v>310</v>
       </c>
       <c r="Z317">
-        <v>2.7985800000000002E-4</v>
+        <v>3.91901E-4</v>
       </c>
       <c r="AB317">
-        <v>3.7379699999999999E-4</v>
+        <v>4.9312200000000003E-4</v>
       </c>
       <c r="AI317" s="1"/>
       <c r="AJ317" s="1"/>
@@ -18889,49 +18886,48 @@
         <v>2016</v>
       </c>
       <c r="C318" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D318" t="s">
         <v>335</v>
       </c>
       <c r="E318">
-        <v>583512.90989999997</v>
+        <v>527125.1568</v>
       </c>
       <c r="G318">
-        <v>229</v>
+        <v>279</v>
       </c>
       <c r="H318">
-        <v>354800.12540000002</v>
+        <v>344687.43810000003</v>
       </c>
       <c r="J318">
-        <v>171</v>
+        <v>192</v>
       </c>
       <c r="K318">
-        <v>3.9245099999999999E-4</v>
+        <v>5.2928600000000001E-4</v>
       </c>
       <c r="M318">
-        <v>4.8196099999999999E-4</v>
+        <v>5.5702599999999996E-4</v>
       </c>
       <c r="T318">
-        <v>620054.38089999999</v>
+        <v>489484.67420000001</v>
       </c>
       <c r="V318">
-        <v>243</v>
+        <v>250</v>
       </c>
       <c r="W318">
-        <v>628648.02930000005</v>
+        <v>508849.5269</v>
       </c>
       <c r="Y318">
-        <v>310</v>
+        <v>202</v>
       </c>
       <c r="Z318">
-        <v>3.91901E-4</v>
+        <v>5.1074099999999999E-4</v>
       </c>
       <c r="AB318">
-        <v>4.9312200000000003E-4</v>
+        <v>3.9697400000000002E-4</v>
       </c>
       <c r="AI318" s="1"/>
-      <c r="AJ318" s="1"/>
     </row>
     <row r="319" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A319" t="s">
@@ -18941,48 +18937,49 @@
         <v>2016</v>
       </c>
       <c r="C319" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D319" t="s">
         <v>336</v>
       </c>
       <c r="E319">
-        <v>527125.1568</v>
+        <v>467082.63370000001</v>
       </c>
       <c r="G319">
-        <v>279</v>
+        <v>184</v>
       </c>
       <c r="H319">
-        <v>344687.43810000003</v>
+        <v>369136.22110000002</v>
       </c>
       <c r="J319">
-        <v>192</v>
+        <v>105</v>
       </c>
       <c r="K319">
-        <v>5.2928600000000001E-4</v>
+        <v>3.9393499999999999E-4</v>
       </c>
       <c r="M319">
-        <v>5.5702599999999996E-4</v>
+        <v>2.8444800000000003E-4</v>
       </c>
       <c r="T319">
-        <v>489484.67420000001</v>
+        <v>424731.97389999998</v>
       </c>
       <c r="V319">
-        <v>250</v>
+        <v>182</v>
       </c>
       <c r="W319">
-        <v>508849.5269</v>
+        <v>539635.2023</v>
       </c>
       <c r="Y319">
-        <v>202</v>
+        <v>169</v>
       </c>
       <c r="Z319">
-        <v>5.1074099999999999E-4</v>
+        <v>4.2850599999999999E-4</v>
       </c>
       <c r="AB319">
-        <v>3.9697400000000002E-4</v>
+        <v>3.1317500000000001E-4</v>
       </c>
       <c r="AI319" s="1"/>
+      <c r="AJ319" s="1"/>
     </row>
     <row r="320" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A320" t="s">
@@ -18992,46 +18989,46 @@
         <v>2016</v>
       </c>
       <c r="C320" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D320" t="s">
         <v>337</v>
       </c>
       <c r="E320">
-        <v>467082.63370000001</v>
+        <v>729708.16</v>
       </c>
       <c r="G320">
-        <v>184</v>
+        <v>249</v>
       </c>
       <c r="H320">
-        <v>369136.22110000002</v>
+        <v>359486.27559999999</v>
       </c>
       <c r="J320">
-        <v>105</v>
+        <v>131</v>
       </c>
       <c r="K320">
-        <v>3.9393499999999999E-4</v>
+        <v>3.4123200000000002E-4</v>
       </c>
       <c r="M320">
-        <v>2.8444800000000003E-4</v>
+        <v>3.64409E-4</v>
       </c>
       <c r="T320">
-        <v>424731.97389999998</v>
+        <v>687995.54989999998</v>
       </c>
       <c r="V320">
-        <v>182</v>
+        <v>272</v>
       </c>
       <c r="W320">
-        <v>539635.2023</v>
+        <v>601000.09900000005</v>
       </c>
       <c r="Y320">
-        <v>169</v>
+        <v>198</v>
       </c>
       <c r="Z320">
-        <v>4.2850599999999999E-4</v>
+        <v>3.95351E-4</v>
       </c>
       <c r="AB320">
-        <v>3.1317500000000001E-4</v>
+        <v>3.2945099999999997E-4</v>
       </c>
       <c r="AI320" s="1"/>
       <c r="AJ320" s="1"/>
@@ -19044,49 +19041,48 @@
         <v>2016</v>
       </c>
       <c r="C321" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D321" t="s">
         <v>338</v>
       </c>
       <c r="E321">
-        <v>729708.16</v>
+        <v>619594.3088</v>
       </c>
       <c r="G321">
-        <v>249</v>
+        <v>188</v>
       </c>
       <c r="H321">
-        <v>359486.27559999999</v>
+        <v>326782.00170000002</v>
       </c>
       <c r="J321">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="K321">
-        <v>3.4123200000000002E-4</v>
+        <v>3.03424E-4</v>
       </c>
       <c r="M321">
-        <v>3.64409E-4</v>
+        <v>4.2841999999999999E-4</v>
       </c>
       <c r="T321">
-        <v>687995.54989999998</v>
+        <v>512637.78019999998</v>
       </c>
       <c r="V321">
-        <v>272</v>
+        <v>145</v>
       </c>
       <c r="W321">
-        <v>601000.09900000005</v>
+        <v>563182.52870000002</v>
       </c>
       <c r="Y321">
-        <v>198</v>
+        <v>157</v>
       </c>
       <c r="Z321">
-        <v>3.95351E-4</v>
+        <v>2.8285099999999998E-4</v>
       </c>
       <c r="AB321">
-        <v>3.2945099999999997E-4</v>
+        <v>2.7877300000000001E-4</v>
       </c>
       <c r="AI321" s="1"/>
-      <c r="AJ321" s="1"/>
     </row>
     <row r="322" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A322" t="s">
@@ -19096,48 +19092,49 @@
         <v>2016</v>
       </c>
       <c r="C322" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D322" t="s">
         <v>339</v>
       </c>
       <c r="E322">
-        <v>619594.3088</v>
+        <v>583887.55279999995</v>
       </c>
       <c r="G322">
-        <v>188</v>
+        <v>311</v>
       </c>
       <c r="H322">
-        <v>326782.00170000002</v>
+        <v>486486.64150000003</v>
       </c>
       <c r="J322">
-        <v>140</v>
+        <v>107</v>
       </c>
       <c r="K322">
-        <v>3.03424E-4</v>
+        <v>5.3263699999999998E-4</v>
       </c>
       <c r="M322">
-        <v>4.2841999999999999E-4</v>
+        <v>2.1994399999999999E-4</v>
       </c>
       <c r="T322">
-        <v>512637.78019999998</v>
+        <v>494775.05829999998</v>
       </c>
       <c r="V322">
-        <v>145</v>
+        <v>261</v>
       </c>
       <c r="W322">
-        <v>563182.52870000002</v>
+        <v>675918.8798</v>
       </c>
       <c r="Y322">
-        <v>157</v>
+        <v>138</v>
       </c>
       <c r="Z322">
-        <v>2.8285099999999998E-4</v>
+        <v>5.2751199999999995E-4</v>
       </c>
       <c r="AB322">
-        <v>2.7877300000000001E-4</v>
+        <v>2.04167E-4</v>
       </c>
       <c r="AI322" s="1"/>
+      <c r="AJ322" s="1"/>
     </row>
     <row r="323" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A323" t="s">
@@ -19147,46 +19144,46 @@
         <v>2016</v>
       </c>
       <c r="C323" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D323" t="s">
         <v>340</v>
       </c>
       <c r="E323">
-        <v>583887.55279999995</v>
+        <v>559607.84860000003</v>
       </c>
       <c r="G323">
-        <v>311</v>
+        <v>131</v>
       </c>
       <c r="H323">
-        <v>486486.64150000003</v>
+        <v>282918.53230000002</v>
       </c>
       <c r="J323">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="K323">
-        <v>5.3263699999999998E-4</v>
+        <v>2.3409200000000001E-4</v>
       </c>
       <c r="M323">
-        <v>2.1994399999999999E-4</v>
+        <v>3.56993E-4</v>
       </c>
       <c r="T323">
-        <v>494775.05829999998</v>
+        <v>408560.92910000001</v>
       </c>
       <c r="V323">
-        <v>261</v>
+        <v>106</v>
       </c>
       <c r="W323">
-        <v>675918.8798</v>
+        <v>553129.46389999997</v>
       </c>
       <c r="Y323">
-        <v>138</v>
+        <v>210</v>
       </c>
       <c r="Z323">
-        <v>5.2751199999999995E-4</v>
+        <v>2.59447E-4</v>
       </c>
       <c r="AB323">
-        <v>2.04167E-4</v>
+        <v>3.79658E-4</v>
       </c>
       <c r="AI323" s="1"/>
       <c r="AJ323" s="1"/>
@@ -19199,46 +19196,46 @@
         <v>2016</v>
       </c>
       <c r="C324" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D324" t="s">
         <v>341</v>
       </c>
       <c r="E324">
-        <v>559607.84860000003</v>
+        <v>522057.24459999998</v>
       </c>
       <c r="G324">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="H324">
-        <v>282918.53230000002</v>
+        <v>319043.5356</v>
       </c>
       <c r="J324">
-        <v>101</v>
+        <v>132</v>
       </c>
       <c r="K324">
-        <v>2.3409200000000001E-4</v>
+        <v>2.4518400000000002E-4</v>
       </c>
       <c r="M324">
-        <v>3.56993E-4</v>
+        <v>4.1373700000000001E-4</v>
       </c>
       <c r="T324">
-        <v>408560.92910000001</v>
+        <v>481625.18339999998</v>
       </c>
       <c r="V324">
-        <v>106</v>
+        <v>140</v>
       </c>
       <c r="W324">
-        <v>553129.46389999997</v>
+        <v>468232.36900000001</v>
       </c>
       <c r="Y324">
-        <v>210</v>
+        <v>168</v>
       </c>
       <c r="Z324">
-        <v>2.59447E-4</v>
+        <v>2.9068200000000001E-4</v>
       </c>
       <c r="AB324">
-        <v>3.79658E-4</v>
+        <v>3.5879599999999998E-4</v>
       </c>
       <c r="AI324" s="1"/>
       <c r="AJ324" s="1"/>
@@ -19251,46 +19248,46 @@
         <v>2016</v>
       </c>
       <c r="C325" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D325" t="s">
         <v>342</v>
       </c>
       <c r="E325">
-        <v>522057.24459999998</v>
+        <v>687523.90919999999</v>
       </c>
       <c r="G325">
-        <v>128</v>
+        <v>331</v>
       </c>
       <c r="H325">
-        <v>319043.5356</v>
+        <v>300445.76630000002</v>
       </c>
       <c r="J325">
-        <v>132</v>
+        <v>98</v>
       </c>
       <c r="K325">
-        <v>2.4518400000000002E-4</v>
+        <v>4.8143799999999999E-4</v>
       </c>
       <c r="M325">
-        <v>4.1373700000000001E-4</v>
+        <v>3.26182E-4</v>
       </c>
       <c r="T325">
-        <v>481625.18339999998</v>
+        <v>622274.65139999997</v>
       </c>
       <c r="V325">
-        <v>140</v>
+        <v>296</v>
       </c>
       <c r="W325">
-        <v>468232.36900000001</v>
+        <v>702496.27480000001</v>
       </c>
       <c r="Y325">
-        <v>168</v>
+        <v>261</v>
       </c>
       <c r="Z325">
-        <v>2.9068200000000001E-4</v>
+        <v>4.7567399999999999E-4</v>
       </c>
       <c r="AB325">
-        <v>3.5879599999999998E-4</v>
+        <v>3.7153199999999999E-4</v>
       </c>
       <c r="AI325" s="1"/>
       <c r="AJ325" s="1"/>
@@ -19303,46 +19300,46 @@
         <v>2016</v>
       </c>
       <c r="C326" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D326" t="s">
         <v>343</v>
       </c>
       <c r="E326">
-        <v>687523.90919999999</v>
+        <v>727078.54099999997</v>
       </c>
       <c r="G326">
-        <v>331</v>
+        <v>181</v>
       </c>
       <c r="H326">
-        <v>300445.76630000002</v>
+        <v>382125.02630000003</v>
       </c>
       <c r="J326">
-        <v>98</v>
+        <v>112</v>
       </c>
       <c r="K326">
-        <v>4.8143799999999999E-4</v>
+        <v>2.4894099999999997E-4</v>
       </c>
       <c r="M326">
-        <v>3.26182E-4</v>
+        <v>2.9309799999999999E-4</v>
       </c>
       <c r="T326">
-        <v>622274.65139999997</v>
+        <v>572204.2132</v>
       </c>
       <c r="V326">
-        <v>296</v>
+        <v>119</v>
       </c>
       <c r="W326">
-        <v>702496.27480000001</v>
+        <v>678545.82920000004</v>
       </c>
       <c r="Y326">
-        <v>261</v>
+        <v>232</v>
       </c>
       <c r="Z326">
-        <v>4.7567399999999999E-4</v>
+        <v>2.07968E-4</v>
       </c>
       <c r="AB326">
-        <v>3.7153199999999999E-4</v>
+        <v>3.4190799999999998E-4</v>
       </c>
       <c r="AI326" s="1"/>
       <c r="AJ326" s="1"/>
@@ -19355,46 +19352,46 @@
         <v>2016</v>
       </c>
       <c r="C327" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D327" t="s">
         <v>344</v>
       </c>
       <c r="E327">
-        <v>727078.54099999997</v>
+        <v>581879.96539999999</v>
       </c>
       <c r="G327">
-        <v>181</v>
+        <v>298</v>
       </c>
       <c r="H327">
-        <v>382125.02630000003</v>
+        <v>345492.7868</v>
       </c>
       <c r="J327">
-        <v>112</v>
+        <v>155</v>
       </c>
       <c r="K327">
-        <v>2.4894099999999997E-4</v>
+        <v>5.1213300000000001E-4</v>
       </c>
       <c r="M327">
-        <v>2.9309799999999999E-4</v>
+        <v>4.4863500000000002E-4</v>
       </c>
       <c r="T327">
-        <v>572204.2132</v>
+        <v>522339.33909999998</v>
       </c>
       <c r="V327">
-        <v>119</v>
+        <v>250</v>
       </c>
       <c r="W327">
-        <v>678545.82920000004</v>
+        <v>596686.81189999997</v>
       </c>
       <c r="Y327">
-        <v>232</v>
+        <v>251</v>
       </c>
       <c r="Z327">
-        <v>2.07968E-4</v>
+        <v>4.7861600000000001E-4</v>
       </c>
       <c r="AB327">
-        <v>3.4190799999999998E-4</v>
+        <v>4.2065599999999999E-4</v>
       </c>
       <c r="AI327" s="1"/>
       <c r="AJ327" s="1"/>
@@ -19407,46 +19404,46 @@
         <v>2016</v>
       </c>
       <c r="C328" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D328" t="s">
         <v>345</v>
       </c>
       <c r="E328">
-        <v>581879.96539999999</v>
+        <v>572519.23360000004</v>
       </c>
       <c r="G328">
-        <v>298</v>
+        <v>177</v>
       </c>
       <c r="H328">
-        <v>345492.7868</v>
+        <v>439357.2831</v>
       </c>
       <c r="J328">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="K328">
-        <v>5.1213300000000001E-4</v>
+        <v>3.0916E-4</v>
       </c>
       <c r="M328">
-        <v>4.4863500000000002E-4</v>
+        <v>3.3913200000000002E-4</v>
       </c>
       <c r="T328">
-        <v>522339.33909999998</v>
+        <v>504551.36790000001</v>
       </c>
       <c r="V328">
-        <v>250</v>
+        <v>130</v>
       </c>
       <c r="W328">
-        <v>596686.81189999997</v>
+        <v>718591.67909999995</v>
       </c>
       <c r="Y328">
-        <v>251</v>
+        <v>279</v>
       </c>
       <c r="Z328">
-        <v>4.7861600000000001E-4</v>
+        <v>2.5765500000000003E-4</v>
       </c>
       <c r="AB328">
-        <v>4.2065599999999999E-4</v>
+        <v>3.8825900000000001E-4</v>
       </c>
       <c r="AI328" s="1"/>
       <c r="AJ328" s="1"/>
@@ -19459,3715 +19456,3663 @@
         <v>2016</v>
       </c>
       <c r="C329" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D329" t="s">
         <v>346</v>
       </c>
       <c r="E329">
-        <v>572519.23360000004</v>
+        <v>495769.06319999998</v>
       </c>
       <c r="G329">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="H329">
-        <v>439357.2831</v>
+        <v>418469.83199999999</v>
       </c>
       <c r="J329">
-        <v>149</v>
+        <v>171</v>
       </c>
       <c r="K329">
-        <v>3.0916E-4</v>
+        <v>3.59038E-4</v>
       </c>
       <c r="M329">
-        <v>3.3913200000000002E-4</v>
+        <v>4.0863199999999997E-4</v>
       </c>
       <c r="T329">
-        <v>504551.36790000001</v>
+        <v>415123.85310000001</v>
       </c>
       <c r="V329">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="W329">
-        <v>718591.67909999995</v>
+        <v>588020.19259999995</v>
       </c>
       <c r="Y329">
-        <v>279</v>
+        <v>195</v>
       </c>
       <c r="Z329">
-        <v>2.5765500000000003E-4</v>
+        <v>3.3724900000000002E-4</v>
       </c>
       <c r="AB329">
-        <v>3.8825900000000001E-4</v>
+        <v>3.3162099999999999E-4</v>
       </c>
       <c r="AI329" s="1"/>
       <c r="AJ329" s="1"/>
     </row>
     <row r="330" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A330" t="s">
-        <v>228</v>
+        <v>347</v>
       </c>
       <c r="B330">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="C330" t="s">
-        <v>308</v>
+        <v>348</v>
       </c>
       <c r="D330" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="E330">
-        <v>495769.06319999998</v>
+        <v>136582.67989999999</v>
       </c>
       <c r="G330">
-        <v>178</v>
+        <v>85</v>
       </c>
       <c r="H330">
-        <v>418469.83199999999</v>
+        <v>433201.038</v>
       </c>
       <c r="J330">
+        <v>158</v>
+      </c>
+      <c r="K330">
+        <v>6.2233399999999999E-4</v>
+      </c>
+      <c r="M330">
+        <v>3.6472700000000002E-4</v>
+      </c>
+      <c r="T330">
+        <v>553823.57660000003</v>
+      </c>
+      <c r="V330">
+        <v>115</v>
+      </c>
+      <c r="W330">
+        <v>415826.86459999997</v>
+      </c>
+      <c r="Y330">
         <v>171</v>
       </c>
-      <c r="K330">
-        <v>3.59038E-4</v>
-      </c>
-      <c r="M330">
-        <v>4.0863199999999997E-4</v>
-      </c>
-      <c r="T330">
-        <v>415123.85310000001</v>
-      </c>
-      <c r="V330">
-        <v>140</v>
-      </c>
-      <c r="W330">
-        <v>588020.19259999995</v>
-      </c>
-      <c r="Y330">
-        <v>195</v>
-      </c>
       <c r="Z330">
-        <v>3.3724900000000002E-4</v>
+        <v>2.0764700000000001E-4</v>
       </c>
       <c r="AB330">
-        <v>3.3162099999999999E-4</v>
-      </c>
-      <c r="AI330" s="1"/>
+        <v>4.1122899999999999E-4</v>
+      </c>
       <c r="AJ330" s="1"/>
     </row>
     <row r="331" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A331" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B331">
         <v>2017</v>
       </c>
       <c r="C331" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D331" t="s">
         <v>350</v>
       </c>
       <c r="E331">
-        <v>136582.67989999999</v>
+        <v>337838.86009999999</v>
       </c>
       <c r="G331">
-        <v>85</v>
+        <v>143</v>
       </c>
       <c r="H331">
-        <v>433201.038</v>
+        <v>496325.24320000003</v>
       </c>
       <c r="J331">
-        <v>158</v>
+        <v>190</v>
       </c>
       <c r="K331">
-        <v>6.2233399999999999E-4</v>
+        <v>4.2327899999999998E-4</v>
       </c>
       <c r="M331">
-        <v>3.6472700000000002E-4</v>
+        <v>3.8281300000000002E-4</v>
       </c>
       <c r="T331">
-        <v>553823.57660000003</v>
+        <v>622401.01549999998</v>
       </c>
       <c r="V331">
-        <v>115</v>
+        <v>220</v>
       </c>
       <c r="W331">
-        <v>415826.86459999997</v>
+        <v>442379.34279999998</v>
       </c>
       <c r="Y331">
-        <v>171</v>
+        <v>212</v>
       </c>
       <c r="Z331">
-        <v>2.0764700000000001E-4</v>
+        <v>3.5346999999999999E-4</v>
       </c>
       <c r="AB331">
-        <v>4.1122899999999999E-4</v>
-      </c>
+        <v>4.7922699999999998E-4</v>
+      </c>
+      <c r="AI331" s="1"/>
       <c r="AJ331" s="1"/>
     </row>
     <row r="332" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A332" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B332">
         <v>2017</v>
       </c>
       <c r="C332" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D332" t="s">
         <v>351</v>
       </c>
       <c r="E332">
-        <v>337838.86009999999</v>
+        <v>350800.96870000003</v>
       </c>
       <c r="G332">
-        <v>143</v>
+        <v>173</v>
       </c>
       <c r="H332">
-        <v>496325.24320000003</v>
+        <v>450104.46049999999</v>
       </c>
       <c r="J332">
-        <v>190</v>
+        <v>211</v>
       </c>
       <c r="K332">
-        <v>4.2327899999999998E-4</v>
+        <v>4.9315700000000004E-4</v>
       </c>
       <c r="M332">
-        <v>3.8281300000000002E-4</v>
+        <v>4.6878000000000002E-4</v>
       </c>
       <c r="T332">
-        <v>622401.01549999998</v>
+        <v>587456.00360000005</v>
       </c>
       <c r="V332">
-        <v>220</v>
+        <v>241</v>
       </c>
       <c r="W332">
-        <v>442379.34279999998</v>
+        <v>413126.05459999997</v>
       </c>
       <c r="Y332">
-        <v>212</v>
+        <v>228</v>
       </c>
       <c r="Z332">
-        <v>3.5346999999999999E-4</v>
+        <v>4.1024300000000002E-4</v>
       </c>
       <c r="AB332">
-        <v>4.7922699999999998E-4</v>
+        <v>5.5188999999999998E-4</v>
       </c>
       <c r="AI332" s="1"/>
       <c r="AJ332" s="1"/>
     </row>
     <row r="333" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A333" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B333">
         <v>2017</v>
       </c>
       <c r="C333" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D333" t="s">
         <v>352</v>
       </c>
       <c r="E333">
-        <v>350800.96870000003</v>
+        <v>280581.68640000001</v>
       </c>
       <c r="G333">
-        <v>173</v>
+        <v>159</v>
       </c>
       <c r="H333">
-        <v>450104.46049999999</v>
+        <v>478471.4203</v>
       </c>
       <c r="J333">
-        <v>211</v>
+        <v>294</v>
       </c>
       <c r="K333">
-        <v>4.9315700000000004E-4</v>
+        <v>5.6667999999999996E-4</v>
       </c>
       <c r="M333">
-        <v>4.6878000000000002E-4</v>
+        <v>6.14457E-4</v>
       </c>
       <c r="T333">
-        <v>587456.00360000005</v>
+        <v>570345.23719999997</v>
       </c>
       <c r="V333">
-        <v>241</v>
+        <v>215</v>
       </c>
       <c r="W333">
-        <v>413126.05459999997</v>
+        <v>412394.56660000002</v>
       </c>
       <c r="Y333">
-        <v>228</v>
+        <v>247</v>
       </c>
       <c r="Z333">
-        <v>4.1024300000000002E-4</v>
+        <v>3.7696499999999999E-4</v>
       </c>
       <c r="AB333">
-        <v>5.5188999999999998E-4</v>
-      </c>
-      <c r="AI333" s="1"/>
+        <v>5.9894099999999997E-4</v>
+      </c>
       <c r="AJ333" s="1"/>
     </row>
     <row r="334" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A334" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B334">
         <v>2017</v>
       </c>
       <c r="C334" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D334" t="s">
         <v>353</v>
       </c>
       <c r="E334">
-        <v>280581.68640000001</v>
+        <v>217410.31709999999</v>
       </c>
       <c r="G334">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="H334">
-        <v>478471.4203</v>
+        <v>482723.3052</v>
       </c>
       <c r="J334">
-        <v>294</v>
+        <v>231</v>
       </c>
       <c r="K334">
-        <v>5.6667999999999996E-4</v>
+        <v>6.9913899999999999E-4</v>
       </c>
       <c r="M334">
-        <v>6.14457E-4</v>
+        <v>4.7853499999999998E-4</v>
       </c>
       <c r="T334">
-        <v>570345.23719999997</v>
+        <v>563543.82319999998</v>
       </c>
       <c r="V334">
-        <v>215</v>
+        <v>279</v>
       </c>
       <c r="W334">
-        <v>412394.56660000002</v>
+        <v>506152.27639999997</v>
       </c>
       <c r="Y334">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="Z334">
-        <v>3.7696499999999999E-4</v>
+        <v>4.9508099999999997E-4</v>
       </c>
       <c r="AB334">
-        <v>5.9894099999999997E-4</v>
+        <v>4.9194699999999996E-4</v>
       </c>
       <c r="AJ334" s="1"/>
     </row>
     <row r="335" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A335" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B335">
         <v>2017</v>
       </c>
       <c r="C335" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D335" t="s">
         <v>354</v>
       </c>
       <c r="E335">
-        <v>217410.31709999999</v>
+        <v>293469.93430000002</v>
       </c>
       <c r="G335">
-        <v>152</v>
+        <v>189</v>
       </c>
       <c r="H335">
-        <v>482723.3052</v>
+        <v>535801.56480000005</v>
       </c>
       <c r="J335">
-        <v>231</v>
+        <v>253</v>
       </c>
       <c r="K335">
-        <v>6.9913899999999999E-4</v>
+        <v>6.44018E-4</v>
       </c>
       <c r="M335">
-        <v>4.7853499999999998E-4</v>
+        <v>4.7218999999999999E-4</v>
       </c>
       <c r="T335">
-        <v>563543.82319999998</v>
+        <v>609175.50009999995</v>
       </c>
       <c r="V335">
-        <v>279</v>
+        <v>302</v>
       </c>
       <c r="W335">
-        <v>506152.27639999997</v>
+        <v>451215.93060000002</v>
       </c>
       <c r="Y335">
-        <v>249</v>
+        <v>276</v>
       </c>
       <c r="Z335">
-        <v>4.9508099999999997E-4</v>
+        <v>4.9575200000000002E-4</v>
       </c>
       <c r="AB335">
-        <v>4.9194699999999996E-4</v>
+        <v>6.1168099999999999E-4</v>
       </c>
       <c r="AJ335" s="1"/>
     </row>
     <row r="336" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A336" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B336">
         <v>2017</v>
       </c>
       <c r="C336" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D336" t="s">
         <v>355</v>
       </c>
       <c r="E336">
-        <v>293469.93430000002</v>
+        <v>297432.60560000001</v>
       </c>
       <c r="G336">
-        <v>189</v>
+        <v>127</v>
       </c>
       <c r="H336">
-        <v>535801.56480000005</v>
+        <v>438524.348</v>
       </c>
       <c r="J336">
-        <v>253</v>
+        <v>243</v>
       </c>
       <c r="K336">
-        <v>6.44018E-4</v>
+        <v>4.2698699999999998E-4</v>
       </c>
       <c r="M336">
-        <v>4.7218999999999999E-4</v>
+        <v>5.5413100000000002E-4</v>
       </c>
       <c r="T336">
-        <v>609175.50009999995</v>
+        <v>588130.53879999998</v>
       </c>
       <c r="V336">
-        <v>302</v>
+        <v>106</v>
       </c>
       <c r="W336">
-        <v>451215.93060000002</v>
+        <v>395691.3689</v>
       </c>
       <c r="Y336">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="Z336">
-        <v>4.9575200000000002E-4</v>
+        <v>1.8023200000000001E-4</v>
       </c>
       <c r="AB336">
-        <v>6.1168099999999999E-4</v>
+        <v>6.8993199999999998E-4</v>
       </c>
       <c r="AJ336" s="1"/>
     </row>
     <row r="337" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A337" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B337">
         <v>2017</v>
       </c>
       <c r="C337" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D337" t="s">
         <v>356</v>
       </c>
       <c r="E337">
-        <v>297432.60560000001</v>
+        <v>327978.01120000001</v>
       </c>
       <c r="G337">
-        <v>127</v>
+        <v>167</v>
       </c>
       <c r="H337">
-        <v>438524.348</v>
+        <v>436225.76730000001</v>
       </c>
       <c r="J337">
-        <v>243</v>
+        <v>269</v>
       </c>
       <c r="K337">
-        <v>4.2698699999999998E-4</v>
+        <v>5.0918000000000003E-4</v>
       </c>
       <c r="M337">
-        <v>5.5413100000000002E-4</v>
+        <v>6.1665299999999999E-4</v>
       </c>
       <c r="T337">
-        <v>588130.53879999998</v>
+        <v>624922.06819999998</v>
       </c>
       <c r="V337">
-        <v>106</v>
+        <v>226</v>
       </c>
       <c r="W337">
-        <v>395691.3689</v>
+        <v>452294.47489999997</v>
       </c>
       <c r="Y337">
-        <v>273</v>
+        <v>287</v>
       </c>
       <c r="Z337">
-        <v>1.8023200000000001E-4</v>
+        <v>3.6164500000000001E-4</v>
       </c>
       <c r="AB337">
-        <v>6.8993199999999998E-4</v>
+        <v>6.3454199999999998E-4</v>
       </c>
       <c r="AJ337" s="1"/>
     </row>
     <row r="338" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A338" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B338">
         <v>2017</v>
       </c>
       <c r="C338" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D338" t="s">
         <v>357</v>
       </c>
       <c r="E338">
-        <v>327978.01120000001</v>
+        <v>357133.4117</v>
       </c>
       <c r="G338">
-        <v>167</v>
+        <v>179</v>
       </c>
       <c r="H338">
-        <v>436225.76730000001</v>
+        <v>499530.61979999999</v>
       </c>
       <c r="J338">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="K338">
-        <v>5.0918000000000003E-4</v>
+        <v>5.0121300000000003E-4</v>
       </c>
       <c r="M338">
-        <v>6.1665299999999999E-4</v>
+        <v>5.3049800000000002E-4</v>
       </c>
       <c r="T338">
-        <v>624922.06819999998</v>
+        <v>669698.56270000001</v>
       </c>
       <c r="V338">
-        <v>226</v>
+        <v>281</v>
       </c>
       <c r="W338">
-        <v>452294.47489999997</v>
+        <v>494840.91</v>
       </c>
       <c r="Y338">
-        <v>287</v>
+        <v>254</v>
       </c>
       <c r="Z338">
-        <v>3.6164500000000001E-4</v>
+        <v>4.1959199999999999E-4</v>
       </c>
       <c r="AB338">
-        <v>6.3454199999999998E-4</v>
-      </c>
+        <v>5.13296E-4</v>
+      </c>
+      <c r="AI338" s="1"/>
       <c r="AJ338" s="1"/>
     </row>
     <row r="339" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A339" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B339">
         <v>2017</v>
       </c>
       <c r="C339" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D339" t="s">
         <v>358</v>
       </c>
       <c r="E339">
-        <v>357133.4117</v>
+        <v>352006.76689999999</v>
       </c>
       <c r="G339">
-        <v>179</v>
+        <v>235</v>
       </c>
       <c r="H339">
-        <v>499530.61979999999</v>
+        <v>421375.31630000001</v>
       </c>
       <c r="J339">
-        <v>265</v>
+        <v>183</v>
       </c>
       <c r="K339">
-        <v>5.0121300000000003E-4</v>
+        <v>6.6760099999999998E-4</v>
       </c>
       <c r="M339">
-        <v>5.3049800000000002E-4</v>
+        <v>4.3429200000000002E-4</v>
       </c>
       <c r="T339">
-        <v>669698.56270000001</v>
+        <v>645850.45420000004</v>
       </c>
       <c r="V339">
-        <v>281</v>
+        <v>301</v>
       </c>
       <c r="W339">
-        <v>494840.91</v>
+        <v>401521.91499999998</v>
       </c>
       <c r="Y339">
-        <v>254</v>
+        <v>162</v>
       </c>
       <c r="Z339">
-        <v>4.1959199999999999E-4</v>
+        <v>4.66052E-4</v>
       </c>
       <c r="AB339">
-        <v>5.13296E-4</v>
-      </c>
-      <c r="AI339" s="1"/>
+        <v>4.0346499999999999E-4</v>
+      </c>
       <c r="AJ339" s="1"/>
     </row>
     <row r="340" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A340" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B340">
         <v>2017</v>
       </c>
       <c r="C340" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D340" t="s">
         <v>359</v>
       </c>
       <c r="E340">
-        <v>352006.76689999999</v>
+        <v>317812.82049999997</v>
       </c>
       <c r="G340">
-        <v>235</v>
+        <v>123</v>
       </c>
       <c r="H340">
-        <v>421375.31630000001</v>
+        <v>544675.52789999999</v>
       </c>
       <c r="J340">
-        <v>183</v>
+        <v>202</v>
       </c>
       <c r="K340">
-        <v>6.6760099999999998E-4</v>
+        <v>3.8702000000000002E-4</v>
       </c>
       <c r="M340">
-        <v>4.3429200000000002E-4</v>
+        <v>3.7086299999999998E-4</v>
       </c>
       <c r="T340">
-        <v>645850.45420000004</v>
+        <v>591156.15800000005</v>
       </c>
       <c r="V340">
-        <v>301</v>
+        <v>169</v>
       </c>
       <c r="W340">
-        <v>401521.91499999998</v>
+        <v>457218.22519999999</v>
       </c>
       <c r="Y340">
-        <v>162</v>
+        <v>191</v>
       </c>
       <c r="Z340">
-        <v>4.66052E-4</v>
+        <v>2.8588000000000002E-4</v>
       </c>
       <c r="AB340">
-        <v>4.0346499999999999E-4</v>
-      </c>
+        <v>4.17744E-4</v>
+      </c>
+      <c r="AI340" s="1"/>
       <c r="AJ340" s="1"/>
     </row>
     <row r="341" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A341" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B341">
         <v>2017</v>
       </c>
       <c r="C341" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D341" t="s">
         <v>360</v>
       </c>
       <c r="E341">
-        <v>317812.82049999997</v>
+        <v>339078.47409999999</v>
       </c>
       <c r="G341">
-        <v>123</v>
+        <v>163</v>
       </c>
       <c r="H341">
-        <v>544675.52789999999</v>
+        <v>462179.35080000001</v>
       </c>
       <c r="J341">
-        <v>202</v>
+        <v>253</v>
       </c>
       <c r="K341">
-        <v>3.8702000000000002E-4</v>
+        <v>4.8071499999999999E-4</v>
       </c>
       <c r="M341">
-        <v>3.7086299999999998E-4</v>
+        <v>5.4740699999999997E-4</v>
       </c>
       <c r="T341">
-        <v>591156.15800000005</v>
+        <v>606982.81599999999</v>
       </c>
       <c r="V341">
-        <v>169</v>
+        <v>278</v>
       </c>
       <c r="W341">
-        <v>457218.22519999999</v>
+        <v>508225.71549999999</v>
       </c>
       <c r="Y341">
-        <v>191</v>
+        <v>302</v>
       </c>
       <c r="Z341">
-        <v>2.8588000000000002E-4</v>
+        <v>4.5800300000000001E-4</v>
       </c>
       <c r="AB341">
-        <v>4.17744E-4</v>
+        <v>5.9422399999999997E-4</v>
       </c>
       <c r="AI341" s="1"/>
       <c r="AJ341" s="1"/>
     </row>
     <row r="342" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A342" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B342">
         <v>2017</v>
       </c>
       <c r="C342" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D342" t="s">
         <v>361</v>
       </c>
       <c r="E342">
-        <v>339078.47409999999</v>
+        <v>247106.76949999999</v>
       </c>
       <c r="G342">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="H342">
-        <v>462179.35080000001</v>
+        <v>530134.75800000003</v>
       </c>
       <c r="J342">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="K342">
-        <v>4.8071499999999999E-4</v>
+        <v>6.2321200000000005E-4</v>
       </c>
       <c r="M342">
-        <v>5.4740699999999997E-4</v>
+        <v>4.6780600000000003E-4</v>
       </c>
       <c r="T342">
-        <v>606982.81599999999</v>
+        <v>532776.83550000004</v>
       </c>
       <c r="V342">
-        <v>278</v>
+        <v>211</v>
       </c>
       <c r="W342">
-        <v>508225.71549999999</v>
+        <v>496268.2904</v>
       </c>
       <c r="Y342">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="Z342">
-        <v>4.5800300000000001E-4</v>
+        <v>3.9603799999999998E-4</v>
       </c>
       <c r="AB342">
-        <v>5.9422399999999997E-4</v>
-      </c>
-      <c r="AI342" s="1"/>
+        <v>6.0048199999999995E-4</v>
+      </c>
       <c r="AJ342" s="1"/>
     </row>
     <row r="343" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A343" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B343">
         <v>2017</v>
       </c>
       <c r="C343" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D343" t="s">
         <v>362</v>
       </c>
       <c r="E343">
-        <v>247106.76949999999</v>
+        <v>280959.88880000002</v>
       </c>
       <c r="G343">
-        <v>154</v>
+        <v>168</v>
       </c>
       <c r="H343">
-        <v>530134.75800000003</v>
+        <v>541701.52220000001</v>
       </c>
       <c r="J343">
-        <v>248</v>
+        <v>232</v>
       </c>
       <c r="K343">
-        <v>6.2321200000000005E-4</v>
+        <v>5.9794999999999998E-4</v>
       </c>
       <c r="M343">
-        <v>4.6780600000000003E-4</v>
+        <v>4.2828000000000001E-4</v>
       </c>
       <c r="T343">
-        <v>532776.83550000004</v>
+        <v>638391.41299999994</v>
       </c>
       <c r="V343">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="W343">
-        <v>496268.2904</v>
+        <v>550185.71440000006</v>
       </c>
       <c r="Y343">
-        <v>298</v>
+        <v>264</v>
       </c>
       <c r="Z343">
-        <v>3.9603799999999998E-4</v>
+        <v>3.2895199999999998E-4</v>
       </c>
       <c r="AB343">
-        <v>6.0048199999999995E-4</v>
+        <v>4.7983800000000001E-4</v>
       </c>
       <c r="AJ343" s="1"/>
     </row>
     <row r="344" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A344" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B344">
         <v>2017</v>
       </c>
       <c r="C344" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D344" t="s">
         <v>363</v>
       </c>
       <c r="E344">
-        <v>280959.88880000002</v>
+        <v>231274.7721</v>
       </c>
       <c r="G344">
-        <v>168</v>
+        <v>150</v>
       </c>
       <c r="H344">
-        <v>541701.52220000001</v>
+        <v>438679.18849999999</v>
       </c>
       <c r="J344">
-        <v>232</v>
+        <v>179</v>
       </c>
       <c r="K344">
-        <v>5.9794999999999998E-4</v>
+        <v>6.4857900000000004E-4</v>
       </c>
       <c r="M344">
-        <v>4.2828000000000001E-4</v>
+        <v>4.0804300000000002E-4</v>
       </c>
       <c r="T344">
-        <v>638391.41299999994</v>
+        <v>600621.00670000003</v>
       </c>
       <c r="V344">
-        <v>210</v>
+        <v>300</v>
       </c>
       <c r="W344">
-        <v>550185.71440000006</v>
+        <v>379452.69260000001</v>
       </c>
       <c r="Y344">
-        <v>264</v>
+        <v>197</v>
       </c>
       <c r="Z344">
-        <v>3.2895199999999998E-4</v>
+        <v>4.99483E-4</v>
       </c>
       <c r="AB344">
-        <v>4.7983800000000001E-4</v>
+        <v>5.1916899999999999E-4</v>
       </c>
       <c r="AJ344" s="1"/>
     </row>
     <row r="345" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A345" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B345">
         <v>2017</v>
       </c>
       <c r="C345" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D345" t="s">
         <v>364</v>
       </c>
       <c r="E345">
-        <v>231274.7721</v>
+        <v>333570.9572</v>
       </c>
       <c r="G345">
-        <v>150</v>
+        <v>119</v>
       </c>
       <c r="H345">
-        <v>438679.18849999999</v>
+        <v>482758.01079999999</v>
       </c>
       <c r="J345">
-        <v>179</v>
+        <v>229</v>
       </c>
       <c r="K345">
-        <v>6.4857900000000004E-4</v>
+        <v>3.5674600000000002E-4</v>
       </c>
       <c r="M345">
-        <v>4.0804300000000002E-4</v>
+        <v>4.7435799999999997E-4</v>
       </c>
       <c r="T345">
-        <v>600621.00670000003</v>
+        <v>732699.96349999995</v>
       </c>
       <c r="V345">
-        <v>300</v>
+        <v>215</v>
       </c>
       <c r="W345">
-        <v>379452.69260000001</v>
+        <v>407154.90610000002</v>
       </c>
       <c r="Y345">
-        <v>197</v>
+        <v>217</v>
       </c>
       <c r="Z345">
-        <v>4.99483E-4</v>
+        <v>2.9343499999999998E-4</v>
       </c>
       <c r="AB345">
-        <v>5.1916899999999999E-4</v>
-      </c>
+        <v>5.3296699999999997E-4</v>
+      </c>
+      <c r="AI345" s="1"/>
       <c r="AJ345" s="1"/>
     </row>
     <row r="346" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A346" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B346">
         <v>2017</v>
       </c>
       <c r="C346" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D346" t="s">
         <v>365</v>
       </c>
       <c r="E346">
-        <v>333570.9572</v>
+        <v>304787.52990000002</v>
       </c>
       <c r="G346">
-        <v>119</v>
+        <v>179</v>
       </c>
       <c r="H346">
-        <v>482758.01079999999</v>
+        <v>546949.19180000003</v>
       </c>
       <c r="J346">
-        <v>229</v>
+        <v>273</v>
       </c>
       <c r="K346">
-        <v>3.5674600000000002E-4</v>
+        <v>5.8729400000000003E-4</v>
       </c>
       <c r="M346">
-        <v>4.7435799999999997E-4</v>
+        <v>4.99132E-4</v>
       </c>
       <c r="T346">
-        <v>732699.96349999995</v>
+        <v>630094.09730000002</v>
       </c>
       <c r="V346">
-        <v>215</v>
+        <v>319</v>
       </c>
       <c r="W346">
-        <v>407154.90610000002</v>
+        <v>456027.55499999999</v>
       </c>
       <c r="Y346">
-        <v>217</v>
+        <v>268</v>
       </c>
       <c r="Z346">
-        <v>2.9343499999999998E-4</v>
+        <v>5.0627400000000003E-4</v>
       </c>
       <c r="AB346">
-        <v>5.3296699999999997E-4</v>
+        <v>5.8768399999999999E-4</v>
       </c>
       <c r="AI346" s="1"/>
       <c r="AJ346" s="1"/>
     </row>
     <row r="347" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A347" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B347">
         <v>2017</v>
       </c>
       <c r="C347" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D347" t="s">
         <v>366</v>
       </c>
       <c r="E347">
-        <v>304787.52990000002</v>
+        <v>686228.23230000003</v>
       </c>
       <c r="G347">
-        <v>179</v>
+        <v>141</v>
       </c>
       <c r="H347">
-        <v>546949.19180000003</v>
+        <v>385621.39630000002</v>
       </c>
       <c r="J347">
-        <v>273</v>
+        <v>173</v>
       </c>
       <c r="K347">
-        <v>5.8729400000000003E-4</v>
+        <v>2.0547100000000001E-4</v>
       </c>
       <c r="M347">
-        <v>4.99132E-4</v>
+        <v>4.48627E-4</v>
       </c>
       <c r="T347">
-        <v>630094.09730000002</v>
+        <v>682866.23549999995</v>
       </c>
       <c r="V347">
-        <v>319</v>
+        <v>163</v>
       </c>
       <c r="W347">
-        <v>456027.55499999999</v>
+        <v>345440.28340000001</v>
       </c>
       <c r="Y347">
-        <v>268</v>
+        <v>134</v>
       </c>
       <c r="Z347">
-        <v>5.0627400000000003E-4</v>
+        <v>2.387E-4</v>
       </c>
       <c r="AB347">
-        <v>5.8768399999999999E-4</v>
+        <v>3.8791100000000001E-4</v>
       </c>
       <c r="AI347" s="1"/>
       <c r="AJ347" s="1"/>
     </row>
     <row r="348" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A348" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B348">
         <v>2017</v>
       </c>
       <c r="C348" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D348" t="s">
         <v>367</v>
       </c>
       <c r="E348">
-        <v>686228.23230000003</v>
+        <v>245757.69930000001</v>
       </c>
       <c r="G348">
-        <v>141</v>
+        <v>152</v>
       </c>
       <c r="H348">
-        <v>385621.39630000002</v>
+        <v>397558.35389999999</v>
       </c>
       <c r="J348">
-        <v>173</v>
+        <v>153</v>
       </c>
       <c r="K348">
-        <v>2.0547100000000001E-4</v>
+        <v>6.1849500000000005E-4</v>
       </c>
       <c r="M348">
-        <v>4.48627E-4</v>
+        <v>3.8484899999999999E-4</v>
       </c>
       <c r="T348">
-        <v>682866.23549999995</v>
+        <v>551438.67669999995</v>
       </c>
       <c r="V348">
-        <v>163</v>
+        <v>310</v>
       </c>
       <c r="W348">
-        <v>345440.28340000001</v>
+        <v>406770.47450000001</v>
       </c>
       <c r="Y348">
-        <v>134</v>
+        <v>102</v>
       </c>
       <c r="Z348">
-        <v>2.387E-4</v>
+        <v>5.6216600000000001E-4</v>
       </c>
       <c r="AB348">
-        <v>3.8791100000000001E-4</v>
+        <v>2.5075599999999998E-4</v>
       </c>
       <c r="AI348" s="1"/>
       <c r="AJ348" s="1"/>
     </row>
     <row r="349" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A349" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B349">
         <v>2017</v>
       </c>
       <c r="C349" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D349" t="s">
         <v>368</v>
       </c>
       <c r="E349">
-        <v>245757.69930000001</v>
+        <v>503897.3002</v>
       </c>
       <c r="G349">
-        <v>152</v>
+        <v>303</v>
       </c>
       <c r="H349">
-        <v>397558.35389999999</v>
+        <v>459521.25530000002</v>
       </c>
       <c r="J349">
-        <v>153</v>
+        <v>173</v>
       </c>
       <c r="K349">
-        <v>6.1849500000000005E-4</v>
+        <v>6.0131300000000002E-4</v>
       </c>
       <c r="M349">
-        <v>3.8484899999999999E-4</v>
+        <v>3.7647899999999998E-4</v>
       </c>
       <c r="T349">
-        <v>551438.67669999995</v>
+        <v>527938.51439999999</v>
       </c>
       <c r="V349">
-        <v>310</v>
+        <v>354</v>
       </c>
       <c r="W349">
-        <v>406770.47450000001</v>
+        <v>523942.02740000002</v>
       </c>
       <c r="Y349">
-        <v>102</v>
+        <v>250</v>
       </c>
       <c r="Z349">
-        <v>5.6216600000000001E-4</v>
+        <v>6.7053299999999996E-4</v>
       </c>
       <c r="AB349">
-        <v>2.5075599999999998E-4</v>
+        <v>4.77152E-4</v>
       </c>
       <c r="AI349" s="1"/>
       <c r="AJ349" s="1"/>
     </row>
     <row r="350" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A350" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B350">
         <v>2017</v>
       </c>
       <c r="C350" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D350" t="s">
         <v>369</v>
       </c>
       <c r="E350">
-        <v>503897.3002</v>
+        <v>369957.58769999997</v>
       </c>
       <c r="G350">
-        <v>303</v>
+        <v>196</v>
       </c>
       <c r="H350">
-        <v>459521.25530000002</v>
+        <v>483590.05609999999</v>
       </c>
       <c r="J350">
-        <v>173</v>
+        <v>211</v>
       </c>
       <c r="K350">
-        <v>6.0131300000000002E-4</v>
+        <v>5.2979000000000004E-4</v>
       </c>
       <c r="M350">
-        <v>3.7647899999999998E-4</v>
+        <v>4.3632000000000002E-4</v>
       </c>
       <c r="T350">
-        <v>527938.51439999999</v>
+        <v>782677.85329999996</v>
       </c>
       <c r="V350">
-        <v>354</v>
+        <v>365</v>
       </c>
       <c r="W350">
-        <v>523942.02740000002</v>
+        <v>425592.49560000002</v>
       </c>
       <c r="Y350">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="Z350">
-        <v>6.7053299999999996E-4</v>
+        <v>4.66348E-4</v>
       </c>
       <c r="AB350">
-        <v>4.77152E-4</v>
+        <v>5.8271699999999996E-4</v>
       </c>
       <c r="AI350" s="1"/>
-      <c r="AJ350" s="1"/>
     </row>
     <row r="351" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A351" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B351">
         <v>2017</v>
       </c>
       <c r="C351" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D351" t="s">
         <v>370</v>
       </c>
       <c r="E351">
-        <v>369957.58769999997</v>
+        <v>356455.31709999999</v>
       </c>
       <c r="G351">
-        <v>196</v>
+        <v>205</v>
       </c>
       <c r="H351">
-        <v>483590.05609999999</v>
+        <v>413863.77169999998</v>
       </c>
       <c r="J351">
-        <v>211</v>
+        <v>221</v>
       </c>
       <c r="K351">
-        <v>5.2979000000000004E-4</v>
+        <v>5.7510700000000005E-4</v>
       </c>
       <c r="M351">
-        <v>4.3632000000000002E-4</v>
+        <v>5.3399199999999995E-4</v>
       </c>
       <c r="T351">
-        <v>782677.85329999996</v>
+        <v>675020.9828</v>
       </c>
       <c r="V351">
-        <v>365</v>
+        <v>402</v>
       </c>
       <c r="W351">
-        <v>425592.49560000002</v>
+        <v>402948.40549999999</v>
       </c>
       <c r="Y351">
-        <v>248</v>
+        <v>273</v>
       </c>
       <c r="Z351">
-        <v>4.66348E-4</v>
+        <v>5.9553700000000004E-4</v>
       </c>
       <c r="AB351">
-        <v>5.8271699999999996E-4</v>
+        <v>6.7750600000000003E-4</v>
       </c>
       <c r="AI351" s="1"/>
     </row>
     <row r="352" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A352" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B352">
         <v>2017</v>
       </c>
       <c r="C352" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D352" t="s">
         <v>371</v>
       </c>
       <c r="E352">
-        <v>356455.31709999999</v>
+        <v>280262.21659999999</v>
       </c>
       <c r="G352">
-        <v>205</v>
+        <v>99</v>
       </c>
       <c r="H352">
-        <v>413863.77169999998</v>
+        <v>393297.57010000001</v>
       </c>
       <c r="J352">
-        <v>221</v>
+        <v>269</v>
       </c>
       <c r="K352">
-        <v>5.7510700000000005E-4</v>
+        <v>3.5324100000000002E-4</v>
       </c>
       <c r="M352">
-        <v>5.3399199999999995E-4</v>
+        <v>6.8395999999999995E-4</v>
       </c>
       <c r="T352">
-        <v>675020.9828</v>
+        <v>537832.2892</v>
       </c>
       <c r="V352">
-        <v>402</v>
+        <v>149</v>
       </c>
       <c r="W352">
-        <v>402948.40549999999</v>
+        <v>483477.04029999999</v>
       </c>
       <c r="Y352">
-        <v>273</v>
+        <v>254</v>
       </c>
       <c r="Z352">
-        <v>5.9553700000000004E-4</v>
+        <v>2.7703800000000001E-4</v>
       </c>
       <c r="AB352">
-        <v>6.7750600000000003E-4</v>
+        <v>5.2536100000000001E-4</v>
       </c>
       <c r="AI352" s="1"/>
     </row>
     <row r="353" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A353" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B353">
         <v>2017</v>
       </c>
       <c r="C353" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D353" t="s">
         <v>372</v>
       </c>
       <c r="E353">
-        <v>280262.21659999999</v>
+        <v>397011.96269999997</v>
       </c>
       <c r="G353">
-        <v>99</v>
+        <v>150</v>
       </c>
       <c r="H353">
-        <v>393297.57010000001</v>
+        <v>407142.44760000001</v>
       </c>
       <c r="J353">
-        <v>269</v>
+        <v>194</v>
       </c>
       <c r="K353">
-        <v>3.5324100000000002E-4</v>
+        <v>3.7782199999999999E-4</v>
       </c>
       <c r="M353">
-        <v>6.8395999999999995E-4</v>
+        <v>4.7649200000000002E-4</v>
       </c>
       <c r="T353">
-        <v>537832.2892</v>
+        <v>750617.85829999996</v>
       </c>
       <c r="V353">
-        <v>149</v>
+        <v>229</v>
       </c>
       <c r="W353">
-        <v>483477.04029999999</v>
+        <v>407386.277</v>
       </c>
       <c r="Y353">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="Z353">
-        <v>2.7703800000000001E-4</v>
+        <v>3.0508199999999998E-4</v>
       </c>
       <c r="AB353">
-        <v>5.2536100000000001E-4</v>
+        <v>6.0384999999999996E-4</v>
       </c>
       <c r="AI353" s="1"/>
+      <c r="AJ353" s="1"/>
     </row>
     <row r="354" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A354" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B354">
         <v>2017</v>
       </c>
       <c r="C354" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D354" t="s">
         <v>373</v>
       </c>
       <c r="E354">
-        <v>397011.96269999997</v>
+        <v>269175.10200000001</v>
       </c>
       <c r="G354">
-        <v>150</v>
+        <v>171</v>
       </c>
       <c r="H354">
-        <v>407142.44760000001</v>
+        <v>539127.07629999996</v>
       </c>
       <c r="J354">
-        <v>194</v>
+        <v>233</v>
       </c>
       <c r="K354">
-        <v>3.7782199999999999E-4</v>
+        <v>6.3527400000000002E-4</v>
       </c>
       <c r="M354">
-        <v>4.7649200000000002E-4</v>
+        <v>4.3218E-4</v>
       </c>
       <c r="T354">
-        <v>750617.85829999996</v>
+        <v>585775.89509999997</v>
       </c>
       <c r="V354">
-        <v>229</v>
+        <v>274</v>
       </c>
       <c r="W354">
-        <v>407386.277</v>
+        <v>458003.9963</v>
       </c>
       <c r="Y354">
-        <v>246</v>
+        <v>162</v>
       </c>
       <c r="Z354">
-        <v>3.0508199999999998E-4</v>
+        <v>4.67756E-4</v>
       </c>
       <c r="AB354">
-        <v>6.0384999999999996E-4</v>
-      </c>
-      <c r="AI354" s="1"/>
+        <v>3.5370900000000001E-4</v>
+      </c>
       <c r="AJ354" s="1"/>
     </row>
     <row r="355" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A355" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B355">
         <v>2017</v>
       </c>
       <c r="C355" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D355" t="s">
         <v>374</v>
       </c>
       <c r="E355">
-        <v>269175.10200000001</v>
+        <v>247632.69330000001</v>
       </c>
       <c r="G355">
-        <v>171</v>
+        <v>185</v>
       </c>
       <c r="H355">
-        <v>539127.07629999996</v>
+        <v>443543.31630000001</v>
       </c>
       <c r="J355">
-        <v>233</v>
+        <v>222</v>
       </c>
       <c r="K355">
-        <v>6.3527400000000002E-4</v>
+        <v>7.4707400000000002E-4</v>
       </c>
       <c r="M355">
-        <v>4.3218E-4</v>
+        <v>5.0051499999999999E-4</v>
       </c>
       <c r="T355">
-        <v>585775.89509999997</v>
+        <v>583515.57960000006</v>
       </c>
       <c r="V355">
-        <v>274</v>
+        <v>228</v>
       </c>
       <c r="W355">
-        <v>458003.9963</v>
+        <v>409461.49579999998</v>
       </c>
       <c r="Y355">
-        <v>162</v>
+        <v>209</v>
       </c>
       <c r="Z355">
-        <v>4.67756E-4</v>
+        <v>3.9073500000000002E-4</v>
       </c>
       <c r="AB355">
-        <v>3.5370900000000001E-4</v>
+        <v>5.1042700000000004E-4</v>
       </c>
       <c r="AJ355" s="1"/>
     </row>
     <row r="356" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A356" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B356">
         <v>2017</v>
       </c>
       <c r="C356" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D356" t="s">
         <v>375</v>
       </c>
       <c r="E356">
-        <v>247632.69330000001</v>
+        <v>299313.82880000002</v>
       </c>
       <c r="G356">
-        <v>185</v>
+        <v>241</v>
       </c>
       <c r="H356">
-        <v>443543.31630000001</v>
+        <v>488724.70980000001</v>
       </c>
       <c r="J356">
-        <v>222</v>
+        <v>230</v>
       </c>
       <c r="K356">
-        <v>7.4707400000000002E-4</v>
+        <v>8.0517499999999999E-4</v>
       </c>
       <c r="M356">
-        <v>5.0051499999999999E-4</v>
+        <v>4.7061299999999999E-4</v>
       </c>
       <c r="T356">
-        <v>583515.57960000006</v>
+        <v>608631.77850000001</v>
       </c>
       <c r="V356">
-        <v>228</v>
+        <v>369</v>
       </c>
       <c r="W356">
-        <v>409461.49579999998</v>
+        <v>461539.52130000002</v>
       </c>
       <c r="Y356">
-        <v>209</v>
+        <v>252</v>
       </c>
       <c r="Z356">
-        <v>3.9073500000000002E-4</v>
+        <v>6.0627800000000003E-4</v>
       </c>
       <c r="AB356">
-        <v>5.1042700000000004E-4</v>
+        <v>5.4599900000000003E-4</v>
       </c>
       <c r="AJ356" s="1"/>
     </row>
     <row r="357" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A357" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B357">
         <v>2017</v>
       </c>
       <c r="C357" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D357" t="s">
         <v>376</v>
       </c>
       <c r="E357">
-        <v>299313.82880000002</v>
+        <v>283706.08319999999</v>
       </c>
       <c r="G357">
-        <v>241</v>
+        <v>198</v>
       </c>
       <c r="H357">
-        <v>488724.70980000001</v>
+        <v>368111.96</v>
       </c>
       <c r="J357">
-        <v>230</v>
+        <v>237</v>
       </c>
       <c r="K357">
-        <v>8.0517499999999999E-4</v>
+        <v>6.9790499999999997E-4</v>
       </c>
       <c r="M357">
-        <v>4.7061299999999999E-4</v>
+        <v>6.4382600000000001E-4</v>
       </c>
       <c r="T357">
-        <v>608631.77850000001</v>
+        <v>530689.15819999995</v>
       </c>
       <c r="V357">
-        <v>369</v>
+        <v>245</v>
       </c>
       <c r="W357">
-        <v>461539.52130000002</v>
+        <v>368644.11300000001</v>
       </c>
       <c r="Y357">
-        <v>252</v>
+        <v>197</v>
       </c>
       <c r="Z357">
-        <v>6.0627800000000003E-4</v>
+        <v>4.6166399999999998E-4</v>
       </c>
       <c r="AB357">
-        <v>5.4599900000000003E-4</v>
+        <v>5.3439099999999995E-4</v>
       </c>
       <c r="AJ357" s="1"/>
     </row>
     <row r="358" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A358" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B358">
         <v>2017</v>
       </c>
       <c r="C358" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D358" t="s">
         <v>377</v>
       </c>
       <c r="E358">
-        <v>283706.08319999999</v>
+        <v>295301.32380000001</v>
       </c>
       <c r="G358">
-        <v>198</v>
+        <v>134</v>
       </c>
       <c r="H358">
-        <v>368111.96</v>
+        <v>442103.47749999998</v>
       </c>
       <c r="J358">
-        <v>237</v>
+        <v>219</v>
       </c>
       <c r="K358">
-        <v>6.9790499999999997E-4</v>
+        <v>4.53774E-4</v>
       </c>
       <c r="M358">
-        <v>6.4382600000000001E-4</v>
+        <v>4.9535900000000001E-4</v>
       </c>
       <c r="T358">
-        <v>530689.15819999995</v>
+        <v>585836.40749999997</v>
       </c>
       <c r="V358">
-        <v>245</v>
+        <v>253</v>
       </c>
       <c r="W358">
-        <v>368644.11300000001</v>
+        <v>413925.174</v>
       </c>
       <c r="Y358">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="Z358">
-        <v>4.6166399999999998E-4</v>
+        <v>4.3186100000000002E-4</v>
       </c>
       <c r="AB358">
-        <v>5.3439099999999995E-4</v>
-      </c>
+        <v>4.9042699999999999E-4</v>
+      </c>
+      <c r="AI358" s="1"/>
       <c r="AJ358" s="1"/>
     </row>
     <row r="359" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A359" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B359">
         <v>2017</v>
       </c>
       <c r="C359" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D359" t="s">
         <v>378</v>
       </c>
       <c r="E359">
-        <v>295301.32380000001</v>
+        <v>234152.66990000001</v>
       </c>
       <c r="G359">
-        <v>134</v>
+        <v>146</v>
       </c>
       <c r="H359">
-        <v>442103.47749999998</v>
+        <v>467765.1778</v>
       </c>
       <c r="J359">
-        <v>219</v>
+        <v>192</v>
       </c>
       <c r="K359">
-        <v>4.53774E-4</v>
+        <v>6.2352499999999999E-4</v>
       </c>
       <c r="M359">
-        <v>4.9535900000000001E-4</v>
+        <v>4.10462E-4</v>
       </c>
       <c r="T359">
-        <v>585836.40749999997</v>
+        <v>478866.5306</v>
       </c>
       <c r="V359">
-        <v>253</v>
+        <v>244</v>
       </c>
       <c r="W359">
-        <v>413925.174</v>
+        <v>386277.24369999999</v>
       </c>
       <c r="Y359">
-        <v>203</v>
+        <v>218</v>
       </c>
       <c r="Z359">
-        <v>4.3186100000000002E-4</v>
+        <v>5.0953700000000001E-4</v>
       </c>
       <c r="AB359">
-        <v>4.9042699999999999E-4</v>
+        <v>5.6436099999999999E-4</v>
       </c>
       <c r="AI359" s="1"/>
-      <c r="AJ359" s="1"/>
     </row>
     <row r="360" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A360" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B360">
         <v>2017</v>
       </c>
       <c r="C360" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D360" t="s">
         <v>379</v>
       </c>
       <c r="E360">
-        <v>234152.66990000001</v>
+        <v>277552.50760000001</v>
       </c>
       <c r="G360">
-        <v>146</v>
+        <v>157</v>
       </c>
       <c r="H360">
-        <v>467765.1778</v>
+        <v>409066.38549999997</v>
       </c>
       <c r="J360">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="K360">
-        <v>6.2352499999999999E-4</v>
+        <v>5.6565900000000004E-4</v>
       </c>
       <c r="M360">
-        <v>4.10462E-4</v>
+        <v>4.8402900000000002E-4</v>
       </c>
       <c r="T360">
-        <v>478866.5306</v>
+        <v>556725.5013</v>
       </c>
       <c r="V360">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="W360">
-        <v>386277.24369999999</v>
+        <v>352704.43910000002</v>
       </c>
       <c r="Y360">
         <v>218</v>
       </c>
       <c r="Z360">
-        <v>5.0953700000000001E-4</v>
+        <v>4.4007300000000003E-4</v>
       </c>
       <c r="AB360">
-        <v>5.6436099999999999E-4</v>
+        <v>6.1808100000000003E-4</v>
       </c>
       <c r="AI360" s="1"/>
+      <c r="AJ360" s="1"/>
     </row>
     <row r="361" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A361" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B361">
         <v>2017</v>
       </c>
       <c r="C361" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D361" t="s">
         <v>380</v>
       </c>
       <c r="E361">
-        <v>277552.50760000001</v>
+        <v>367388.48100000003</v>
       </c>
       <c r="G361">
-        <v>157</v>
+        <v>239</v>
       </c>
       <c r="H361">
-        <v>409066.38549999997</v>
+        <v>477065.39720000001</v>
       </c>
       <c r="J361">
-        <v>198</v>
+        <v>258</v>
       </c>
       <c r="K361">
-        <v>5.6565900000000004E-4</v>
+        <v>6.5053799999999998E-4</v>
       </c>
       <c r="M361">
-        <v>4.8402900000000002E-4</v>
+        <v>5.4080600000000001E-4</v>
       </c>
       <c r="T361">
-        <v>556725.5013</v>
+        <v>584648.40700000001</v>
       </c>
       <c r="V361">
-        <v>245</v>
+        <v>313</v>
       </c>
       <c r="W361">
-        <v>352704.43910000002</v>
+        <v>461362.43359999999</v>
       </c>
       <c r="Y361">
-        <v>218</v>
+        <v>260</v>
       </c>
       <c r="Z361">
-        <v>4.4007300000000003E-4</v>
+        <v>5.3536399999999998E-4</v>
       </c>
       <c r="AB361">
-        <v>6.1808100000000003E-4</v>
+        <v>5.6354799999999998E-4</v>
       </c>
       <c r="AI361" s="1"/>
       <c r="AJ361" s="1"/>
     </row>
     <row r="362" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A362" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B362">
         <v>2017</v>
       </c>
       <c r="C362" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D362" t="s">
         <v>381</v>
       </c>
       <c r="E362">
-        <v>367388.48100000003</v>
+        <v>587467.57220000005</v>
       </c>
       <c r="G362">
-        <v>239</v>
+        <v>278</v>
       </c>
       <c r="H362">
-        <v>477065.39720000001</v>
+        <v>477884.9841</v>
       </c>
       <c r="J362">
-        <v>258</v>
+        <v>186</v>
       </c>
       <c r="K362">
-        <v>6.5053799999999998E-4</v>
+        <v>4.7321800000000002E-4</v>
       </c>
       <c r="M362">
-        <v>5.4080600000000001E-4</v>
+        <v>3.8921499999999999E-4</v>
       </c>
       <c r="T362">
-        <v>584648.40700000001</v>
+        <v>624406.82310000004</v>
       </c>
       <c r="V362">
-        <v>313</v>
+        <v>232</v>
       </c>
       <c r="W362">
-        <v>461362.43359999999</v>
+        <v>460589.12089999998</v>
       </c>
       <c r="Y362">
-        <v>260</v>
+        <v>177</v>
       </c>
       <c r="Z362">
-        <v>5.3536399999999998E-4</v>
+        <v>3.71553E-4</v>
       </c>
       <c r="AB362">
-        <v>5.6354799999999998E-4</v>
+        <v>3.8429000000000002E-4</v>
       </c>
       <c r="AI362" s="1"/>
       <c r="AJ362" s="1"/>
     </row>
     <row r="363" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A363" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B363">
         <v>2017</v>
       </c>
       <c r="C363" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D363" t="s">
         <v>382</v>
       </c>
       <c r="E363">
-        <v>587467.57220000005</v>
+        <v>624435.29949999996</v>
       </c>
       <c r="G363">
-        <v>278</v>
+        <v>346</v>
       </c>
       <c r="H363">
-        <v>477884.9841</v>
+        <v>447158.04129999998</v>
       </c>
       <c r="J363">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="K363">
-        <v>4.7321800000000002E-4</v>
+        <v>5.5410099999999999E-4</v>
       </c>
       <c r="M363">
-        <v>3.8921499999999999E-4</v>
+        <v>4.1372400000000003E-4</v>
       </c>
       <c r="T363">
-        <v>624406.82310000004</v>
+        <v>589231.33019999997</v>
       </c>
       <c r="V363">
-        <v>232</v>
+        <v>312</v>
       </c>
       <c r="W363">
-        <v>460589.12089999998</v>
+        <v>425597.83490000002</v>
       </c>
       <c r="Y363">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="Z363">
-        <v>3.71553E-4</v>
+        <v>5.2950299999999996E-4</v>
       </c>
       <c r="AB363">
-        <v>3.8429000000000002E-4</v>
+        <v>3.9708799999999998E-4</v>
       </c>
       <c r="AI363" s="1"/>
       <c r="AJ363" s="1"/>
     </row>
     <row r="364" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A364" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B364">
         <v>2017</v>
       </c>
       <c r="C364" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D364" t="s">
         <v>383</v>
       </c>
       <c r="E364">
-        <v>624435.29949999996</v>
+        <v>590571.50150000001</v>
       </c>
       <c r="G364">
-        <v>346</v>
+        <v>249</v>
       </c>
       <c r="H364">
-        <v>447158.04129999998</v>
+        <v>474517.64789999998</v>
       </c>
       <c r="J364">
-        <v>185</v>
+        <v>247</v>
       </c>
       <c r="K364">
-        <v>5.5410099999999999E-4</v>
+        <v>4.2162500000000002E-4</v>
       </c>
       <c r="M364">
-        <v>4.1372400000000003E-4</v>
+        <v>5.2052900000000004E-4</v>
       </c>
       <c r="T364">
-        <v>589231.33019999997</v>
+        <v>624623.06590000005</v>
       </c>
       <c r="V364">
-        <v>312</v>
+        <v>322</v>
       </c>
       <c r="W364">
-        <v>425597.83490000002</v>
+        <v>447421.44819999998</v>
       </c>
       <c r="Y364">
-        <v>169</v>
+        <v>233</v>
       </c>
       <c r="Z364">
-        <v>5.2950299999999996E-4</v>
+        <v>5.1551099999999996E-4</v>
       </c>
       <c r="AB364">
-        <v>3.9708799999999998E-4</v>
+        <v>5.2076200000000003E-4</v>
       </c>
       <c r="AI364" s="1"/>
       <c r="AJ364" s="1"/>
     </row>
     <row r="365" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A365" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B365">
         <v>2017</v>
       </c>
       <c r="C365" t="s">
-        <v>349</v>
+        <v>384</v>
       </c>
       <c r="D365" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="E365">
-        <v>590571.50150000001</v>
+        <v>392666.63959999999</v>
       </c>
       <c r="G365">
-        <v>249</v>
+        <v>218</v>
       </c>
       <c r="H365">
-        <v>474517.64789999998</v>
+        <v>478287.21350000001</v>
       </c>
       <c r="J365">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="K365">
-        <v>4.2162500000000002E-4</v>
+        <v>5.5517800000000003E-4</v>
       </c>
       <c r="M365">
-        <v>5.2052900000000004E-4</v>
+        <v>5.0388099999999997E-4</v>
       </c>
       <c r="T365">
-        <v>624623.06590000005</v>
+        <v>659709.5699</v>
       </c>
       <c r="V365">
-        <v>322</v>
+        <v>335</v>
       </c>
       <c r="W365">
-        <v>447421.44819999998</v>
+        <v>436412.64370000002</v>
       </c>
       <c r="Y365">
-        <v>233</v>
+        <v>189</v>
       </c>
       <c r="Z365">
-        <v>5.1551099999999996E-4</v>
+        <v>5.0779899999999997E-4</v>
       </c>
       <c r="AB365">
-        <v>5.2076200000000003E-4</v>
+        <v>4.3307600000000001E-4</v>
       </c>
       <c r="AI365" s="1"/>
       <c r="AJ365" s="1"/>
     </row>
     <row r="366" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A366" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B366">
         <v>2017</v>
       </c>
       <c r="C366" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="D366" t="s">
         <v>386</v>
       </c>
       <c r="E366">
-        <v>392666.63959999999</v>
+        <v>297375.65269999998</v>
       </c>
       <c r="G366">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="H366">
-        <v>478287.21350000001</v>
+        <v>457988.86820000003</v>
       </c>
       <c r="J366">
-        <v>241</v>
+        <v>331</v>
       </c>
       <c r="K366">
-        <v>5.5517800000000003E-4</v>
+        <v>7.43168E-4</v>
       </c>
       <c r="M366">
-        <v>5.0388099999999997E-4</v>
+        <v>7.2272500000000002E-4</v>
       </c>
       <c r="T366">
-        <v>659709.5699</v>
+        <v>580137.56469999999</v>
       </c>
       <c r="V366">
-        <v>335</v>
+        <v>416</v>
       </c>
       <c r="W366">
-        <v>436412.64370000002</v>
+        <v>337409.0442</v>
       </c>
       <c r="Y366">
-        <v>189</v>
+        <v>204</v>
       </c>
       <c r="Z366">
-        <v>5.0779899999999997E-4</v>
+        <v>7.1707100000000001E-4</v>
       </c>
       <c r="AB366">
-        <v>4.3307600000000001E-4</v>
+        <v>6.0460699999999995E-4</v>
       </c>
       <c r="AI366" s="1"/>
       <c r="AJ366" s="1"/>
     </row>
     <row r="367" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A367" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B367">
         <v>2017</v>
       </c>
       <c r="C367" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="D367" t="s">
         <v>387</v>
       </c>
       <c r="E367">
-        <v>297375.65269999998</v>
+        <v>479727.05229999998</v>
       </c>
       <c r="G367">
-        <v>221</v>
+        <v>276</v>
       </c>
       <c r="H367">
-        <v>457988.86820000003</v>
+        <v>415128.3026</v>
       </c>
       <c r="J367">
-        <v>331</v>
+        <v>218</v>
       </c>
       <c r="K367">
-        <v>7.43168E-4</v>
+        <v>5.7532700000000004E-4</v>
       </c>
       <c r="M367">
-        <v>7.2272500000000002E-4</v>
+        <v>5.2513899999999999E-4</v>
       </c>
       <c r="T367">
-        <v>580137.56469999999</v>
+        <v>475640.68660000002</v>
       </c>
       <c r="V367">
-        <v>416</v>
+        <v>262</v>
       </c>
       <c r="W367">
-        <v>337409.0442</v>
+        <v>370386.51370000001</v>
       </c>
       <c r="Y367">
-        <v>204</v>
+        <v>160</v>
       </c>
       <c r="Z367">
-        <v>7.1707100000000001E-4</v>
+        <v>5.5083599999999997E-4</v>
       </c>
       <c r="AB367">
-        <v>6.0460699999999995E-4</v>
+        <v>4.3198100000000001E-4</v>
       </c>
       <c r="AI367" s="1"/>
       <c r="AJ367" s="1"/>
     </row>
     <row r="368" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A368" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B368">
         <v>2017</v>
       </c>
       <c r="C368" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="D368" t="s">
         <v>388</v>
       </c>
       <c r="E368">
-        <v>479727.05229999998</v>
+        <v>336227.27289999998</v>
       </c>
       <c r="G368">
-        <v>276</v>
+        <v>145</v>
       </c>
       <c r="H368">
-        <v>415128.3026</v>
+        <v>360390.40179999999</v>
       </c>
       <c r="J368">
-        <v>218</v>
+        <v>137</v>
       </c>
       <c r="K368">
-        <v>5.7532700000000004E-4</v>
+        <v>4.3125599999999998E-4</v>
       </c>
       <c r="M368">
-        <v>5.2513899999999999E-4</v>
+        <v>3.80143E-4</v>
       </c>
       <c r="T368">
-        <v>475640.68660000002</v>
+        <v>637264.81480000005</v>
       </c>
       <c r="V368">
-        <v>262</v>
+        <v>278</v>
       </c>
       <c r="W368">
-        <v>370386.51370000001</v>
+        <v>391406.55810000002</v>
       </c>
       <c r="Y368">
-        <v>160</v>
+        <v>143</v>
       </c>
       <c r="Z368">
-        <v>5.5083599999999997E-4</v>
+        <v>4.36239E-4</v>
       </c>
       <c r="AB368">
-        <v>4.3198100000000001E-4</v>
+        <v>3.65349E-4</v>
       </c>
       <c r="AI368" s="1"/>
       <c r="AJ368" s="1"/>
     </row>
     <row r="369" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A369" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B369">
         <v>2017</v>
       </c>
       <c r="C369" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="D369" t="s">
         <v>389</v>
       </c>
       <c r="E369">
-        <v>336227.27289999998</v>
+        <v>301319.63640000002</v>
       </c>
       <c r="G369">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="H369">
-        <v>360390.40179999999</v>
+        <v>390650.15330000001</v>
       </c>
       <c r="J369">
-        <v>137</v>
+        <v>214</v>
       </c>
       <c r="K369">
-        <v>4.3125599999999998E-4</v>
+        <v>4.5466700000000002E-4</v>
       </c>
       <c r="M369">
-        <v>3.80143E-4</v>
+        <v>5.4780499999999995E-4</v>
       </c>
       <c r="T369">
-        <v>637264.81480000005</v>
+        <v>573106.55960000004</v>
       </c>
       <c r="V369">
-        <v>278</v>
+        <v>234</v>
       </c>
       <c r="W369">
-        <v>391406.55810000002</v>
+        <v>363526.36709999997</v>
       </c>
       <c r="Y369">
-        <v>143</v>
+        <v>174</v>
       </c>
       <c r="Z369">
-        <v>4.36239E-4</v>
+        <v>4.0830100000000002E-4</v>
       </c>
       <c r="AB369">
-        <v>3.65349E-4</v>
+        <v>4.7864499999999998E-4</v>
       </c>
       <c r="AI369" s="1"/>
       <c r="AJ369" s="1"/>
     </row>
     <row r="370" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A370" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B370">
         <v>2017</v>
       </c>
       <c r="C370" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="D370" t="s">
         <v>390</v>
       </c>
       <c r="E370">
-        <v>301319.63640000002</v>
+        <v>626936.77469999995</v>
       </c>
       <c r="G370">
-        <v>137</v>
+        <v>333</v>
       </c>
       <c r="H370">
-        <v>390650.15330000001</v>
+        <v>445852.57559999998</v>
       </c>
       <c r="J370">
-        <v>214</v>
+        <v>257</v>
       </c>
       <c r="K370">
-        <v>4.5466700000000002E-4</v>
+        <v>5.3115400000000004E-4</v>
       </c>
       <c r="M370">
-        <v>5.4780499999999995E-4</v>
+        <v>5.7642399999999997E-4</v>
       </c>
       <c r="T370">
-        <v>573106.55960000004</v>
+        <v>607986.60970000003</v>
       </c>
       <c r="V370">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="W370">
-        <v>363526.36709999997</v>
+        <v>383151.9571</v>
       </c>
       <c r="Y370">
-        <v>174</v>
+        <v>149</v>
       </c>
       <c r="Z370">
-        <v>4.0830100000000002E-4</v>
+        <v>3.9145599999999999E-4</v>
       </c>
       <c r="AB370">
-        <v>4.7864499999999998E-4</v>
+        <v>3.8887999999999998E-4</v>
       </c>
       <c r="AI370" s="1"/>
-      <c r="AJ370" s="1"/>
     </row>
     <row r="371" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A371" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B371">
         <v>2017</v>
       </c>
       <c r="C371" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="D371" t="s">
         <v>391</v>
       </c>
       <c r="E371">
-        <v>626936.77469999995</v>
+        <v>275482.62819999998</v>
       </c>
       <c r="G371">
-        <v>333</v>
+        <v>157</v>
       </c>
       <c r="H371">
-        <v>445852.57559999998</v>
+        <v>346604.25689999998</v>
       </c>
       <c r="J371">
-        <v>257</v>
+        <v>187</v>
       </c>
       <c r="K371">
-        <v>5.3115400000000004E-4</v>
+        <v>5.6990899999999995E-4</v>
       </c>
       <c r="M371">
-        <v>5.7642399999999997E-4</v>
+        <v>5.3952000000000004E-4</v>
       </c>
       <c r="T371">
-        <v>607986.60970000003</v>
+        <v>607362.79819999996</v>
       </c>
       <c r="V371">
-        <v>238</v>
+        <v>346</v>
       </c>
       <c r="W371">
-        <v>383151.9571</v>
+        <v>448287.30920000002</v>
       </c>
       <c r="Y371">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="Z371">
-        <v>3.9145599999999999E-4</v>
+        <v>5.6967599999999997E-4</v>
       </c>
       <c r="AB371">
-        <v>3.8887999999999998E-4</v>
+        <v>3.123E-4</v>
       </c>
       <c r="AI371" s="1"/>
     </row>
     <row r="372" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A372" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B372">
         <v>2017</v>
       </c>
       <c r="C372" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="D372" t="s">
         <v>392</v>
       </c>
       <c r="E372">
-        <v>275482.62819999998</v>
+        <v>293335.5612</v>
       </c>
       <c r="G372">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="H372">
-        <v>346604.25689999998</v>
+        <v>397438.21899999998</v>
       </c>
       <c r="J372">
-        <v>187</v>
+        <v>203</v>
       </c>
       <c r="K372">
-        <v>5.6990899999999995E-4</v>
+        <v>5.18178E-4</v>
       </c>
       <c r="M372">
-        <v>5.3952000000000004E-4</v>
+        <v>5.1077100000000003E-4</v>
       </c>
       <c r="T372">
-        <v>607362.79819999996</v>
+        <v>491737.87060000002</v>
       </c>
       <c r="V372">
-        <v>346</v>
+        <v>266</v>
       </c>
       <c r="W372">
-        <v>448287.30920000002</v>
+        <v>417272.9326</v>
       </c>
       <c r="Y372">
-        <v>140</v>
+        <v>222</v>
       </c>
       <c r="Z372">
-        <v>5.6967599999999997E-4</v>
+        <v>5.4093900000000005E-4</v>
       </c>
       <c r="AB372">
-        <v>3.123E-4</v>
+        <v>5.32026E-4</v>
       </c>
       <c r="AI372" s="1"/>
+      <c r="AJ372" s="1"/>
     </row>
     <row r="373" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A373" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B373">
         <v>2017</v>
       </c>
       <c r="C373" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="D373" t="s">
         <v>393</v>
       </c>
       <c r="E373">
-        <v>293335.5612</v>
+        <v>232315.05119999999</v>
       </c>
       <c r="G373">
-        <v>152</v>
+        <v>51</v>
       </c>
       <c r="H373">
-        <v>397438.21899999998</v>
+        <v>381743.26439999999</v>
       </c>
       <c r="J373">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="K373">
-        <v>5.18178E-4</v>
+        <v>2.1952899999999999E-4</v>
       </c>
       <c r="M373">
-        <v>5.1077100000000003E-4</v>
+        <v>5.50108E-4</v>
       </c>
       <c r="T373">
-        <v>491737.87060000002</v>
+        <v>500755.99560000002</v>
       </c>
       <c r="V373">
-        <v>266</v>
+        <v>104</v>
       </c>
       <c r="W373">
-        <v>417272.9326</v>
+        <v>437995.75449999998</v>
       </c>
       <c r="Y373">
-        <v>222</v>
+        <v>170</v>
       </c>
       <c r="Z373">
-        <v>5.4093900000000005E-4</v>
+        <v>2.07686E-4</v>
       </c>
       <c r="AB373">
-        <v>5.32026E-4</v>
+        <v>3.8813200000000002E-4</v>
       </c>
       <c r="AI373" s="1"/>
-      <c r="AJ373" s="1"/>
     </row>
     <row r="374" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A374" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B374">
         <v>2017</v>
       </c>
       <c r="C374" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="D374" t="s">
         <v>394</v>
       </c>
       <c r="E374">
-        <v>232315.05119999999</v>
+        <v>242295.14509999999</v>
       </c>
       <c r="G374">
-        <v>51</v>
+        <v>144</v>
       </c>
       <c r="H374">
-        <v>381743.26439999999</v>
+        <v>354649.73430000001</v>
       </c>
       <c r="J374">
-        <v>210</v>
+        <v>176</v>
       </c>
       <c r="K374">
-        <v>2.1952899999999999E-4</v>
+        <v>5.9431600000000001E-4</v>
       </c>
       <c r="M374">
-        <v>5.50108E-4</v>
+        <v>4.9626399999999995E-4</v>
       </c>
       <c r="T374">
-        <v>500755.99560000002</v>
+        <v>536739.50679999997</v>
       </c>
       <c r="V374">
-        <v>104</v>
+        <v>280</v>
       </c>
       <c r="W374">
-        <v>437995.75449999998</v>
+        <v>446334.00510000001</v>
       </c>
       <c r="Y374">
         <v>170</v>
       </c>
       <c r="Z374">
-        <v>2.07686E-4</v>
+        <v>5.2166799999999998E-4</v>
       </c>
       <c r="AB374">
-        <v>3.8813200000000002E-4</v>
+        <v>3.8088100000000001E-4</v>
       </c>
       <c r="AI374" s="1"/>
+      <c r="AJ374" s="1"/>
     </row>
     <row r="375" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A375" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B375">
         <v>2017</v>
       </c>
       <c r="C375" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="D375" t="s">
         <v>395</v>
       </c>
       <c r="E375">
-        <v>242295.14509999999</v>
+        <v>256961.38920000001</v>
       </c>
       <c r="G375">
-        <v>144</v>
+        <v>212</v>
       </c>
       <c r="H375">
-        <v>354649.73430000001</v>
+        <v>421531.04670000001</v>
       </c>
       <c r="J375">
-        <v>176</v>
+        <v>214</v>
       </c>
       <c r="K375">
-        <v>5.9431600000000001E-4</v>
+        <v>8.2502699999999999E-4</v>
       </c>
       <c r="M375">
-        <v>4.9626399999999995E-4</v>
+        <v>5.0767300000000004E-4</v>
       </c>
       <c r="T375">
-        <v>536739.50679999997</v>
+        <v>589782.17090000003</v>
       </c>
       <c r="V375">
-        <v>280</v>
+        <v>393</v>
       </c>
       <c r="W375">
-        <v>446334.00510000001</v>
+        <v>428242.58199999999</v>
       </c>
       <c r="Y375">
-        <v>170</v>
+        <v>198</v>
       </c>
       <c r="Z375">
-        <v>5.2166799999999998E-4</v>
+        <v>6.6634799999999998E-4</v>
       </c>
       <c r="AB375">
-        <v>3.8088100000000001E-4</v>
-      </c>
-      <c r="AI375" s="1"/>
+        <v>4.6235500000000001E-4</v>
+      </c>
       <c r="AJ375" s="1"/>
     </row>
     <row r="376" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A376" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B376">
         <v>2017</v>
       </c>
       <c r="C376" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="D376" t="s">
         <v>396</v>
       </c>
       <c r="E376">
-        <v>256961.38920000001</v>
+        <v>383377.98859999998</v>
       </c>
       <c r="G376">
-        <v>212</v>
+        <v>192</v>
       </c>
       <c r="H376">
-        <v>421531.04670000001</v>
+        <v>436703.63709999999</v>
       </c>
       <c r="J376">
-        <v>214</v>
+        <v>238</v>
       </c>
       <c r="K376">
-        <v>8.2502699999999999E-4</v>
+        <v>5.0081099999999999E-4</v>
       </c>
       <c r="M376">
-        <v>5.0767300000000004E-4</v>
+        <v>5.44992E-4</v>
       </c>
       <c r="T376">
-        <v>589782.17090000003</v>
+        <v>430281.31540000002</v>
       </c>
       <c r="V376">
-        <v>393</v>
+        <v>222</v>
       </c>
       <c r="W376">
-        <v>428242.58199999999</v>
+        <v>458878.7562</v>
       </c>
       <c r="Y376">
-        <v>198</v>
+        <v>223</v>
       </c>
       <c r="Z376">
-        <v>6.6634799999999998E-4</v>
+        <v>5.1594200000000003E-4</v>
       </c>
       <c r="AB376">
-        <v>4.6235500000000001E-4</v>
-      </c>
+        <v>4.8596700000000002E-4</v>
+      </c>
+      <c r="AI376" s="1"/>
       <c r="AJ376" s="1"/>
     </row>
     <row r="377" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A377" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B377">
         <v>2017</v>
       </c>
       <c r="C377" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="D377" t="s">
         <v>397</v>
       </c>
       <c r="E377">
-        <v>383377.98859999998</v>
+        <v>428837.02720000001</v>
       </c>
       <c r="G377">
-        <v>192</v>
+        <v>225</v>
       </c>
       <c r="H377">
-        <v>436703.63709999999</v>
+        <v>427568.04690000002</v>
       </c>
       <c r="J377">
-        <v>238</v>
+        <v>210</v>
       </c>
       <c r="K377">
-        <v>5.0081099999999999E-4</v>
+        <v>5.2467499999999995E-4</v>
       </c>
       <c r="M377">
-        <v>5.44992E-4</v>
+        <v>4.9114999999999999E-4</v>
       </c>
       <c r="T377">
-        <v>430281.31540000002</v>
+        <v>559299.05740000005</v>
       </c>
       <c r="V377">
-        <v>222</v>
+        <v>251</v>
       </c>
       <c r="W377">
-        <v>458878.7562</v>
+        <v>448350.49129999999</v>
       </c>
       <c r="Y377">
-        <v>223</v>
+        <v>171</v>
       </c>
       <c r="Z377">
-        <v>5.1594200000000003E-4</v>
+        <v>4.4877600000000001E-4</v>
       </c>
       <c r="AB377">
-        <v>4.8596700000000002E-4</v>
+        <v>3.8139800000000002E-4</v>
       </c>
       <c r="AI377" s="1"/>
       <c r="AJ377" s="1"/>
     </row>
     <row r="378" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A378" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B378">
         <v>2017</v>
       </c>
       <c r="C378" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="D378" t="s">
         <v>398</v>
       </c>
       <c r="E378">
-        <v>428837.02720000001</v>
+        <v>335189.66350000002</v>
       </c>
       <c r="G378">
-        <v>225</v>
+        <v>164</v>
       </c>
       <c r="H378">
-        <v>427568.04690000002</v>
+        <v>468737.82530000003</v>
       </c>
       <c r="J378">
-        <v>210</v>
+        <v>234</v>
       </c>
       <c r="K378">
-        <v>5.2467499999999995E-4</v>
+        <v>4.8927499999999995E-4</v>
       </c>
       <c r="M378">
-        <v>4.9114999999999999E-4</v>
+        <v>4.9921299999999998E-4</v>
       </c>
       <c r="T378">
-        <v>559299.05740000005</v>
+        <v>462415.17109999998</v>
       </c>
       <c r="V378">
-        <v>251</v>
+        <v>191</v>
       </c>
       <c r="W378">
-        <v>448350.49129999999</v>
+        <v>473601.95319999999</v>
       </c>
       <c r="Y378">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="Z378">
-        <v>4.4877600000000001E-4</v>
+        <v>4.1304900000000002E-4</v>
       </c>
       <c r="AB378">
-        <v>3.8139800000000002E-4</v>
+        <v>3.3994800000000002E-4</v>
       </c>
       <c r="AI378" s="1"/>
-      <c r="AJ378" s="1"/>
     </row>
     <row r="379" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A379" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B379">
         <v>2017</v>
       </c>
       <c r="C379" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="D379" t="s">
         <v>399</v>
       </c>
       <c r="E379">
-        <v>335189.66350000002</v>
+        <v>415980.81530000002</v>
       </c>
       <c r="G379">
-        <v>164</v>
+        <v>175</v>
       </c>
       <c r="H379">
-        <v>468737.82530000003</v>
+        <v>447699.0932</v>
       </c>
       <c r="J379">
+        <v>255</v>
+      </c>
+      <c r="K379">
+        <v>4.2069200000000002E-4</v>
+      </c>
+      <c r="M379">
+        <v>5.6957899999999996E-4</v>
+      </c>
+      <c r="T379">
+        <v>518630.28600000002</v>
+      </c>
+      <c r="V379">
         <v>234</v>
       </c>
-      <c r="K379">
-        <v>4.8927499999999995E-4</v>
-      </c>
-      <c r="M379">
-        <v>4.9921299999999998E-4</v>
-      </c>
-      <c r="T379">
-        <v>462415.17109999998</v>
-      </c>
-      <c r="V379">
-        <v>191</v>
-      </c>
       <c r="W379">
-        <v>473601.95319999999</v>
+        <v>413054.86349999998</v>
       </c>
       <c r="Y379">
-        <v>161</v>
+        <v>219</v>
       </c>
       <c r="Z379">
-        <v>4.1304900000000002E-4</v>
+        <v>4.5118799999999999E-4</v>
       </c>
       <c r="AB379">
-        <v>3.3994800000000002E-4</v>
+        <v>5.3019600000000003E-4</v>
       </c>
       <c r="AI379" s="1"/>
+      <c r="AJ379" s="1"/>
     </row>
     <row r="380" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A380" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B380">
         <v>2017</v>
       </c>
       <c r="C380" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="D380" t="s">
         <v>400</v>
       </c>
       <c r="E380">
-        <v>415980.81530000002</v>
+        <v>398467.81939999998</v>
       </c>
       <c r="G380">
-        <v>175</v>
+        <v>126</v>
       </c>
       <c r="H380">
-        <v>447699.0932</v>
+        <v>393915.15240000002</v>
       </c>
       <c r="J380">
-        <v>255</v>
+        <v>170</v>
       </c>
       <c r="K380">
-        <v>4.2069200000000002E-4</v>
+        <v>3.16211E-4</v>
       </c>
       <c r="M380">
-        <v>5.6957899999999996E-4</v>
+        <v>4.3156500000000002E-4</v>
       </c>
       <c r="T380">
-        <v>518630.28600000002</v>
+        <v>499618.71870000003</v>
       </c>
       <c r="V380">
-        <v>234</v>
+        <v>181</v>
       </c>
       <c r="W380">
-        <v>413054.86349999998</v>
+        <v>341309.42330000002</v>
       </c>
       <c r="Y380">
-        <v>219</v>
+        <v>105</v>
       </c>
       <c r="Z380">
-        <v>4.5118799999999999E-4</v>
+        <v>3.6227600000000003E-4</v>
       </c>
       <c r="AB380">
-        <v>5.3019600000000003E-4</v>
+        <v>3.0763900000000001E-4</v>
       </c>
       <c r="AI380" s="1"/>
       <c r="AJ380" s="1"/>
     </row>
     <row r="381" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A381" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B381">
         <v>2017</v>
       </c>
       <c r="C381" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="D381" t="s">
         <v>401</v>
       </c>
       <c r="E381">
-        <v>398467.81939999998</v>
+        <v>553280.74490000005</v>
       </c>
       <c r="G381">
-        <v>126</v>
+        <v>201</v>
       </c>
       <c r="H381">
-        <v>393915.15240000002</v>
+        <v>353805.23060000001</v>
       </c>
       <c r="J381">
-        <v>170</v>
+        <v>128</v>
       </c>
       <c r="K381">
-        <v>3.16211E-4</v>
+        <v>3.6328800000000002E-4</v>
       </c>
       <c r="M381">
-        <v>4.3156500000000002E-4</v>
+        <v>3.6178099999999998E-4</v>
       </c>
       <c r="T381">
-        <v>499618.71870000003</v>
+        <v>584180.32590000005</v>
       </c>
       <c r="V381">
-        <v>181</v>
+        <v>212</v>
       </c>
       <c r="W381">
-        <v>341309.42330000002</v>
+        <v>395392.3665</v>
       </c>
       <c r="Y381">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="Z381">
-        <v>3.6227600000000003E-4</v>
+        <v>3.6290200000000002E-4</v>
       </c>
       <c r="AB381">
-        <v>3.0763900000000001E-4</v>
+        <v>2.6050100000000001E-4</v>
       </c>
       <c r="AI381" s="1"/>
       <c r="AJ381" s="1"/>
     </row>
     <row r="382" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A382" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B382">
         <v>2017</v>
       </c>
       <c r="C382" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="D382" t="s">
         <v>402</v>
       </c>
       <c r="E382">
-        <v>553280.74490000005</v>
+        <v>533729.90549999999</v>
       </c>
       <c r="G382">
-        <v>201</v>
+        <v>192</v>
       </c>
       <c r="H382">
-        <v>353805.23060000001</v>
+        <v>459169.74959999998</v>
       </c>
       <c r="J382">
-        <v>128</v>
+        <v>293</v>
       </c>
       <c r="K382">
-        <v>3.6328800000000002E-4</v>
+        <v>3.5973299999999999E-4</v>
       </c>
       <c r="M382">
-        <v>3.6178099999999998E-4</v>
+        <v>6.3810799999999997E-4</v>
       </c>
       <c r="T382">
-        <v>584180.32590000005</v>
+        <v>652695.47270000004</v>
       </c>
       <c r="V382">
-        <v>212</v>
+        <v>290</v>
       </c>
       <c r="W382">
-        <v>395392.3665</v>
+        <v>465348.24200000003</v>
       </c>
       <c r="Y382">
-        <v>103</v>
+        <v>241</v>
       </c>
       <c r="Z382">
-        <v>3.6290200000000002E-4</v>
+        <v>4.4431100000000002E-4</v>
       </c>
       <c r="AB382">
-        <v>2.6050100000000001E-4</v>
+        <v>5.1789200000000005E-4</v>
       </c>
       <c r="AI382" s="1"/>
       <c r="AJ382" s="1"/>
     </row>
     <row r="383" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A383" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B383">
         <v>2017</v>
       </c>
       <c r="C383" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="D383" t="s">
         <v>403</v>
       </c>
       <c r="E383">
-        <v>533729.90549999999</v>
+        <v>426900.63089999999</v>
       </c>
       <c r="G383">
-        <v>192</v>
+        <v>151</v>
       </c>
       <c r="H383">
-        <v>459169.74959999998</v>
+        <v>363744.3897</v>
       </c>
       <c r="J383">
-        <v>293</v>
+        <v>239</v>
       </c>
       <c r="K383">
-        <v>3.5973299999999999E-4</v>
+        <v>3.53712E-4</v>
       </c>
       <c r="M383">
-        <v>6.3810799999999997E-4</v>
+        <v>6.5705500000000003E-4</v>
       </c>
       <c r="T383">
-        <v>652695.47270000004</v>
+        <v>613019.8162</v>
       </c>
       <c r="V383">
-        <v>290</v>
+        <v>246</v>
       </c>
       <c r="W383">
-        <v>465348.24200000003</v>
+        <v>448831.03080000001</v>
       </c>
       <c r="Y383">
-        <v>241</v>
+        <v>208</v>
       </c>
       <c r="Z383">
-        <v>4.4431100000000002E-4</v>
+        <v>4.0129199999999998E-4</v>
       </c>
       <c r="AB383">
-        <v>5.1789200000000005E-4</v>
+        <v>4.6342600000000002E-4</v>
       </c>
       <c r="AI383" s="1"/>
-      <c r="AJ383" s="1"/>
     </row>
     <row r="384" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A384" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B384">
         <v>2017</v>
       </c>
       <c r="C384" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="D384" t="s">
         <v>404</v>
       </c>
       <c r="E384">
-        <v>426900.63089999999</v>
+        <v>396029.52630000003</v>
       </c>
       <c r="G384">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="H384">
-        <v>363744.3897</v>
+        <v>413499.8075</v>
       </c>
       <c r="J384">
-        <v>239</v>
+        <v>219</v>
       </c>
       <c r="K384">
-        <v>3.53712E-4</v>
+        <v>3.6360899999999998E-4</v>
       </c>
       <c r="M384">
-        <v>6.5705500000000003E-4</v>
+        <v>5.2962500000000004E-4</v>
       </c>
       <c r="T384">
-        <v>613019.8162</v>
+        <v>587164.12040000001</v>
       </c>
       <c r="V384">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="W384">
-        <v>448831.03080000001</v>
+        <v>475446.69099999999</v>
       </c>
       <c r="Y384">
-        <v>208</v>
+        <v>237</v>
       </c>
       <c r="Z384">
-        <v>4.0129199999999998E-4</v>
+        <v>4.2918200000000001E-4</v>
       </c>
       <c r="AB384">
-        <v>4.6342600000000002E-4</v>
+        <v>4.9847900000000002E-4</v>
       </c>
       <c r="AI384" s="1"/>
+      <c r="AJ384" s="1"/>
     </row>
     <row r="385" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A385" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B385">
         <v>2017</v>
       </c>
       <c r="C385" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="D385" t="s">
         <v>405</v>
       </c>
       <c r="E385">
-        <v>396029.52630000003</v>
+        <v>471399.4804</v>
       </c>
       <c r="G385">
-        <v>144</v>
+        <v>196</v>
       </c>
       <c r="H385">
-        <v>413499.8075</v>
+        <v>386975.80579999997</v>
       </c>
       <c r="J385">
-        <v>219</v>
+        <v>181</v>
       </c>
       <c r="K385">
-        <v>3.6360899999999998E-4</v>
+        <v>4.1578299999999997E-4</v>
       </c>
       <c r="M385">
-        <v>5.2962500000000004E-4</v>
+        <v>4.6772900000000001E-4</v>
       </c>
       <c r="T385">
-        <v>587164.12040000001</v>
+        <v>628699.64280000003</v>
       </c>
       <c r="V385">
-        <v>252</v>
+        <v>300</v>
       </c>
       <c r="W385">
-        <v>475446.69099999999</v>
+        <v>387902.17920000001</v>
       </c>
       <c r="Y385">
-        <v>237</v>
+        <v>158</v>
       </c>
       <c r="Z385">
-        <v>4.2918200000000001E-4</v>
+        <v>4.7717499999999998E-4</v>
       </c>
       <c r="AB385">
-        <v>4.9847900000000002E-4</v>
+        <v>4.0731900000000001E-4</v>
       </c>
       <c r="AI385" s="1"/>
       <c r="AJ385" s="1"/>
     </row>
     <row r="386" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A386" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B386">
         <v>2017</v>
       </c>
       <c r="C386" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="D386" t="s">
         <v>406</v>
       </c>
       <c r="E386">
-        <v>471399.4804</v>
+        <v>236492.18539999999</v>
       </c>
       <c r="G386">
-        <v>196</v>
+        <v>104</v>
       </c>
       <c r="H386">
-        <v>386975.80579999997</v>
+        <v>399406.65130000003</v>
       </c>
       <c r="J386">
-        <v>181</v>
+        <v>243</v>
       </c>
       <c r="K386">
-        <v>4.1578299999999997E-4</v>
+        <v>4.3976099999999999E-4</v>
       </c>
       <c r="M386">
-        <v>4.6772900000000001E-4</v>
+        <v>6.0840199999999997E-4</v>
       </c>
       <c r="T386">
-        <v>628699.64280000003</v>
+        <v>553347.4865</v>
       </c>
       <c r="V386">
-        <v>300</v>
+        <v>276</v>
       </c>
       <c r="W386">
-        <v>387902.17920000001</v>
+        <v>389655.2586</v>
       </c>
       <c r="Y386">
-        <v>158</v>
+        <v>232</v>
       </c>
       <c r="Z386">
-        <v>4.7717499999999998E-4</v>
+        <v>4.9878200000000002E-4</v>
       </c>
       <c r="AB386">
-        <v>4.0731900000000001E-4</v>
+        <v>5.9539800000000002E-4</v>
       </c>
       <c r="AI386" s="1"/>
       <c r="AJ386" s="1"/>
     </row>
     <row r="387" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A387" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B387">
         <v>2017</v>
       </c>
       <c r="C387" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="D387" t="s">
         <v>407</v>
       </c>
       <c r="E387">
-        <v>236492.18539999999</v>
+        <v>443293.25780000002</v>
       </c>
       <c r="G387">
-        <v>104</v>
+        <v>119</v>
       </c>
       <c r="H387">
-        <v>399406.65130000003</v>
+        <v>412961.4253</v>
       </c>
       <c r="J387">
-        <v>243</v>
+        <v>193</v>
       </c>
       <c r="K387">
-        <v>4.3976099999999999E-4</v>
+        <v>2.6844500000000002E-4</v>
       </c>
       <c r="M387">
-        <v>6.0840199999999997E-4</v>
+        <v>4.6735599999999999E-4</v>
       </c>
       <c r="T387">
-        <v>553347.4865</v>
+        <v>670719.26430000004</v>
       </c>
       <c r="V387">
-        <v>276</v>
+        <v>260</v>
       </c>
       <c r="W387">
-        <v>389655.2586</v>
+        <v>431110.69099999999</v>
       </c>
       <c r="Y387">
-        <v>232</v>
+        <v>158</v>
       </c>
       <c r="Z387">
-        <v>4.9878200000000002E-4</v>
+        <v>3.8764399999999998E-4</v>
       </c>
       <c r="AB387">
-        <v>5.9539800000000002E-4</v>
+        <v>3.6649499999999999E-4</v>
       </c>
       <c r="AI387" s="1"/>
       <c r="AJ387" s="1"/>
     </row>
     <row r="388" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A388" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B388">
         <v>2017</v>
       </c>
       <c r="C388" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="D388" t="s">
         <v>408</v>
       </c>
       <c r="E388">
-        <v>443293.25780000002</v>
+        <v>366091.9142</v>
       </c>
       <c r="G388">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H388">
-        <v>412961.4253</v>
+        <v>339656.01140000002</v>
       </c>
       <c r="J388">
-        <v>193</v>
+        <v>167</v>
       </c>
       <c r="K388">
-        <v>2.6844500000000002E-4</v>
+        <v>3.2232300000000001E-4</v>
       </c>
       <c r="M388">
-        <v>4.6735599999999999E-4</v>
+        <v>4.91674E-4</v>
       </c>
       <c r="T388">
-        <v>670719.26430000004</v>
+        <v>542449.02819999994</v>
       </c>
       <c r="V388">
-        <v>260</v>
+        <v>291</v>
       </c>
       <c r="W388">
-        <v>431110.69099999999</v>
+        <v>451212.37109999999</v>
       </c>
       <c r="Y388">
-        <v>158</v>
+        <v>308</v>
       </c>
       <c r="Z388">
-        <v>3.8764399999999998E-4</v>
+        <v>5.3645600000000004E-4</v>
       </c>
       <c r="AB388">
-        <v>3.6649499999999999E-4</v>
-      </c>
-      <c r="AI388" s="1"/>
-      <c r="AJ388" s="1"/>
+        <v>6.8260499999999997E-4</v>
+      </c>
     </row>
     <row r="389" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A389" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B389">
         <v>2017</v>
       </c>
       <c r="C389" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="D389" t="s">
         <v>409</v>
       </c>
       <c r="E389">
-        <v>366091.9142</v>
+        <v>439156.16840000002</v>
       </c>
       <c r="G389">
-        <v>118</v>
+        <v>169</v>
       </c>
       <c r="H389">
-        <v>339656.01140000002</v>
+        <v>434833.98239999998</v>
       </c>
       <c r="J389">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="K389">
-        <v>3.2232300000000001E-4</v>
+        <v>3.84829E-4</v>
       </c>
       <c r="M389">
-        <v>4.91674E-4</v>
+        <v>3.90954E-4</v>
       </c>
       <c r="T389">
-        <v>542449.02819999994</v>
+        <v>596652.99609999999</v>
       </c>
       <c r="V389">
-        <v>291</v>
+        <v>247</v>
       </c>
       <c r="W389">
-        <v>451212.37109999999</v>
+        <v>414903.16090000002</v>
       </c>
       <c r="Y389">
-        <v>308</v>
+        <v>172</v>
       </c>
       <c r="Z389">
-        <v>5.3645600000000004E-4</v>
+        <v>4.1397599999999998E-4</v>
       </c>
       <c r="AB389">
-        <v>6.8260499999999997E-4</v>
-      </c>
+        <v>4.1455499999999999E-4</v>
+      </c>
+      <c r="AI389" s="1"/>
+      <c r="AJ389" s="1"/>
     </row>
     <row r="390" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A390" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B390">
         <v>2017</v>
       </c>
       <c r="C390" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="D390" t="s">
         <v>410</v>
       </c>
       <c r="E390">
-        <v>439156.16840000002</v>
+        <v>384289.23389999999</v>
       </c>
       <c r="G390">
-        <v>169</v>
+        <v>106</v>
       </c>
       <c r="H390">
-        <v>434833.98239999998</v>
+        <v>344503.23129999998</v>
       </c>
       <c r="J390">
-        <v>170</v>
+        <v>279</v>
       </c>
       <c r="K390">
-        <v>3.84829E-4</v>
+        <v>2.7583399999999998E-4</v>
       </c>
       <c r="M390">
-        <v>3.90954E-4</v>
+        <v>8.0986199999999995E-4</v>
       </c>
       <c r="T390">
-        <v>596652.99609999999</v>
+        <v>531642.22829999996</v>
       </c>
       <c r="V390">
-        <v>247</v>
+        <v>193</v>
       </c>
       <c r="W390">
-        <v>414903.16090000002</v>
+        <v>326014.91820000001</v>
       </c>
       <c r="Y390">
-        <v>172</v>
+        <v>255</v>
       </c>
       <c r="Z390">
-        <v>4.1397599999999998E-4</v>
+        <v>3.6302600000000002E-4</v>
       </c>
       <c r="AB390">
-        <v>4.1455499999999999E-4</v>
+        <v>7.8217300000000005E-4</v>
       </c>
       <c r="AI390" s="1"/>
       <c r="AJ390" s="1"/>
     </row>
     <row r="391" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A391" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B391">
         <v>2017</v>
       </c>
       <c r="C391" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="D391" t="s">
         <v>411</v>
       </c>
       <c r="E391">
-        <v>384289.23389999999</v>
+        <v>492456.01020000002</v>
       </c>
       <c r="G391">
-        <v>106</v>
+        <v>326</v>
       </c>
       <c r="H391">
-        <v>344503.23129999998</v>
+        <v>396532.31300000002</v>
       </c>
       <c r="J391">
-        <v>279</v>
+        <v>204</v>
       </c>
       <c r="K391">
-        <v>2.7583399999999998E-4</v>
+        <v>6.6198799999999996E-4</v>
       </c>
       <c r="M391">
-        <v>8.0986199999999995E-4</v>
+        <v>5.1446E-4</v>
       </c>
       <c r="T391">
-        <v>531642.22829999996</v>
+        <v>613179.10620000004</v>
       </c>
       <c r="V391">
-        <v>193</v>
+        <v>375</v>
       </c>
       <c r="W391">
-        <v>326014.91820000001</v>
+        <v>439211.34149999998</v>
       </c>
       <c r="Y391">
-        <v>255</v>
+        <v>192</v>
       </c>
       <c r="Z391">
-        <v>3.6302600000000002E-4</v>
+        <v>6.1156700000000004E-4</v>
       </c>
       <c r="AB391">
-        <v>7.8217300000000005E-4</v>
+        <v>4.3714699999999998E-4</v>
       </c>
       <c r="AI391" s="1"/>
       <c r="AJ391" s="1"/>
     </row>
     <row r="392" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A392" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B392">
         <v>2017</v>
       </c>
       <c r="C392" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="D392" t="s">
         <v>412</v>
       </c>
       <c r="E392">
-        <v>492456.01020000002</v>
+        <v>498888.12070000003</v>
       </c>
       <c r="G392">
-        <v>326</v>
+        <v>289</v>
       </c>
       <c r="H392">
-        <v>396532.31300000002</v>
+        <v>406042.54609999998</v>
       </c>
       <c r="J392">
-        <v>204</v>
+        <v>224</v>
       </c>
       <c r="K392">
-        <v>6.6198799999999996E-4</v>
+        <v>5.7928799999999996E-4</v>
       </c>
       <c r="M392">
-        <v>5.1446E-4</v>
+        <v>5.5166600000000003E-4</v>
       </c>
       <c r="T392">
-        <v>613179.10620000004</v>
+        <v>626381.48450000002</v>
       </c>
       <c r="V392">
-        <v>375</v>
+        <v>389</v>
       </c>
       <c r="W392">
-        <v>439211.34149999998</v>
+        <v>383882.5551</v>
       </c>
       <c r="Y392">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="Z392">
-        <v>6.1156700000000004E-4</v>
+        <v>6.2102700000000002E-4</v>
       </c>
       <c r="AB392">
-        <v>4.3714699999999998E-4</v>
+        <v>4.9494299999999997E-4</v>
       </c>
       <c r="AI392" s="1"/>
       <c r="AJ392" s="1"/>
     </row>
     <row r="393" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A393" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B393">
         <v>2017</v>
       </c>
       <c r="C393" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="D393" t="s">
         <v>413</v>
       </c>
       <c r="E393">
-        <v>498888.12070000003</v>
+        <v>536568.6483</v>
       </c>
       <c r="G393">
-        <v>289</v>
+        <v>217</v>
       </c>
       <c r="H393">
-        <v>406042.54609999998</v>
+        <v>299822.84470000002</v>
       </c>
       <c r="J393">
-        <v>224</v>
+        <v>183</v>
       </c>
       <c r="K393">
-        <v>5.7928799999999996E-4</v>
+        <v>4.0442199999999998E-4</v>
       </c>
       <c r="M393">
-        <v>5.5166600000000003E-4</v>
+        <v>6.1036E-4</v>
       </c>
       <c r="T393">
-        <v>626381.48450000002</v>
+        <v>603950.07770000002</v>
       </c>
       <c r="V393">
-        <v>389</v>
+        <v>276</v>
       </c>
       <c r="W393">
-        <v>383882.5551</v>
+        <v>284428.67219999997</v>
       </c>
       <c r="Y393">
-        <v>190</v>
+        <v>157</v>
       </c>
       <c r="Z393">
-        <v>6.2102700000000002E-4</v>
+        <v>4.5699100000000002E-4</v>
       </c>
       <c r="AB393">
-        <v>4.9494299999999997E-4</v>
+        <v>5.5198400000000005E-4</v>
       </c>
       <c r="AI393" s="1"/>
       <c r="AJ393" s="1"/>
     </row>
     <row r="394" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A394" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B394">
         <v>2017</v>
       </c>
       <c r="C394" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="D394" t="s">
         <v>414</v>
       </c>
       <c r="E394">
-        <v>536568.6483</v>
+        <v>317205.91690000001</v>
       </c>
       <c r="G394">
-        <v>217</v>
+        <v>153</v>
       </c>
       <c r="H394">
-        <v>299822.84470000002</v>
+        <v>268552.18040000001</v>
       </c>
       <c r="J394">
-        <v>183</v>
+        <v>140</v>
       </c>
       <c r="K394">
-        <v>4.0442199999999998E-4</v>
+        <v>4.82337E-4</v>
       </c>
       <c r="M394">
-        <v>6.1036E-4</v>
+        <v>5.2131400000000004E-4</v>
       </c>
       <c r="T394">
-        <v>603950.07770000002</v>
+        <v>416497.84019999998</v>
       </c>
       <c r="V394">
-        <v>276</v>
+        <v>212</v>
       </c>
       <c r="W394">
-        <v>284428.67219999997</v>
+        <v>432839.74339999998</v>
       </c>
       <c r="Y394">
-        <v>157</v>
+        <v>238</v>
       </c>
       <c r="Z394">
-        <v>4.5699100000000002E-4</v>
+        <v>5.09006E-4</v>
       </c>
       <c r="AB394">
-        <v>5.5198400000000005E-4</v>
+        <v>5.4985699999999995E-4</v>
       </c>
       <c r="AI394" s="1"/>
       <c r="AJ394" s="1"/>
     </row>
     <row r="395" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A395" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B395">
         <v>2017</v>
       </c>
       <c r="C395" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="D395" t="s">
         <v>415</v>
       </c>
       <c r="E395">
-        <v>317205.91690000001</v>
+        <v>432053.97230000002</v>
       </c>
       <c r="G395">
-        <v>153</v>
+        <v>227</v>
       </c>
       <c r="H395">
-        <v>268552.18040000001</v>
+        <v>339079.364</v>
       </c>
       <c r="J395">
-        <v>140</v>
+        <v>156</v>
       </c>
       <c r="K395">
-        <v>4.82337E-4</v>
+        <v>5.2539700000000004E-4</v>
       </c>
       <c r="M395">
-        <v>5.2131400000000004E-4</v>
+        <v>4.6006900000000002E-4</v>
       </c>
       <c r="T395">
-        <v>416497.84019999998</v>
+        <v>502479.70860000001</v>
       </c>
       <c r="V395">
-        <v>212</v>
+        <v>269</v>
       </c>
       <c r="W395">
-        <v>432839.74339999998</v>
+        <v>459363.7452</v>
       </c>
       <c r="Y395">
-        <v>238</v>
+        <v>192</v>
       </c>
       <c r="Z395">
-        <v>5.09006E-4</v>
+        <v>5.35345E-4</v>
       </c>
       <c r="AB395">
-        <v>5.4985699999999995E-4</v>
+        <v>4.1796900000000002E-4</v>
       </c>
       <c r="AI395" s="1"/>
       <c r="AJ395" s="1"/>
     </row>
     <row r="396" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A396" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B396">
         <v>2017</v>
       </c>
       <c r="C396" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="D396" t="s">
         <v>416</v>
       </c>
       <c r="E396">
-        <v>432053.97230000002</v>
+        <v>469605.46610000002</v>
       </c>
       <c r="G396">
-        <v>227</v>
+        <v>268</v>
       </c>
       <c r="H396">
-        <v>339079.364</v>
+        <v>316445.06270000001</v>
       </c>
       <c r="J396">
-        <v>156</v>
+        <v>129</v>
       </c>
       <c r="K396">
-        <v>5.2539700000000004E-4</v>
+        <v>5.7069200000000003E-4</v>
       </c>
       <c r="M396">
-        <v>4.6006900000000002E-4</v>
+        <v>4.0765400000000002E-4</v>
       </c>
       <c r="T396">
-        <v>502479.70860000001</v>
+        <v>550622.64939999999</v>
       </c>
       <c r="V396">
-        <v>269</v>
+        <v>321</v>
       </c>
       <c r="W396">
-        <v>459363.7452</v>
+        <v>421639.61310000002</v>
       </c>
       <c r="Y396">
-        <v>192</v>
+        <v>201</v>
       </c>
       <c r="Z396">
-        <v>5.35345E-4</v>
+        <v>5.8297600000000002E-4</v>
       </c>
       <c r="AB396">
-        <v>4.1796900000000002E-4</v>
+        <v>4.7670999999999998E-4</v>
       </c>
       <c r="AI396" s="1"/>
       <c r="AJ396" s="1"/>
     </row>
     <row r="397" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A397" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B397">
         <v>2017</v>
       </c>
       <c r="C397" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="D397" t="s">
         <v>417</v>
       </c>
       <c r="E397">
-        <v>469605.46610000002</v>
+        <v>430500.2279</v>
       </c>
       <c r="G397">
-        <v>268</v>
+        <v>155</v>
       </c>
       <c r="H397">
-        <v>316445.06270000001</v>
+        <v>377842.88520000002</v>
       </c>
       <c r="J397">
-        <v>129</v>
+        <v>210</v>
       </c>
       <c r="K397">
-        <v>5.7069200000000003E-4</v>
+        <v>3.6004599999999999E-4</v>
       </c>
       <c r="M397">
-        <v>4.0765400000000002E-4</v>
+        <v>5.5578699999999997E-4</v>
       </c>
       <c r="T397">
-        <v>550622.64939999999</v>
+        <v>490672.67469999997</v>
       </c>
       <c r="V397">
+        <v>177</v>
+      </c>
+      <c r="W397">
+        <v>464865.9227</v>
+      </c>
+      <c r="Y397">
         <v>321</v>
       </c>
-      <c r="W397">
-        <v>421639.61310000002</v>
-      </c>
-      <c r="Y397">
-        <v>201</v>
-      </c>
       <c r="Z397">
-        <v>5.8297600000000002E-4</v>
+        <v>3.6072900000000001E-4</v>
       </c>
       <c r="AB397">
-        <v>4.7670999999999998E-4</v>
+        <v>6.9052200000000005E-4</v>
       </c>
       <c r="AI397" s="1"/>
       <c r="AJ397" s="1"/>
     </row>
     <row r="398" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A398" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B398">
         <v>2017</v>
       </c>
       <c r="C398" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="D398" t="s">
         <v>418</v>
       </c>
       <c r="E398">
-        <v>430500.2279</v>
+        <v>443738.20179999998</v>
       </c>
       <c r="G398">
         <v>155</v>
       </c>
       <c r="H398">
-        <v>377842.88520000002</v>
+        <v>365231.39250000002</v>
       </c>
       <c r="J398">
-        <v>210</v>
+        <v>184</v>
       </c>
       <c r="K398">
-        <v>3.6004599999999999E-4</v>
+        <v>3.49305E-4</v>
       </c>
       <c r="M398">
-        <v>5.5578699999999997E-4</v>
+        <v>5.0379000000000005E-4</v>
       </c>
       <c r="T398">
-        <v>490672.67469999997</v>
+        <v>550859.35959999997</v>
       </c>
       <c r="V398">
-        <v>177</v>
+        <v>213</v>
       </c>
       <c r="W398">
-        <v>464865.9227</v>
+        <v>379511.4252</v>
       </c>
       <c r="Y398">
-        <v>321</v>
+        <v>217</v>
       </c>
       <c r="Z398">
-        <v>3.6072900000000001E-4</v>
+        <v>3.8666900000000002E-4</v>
       </c>
       <c r="AB398">
-        <v>6.9052200000000005E-4</v>
+        <v>5.7178800000000005E-4</v>
       </c>
       <c r="AI398" s="1"/>
       <c r="AJ398" s="1"/>
     </row>
     <row r="399" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A399" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B399">
         <v>2017</v>
       </c>
       <c r="C399" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="D399" t="s">
         <v>419</v>
       </c>
       <c r="E399">
-        <v>443738.20179999998</v>
+        <v>386725.74729999999</v>
       </c>
       <c r="G399">
-        <v>155</v>
+        <v>226</v>
       </c>
       <c r="H399">
-        <v>365231.39250000002</v>
+        <v>352709.77850000001</v>
       </c>
       <c r="J399">
-        <v>184</v>
+        <v>169</v>
       </c>
       <c r="K399">
-        <v>3.49305E-4</v>
+        <v>5.84393E-4</v>
       </c>
       <c r="M399">
-        <v>5.0379000000000005E-4</v>
+        <v>4.7914700000000003E-4</v>
       </c>
       <c r="T399">
-        <v>550859.35959999997</v>
+        <v>487701.33860000002</v>
       </c>
       <c r="V399">
-        <v>213</v>
+        <v>353</v>
       </c>
       <c r="W399">
-        <v>379511.4252</v>
+        <v>462602.04759999999</v>
       </c>
       <c r="Y399">
-        <v>217</v>
+        <v>228</v>
       </c>
       <c r="Z399">
-        <v>3.8666900000000002E-4</v>
+        <v>7.2380399999999998E-4</v>
       </c>
       <c r="AB399">
-        <v>5.7178800000000005E-4</v>
+        <v>4.9286399999999998E-4</v>
       </c>
       <c r="AI399" s="1"/>
       <c r="AJ399" s="1"/>
-    </row>
-    <row r="400" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A400" t="s">
-        <v>348</v>
-      </c>
-      <c r="B400">
-        <v>2017</v>
-      </c>
-      <c r="C400" t="s">
-        <v>385</v>
-      </c>
-      <c r="D400" t="s">
-        <v>420</v>
-      </c>
-      <c r="E400">
-        <v>386725.74729999999</v>
-      </c>
-      <c r="G400">
-        <v>226</v>
-      </c>
-      <c r="H400">
-        <v>352709.77850000001</v>
-      </c>
-      <c r="J400">
-        <v>169</v>
-      </c>
-      <c r="K400">
-        <v>5.84393E-4</v>
-      </c>
-      <c r="M400">
-        <v>4.7914700000000003E-4</v>
-      </c>
-      <c r="T400">
-        <v>487701.33860000002</v>
-      </c>
-      <c r="V400">
-        <v>353</v>
-      </c>
-      <c r="W400">
-        <v>462602.04759999999</v>
-      </c>
-      <c r="Y400">
-        <v>228</v>
-      </c>
-      <c r="Z400">
-        <v>7.2380399999999998E-4</v>
-      </c>
-      <c r="AB400">
-        <v>4.9286399999999998E-4</v>
-      </c>
-      <c r="AI400" s="1"/>
-      <c r="AJ400" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
